--- a/Things betwixt/Financial_Template.xlsx
+++ b/Things betwixt/Financial_Template.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11145" tabRatio="834"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6915" tabRatio="834" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Personnel" sheetId="8" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="Charts" sheetId="10" r:id="rId6"/>
     <sheet name="Feasibility" sheetId="11" r:id="rId7"/>
     <sheet name="Cost Benefit" sheetId="12" r:id="rId8"/>
+    <sheet name="Things Betwixt" sheetId="13" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,8 +31,66 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Goran Cvijanović</author>
+  </authors>
+  <commentList>
+    <comment ref="H1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Goran Cvijanović:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Enter numbers for each field in ratio as you wish</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N4" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Goran Cvijanović:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Enter Net Profit/Sales percentages as you wish for each year</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="110">
   <si>
     <t>Number of Employees per Position</t>
   </si>
@@ -191,12 +250,203 @@
   <si>
     <t>F.Y.S. month</t>
   </si>
+  <si>
+    <t>k =</t>
+  </si>
+  <si>
+    <t>S =</t>
+  </si>
+  <si>
+    <t>Net Other Income</t>
+  </si>
+  <si>
+    <t>Interest Expense</t>
+  </si>
+  <si>
+    <t>Total Operating Expenses</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Other Costs</t>
+    </r>
+  </si>
+  <si>
+    <t>Taxes Included ("TRUE" or "FALSE")</t>
+  </si>
+  <si>
+    <t>Tax Rate</t>
+  </si>
+  <si>
+    <t>Max value for Net Profit / Sales</t>
+  </si>
+  <si>
+    <t>Net Profit / Sales</t>
+  </si>
+  <si>
+    <t>Direct Cost of Sales</t>
+  </si>
+  <si>
+    <t>Profit and Losses</t>
+  </si>
+  <si>
+    <t>GOODS</t>
+  </si>
+  <si>
+    <t>Insurance</t>
+  </si>
+  <si>
+    <t>Utilities</t>
+  </si>
+  <si>
+    <t>Operating Expenses</t>
+  </si>
+  <si>
+    <t>Maintenance Expenses</t>
+  </si>
+  <si>
+    <t>EBITDA</t>
+  </si>
+  <si>
+    <t>Depreciation</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Rent</t>
+  </si>
+  <si>
+    <t>Pro Forma Profit and Loss</t>
+  </si>
+  <si>
+    <t>Total Cost of Sales</t>
+  </si>
+  <si>
+    <t>Gross Margin %</t>
+  </si>
+  <si>
+    <t>Payroll</t>
+  </si>
+  <si>
+    <t>Profit Before Interest and Taxes</t>
+  </si>
+  <si>
+    <t>Net Profit/Sales</t>
+  </si>
+  <si>
+    <t>Direct Unit Costs</t>
+  </si>
+  <si>
+    <t>Unit Prices</t>
+  </si>
+  <si>
+    <t>name 5</t>
+  </si>
+  <si>
+    <t>name 3</t>
+  </si>
+  <si>
+    <t>name 1</t>
+  </si>
+  <si>
+    <t>name 6</t>
+  </si>
+  <si>
+    <t>name 4</t>
+  </si>
+  <si>
+    <t>name 2</t>
+  </si>
+  <si>
+    <t>Sales Forecast</t>
+  </si>
+  <si>
+    <t>Unit Sales</t>
+  </si>
+  <si>
+    <t>Total Unit Sales</t>
+  </si>
+  <si>
+    <t>Total Sales</t>
+  </si>
+  <si>
+    <t>Subtotal Direct Cost of Sales</t>
+  </si>
+  <si>
+    <t>Ratio for each year</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Taxes Incurred</t>
+  </si>
+  <si>
+    <t>Other Costs of Sales</t>
+  </si>
+  <si>
+    <t>Net Worth</t>
+  </si>
+  <si>
+    <t>Total Assets</t>
+  </si>
+  <si>
+    <t>Total Long-term Assets</t>
+  </si>
+  <si>
+    <t>Accumulated Depreciation</t>
+  </si>
+  <si>
+    <t>Long-term Assets</t>
+  </si>
+  <si>
+    <t>Total Capital</t>
+  </si>
+  <si>
+    <t>Total Current Assets</t>
+  </si>
+  <si>
+    <t>Assets</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>Pro Forma Balance Sheet</t>
+  </si>
+  <si>
+    <t>Current Assets</t>
+  </si>
+  <si>
+    <t>Paid-in Capital</t>
+  </si>
+  <si>
+    <t>Retained Earnings</t>
+  </si>
+  <si>
+    <t>Earnings</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="10">
+  <numFmts count="15">
     <numFmt numFmtId="5" formatCode="&quot;$&quot;#,##0_);\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="7" formatCode="&quot;$&quot;#,##0.00_);\(&quot;$&quot;#,##0.00\)"/>
@@ -207,8 +457,13 @@
     <numFmt numFmtId="167" formatCode="0%_)"/>
     <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0_)"/>
     <numFmt numFmtId="169" formatCode="0_)"/>
+    <numFmt numFmtId="170" formatCode="&quot;$&quot;#,##0.0_);[Red]\(&quot;$&quot;#,##0.0\)"/>
+    <numFmt numFmtId="171" formatCode="0.0000%_)"/>
+    <numFmt numFmtId="172" formatCode="0.00%_)"/>
+    <numFmt numFmtId="173" formatCode="#,##0_);\-#,##0_)"/>
+    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -304,8 +559,71 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Symbol"/>
+      <family val="1"/>
+      <charset val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Symbol"/>
+      <family val="1"/>
+      <charset val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Brush Script MT"/>
+      <family val="4"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Kunstler Script"/>
+      <family val="4"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="13">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -378,8 +696,34 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF9797"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <gradientFill type="path">
+        <stop position="0">
+          <color theme="0"/>
+        </stop>
+        <stop position="1">
+          <color theme="5"/>
+        </stop>
+      </gradientFill>
+    </fill>
+    <fill>
+      <gradientFill type="path" left="1" right="1">
+        <stop position="0">
+          <color theme="0"/>
+        </stop>
+        <stop position="1">
+          <color theme="5"/>
+        </stop>
+      </gradientFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -481,15 +825,84 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="dotted">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color auto="1"/>
+      </left>
+      <right style="dotted">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="195">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyProtection="1"/>
     <xf numFmtId="3" fontId="5" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -752,6 +1165,192 @@
     <xf numFmtId="169" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="40" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="3" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="4" fillId="6" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="4" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="4" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="4" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="4" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="5" fontId="4" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="10" fillId="6" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="4" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="5" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="4" fillId="6" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="6" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="173" fontId="4" fillId="0" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="4" fillId="0" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="4" fillId="0" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="4" fillId="0" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="4" fillId="0" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="4" fillId="0" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="4" fillId="0" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="4" fillId="0" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="5" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="6" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="6" borderId="10" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="6" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="49" fontId="11" fillId="5" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -770,13 +1369,127 @@
     <xf numFmtId="49" fontId="5" fillId="4" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="4" fillId="0" borderId="4" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="4" fillId="0" borderId="4" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="4" fillId="0" borderId="4" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="4" fillId="6" borderId="4" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="5" borderId="4" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="6" borderId="3" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="6" borderId="10" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="6" borderId="5" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="3" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="10" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="5" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="7" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="7" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal_Balance Sheet" xfId="6"/>
     <cellStyle name="Normal_BEA" xfId="4"/>
     <cellStyle name="Normal_Break-even" xfId="3"/>
     <cellStyle name="Normal_Profit and Loss" xfId="2"/>
+    <cellStyle name="Normal_Sales Forecast" xfId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -883,7 +1596,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Charts!$S$2</c:f>
+              <c:f>Charts!$L$19</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -904,7 +1617,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Charts!$T$1:$X$1</c:f>
+              <c:f>Charts!$M$18:$Q$18</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -927,24 +1640,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Charts!$T$2:$X$2</c:f>
+              <c:f>Charts!$M$19:$Q$19</c:f>
               <c:numCache>
                 <c:formatCode>"$"#,##0_);\("$"#,##0\)</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>16500</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>17325</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>18191.25</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>19100.810000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>20055.849999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -960,7 +1673,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Charts!$S$3</c:f>
+              <c:f>Charts!$L$20</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -981,7 +1694,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Charts!$T$1:$X$1</c:f>
+              <c:f>Charts!$M$18:$Q$18</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -1004,24 +1717,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Charts!$T$3:$X$3</c:f>
+              <c:f>Charts!$M$20:$Q$20</c:f>
               <c:numCache>
                 <c:formatCode>"$"#,##0_);\("$"#,##0\)</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>6121.8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>8904</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>15077.25</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>22855.31</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>32748.45</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1037,7 +1750,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Charts!$S$4</c:f>
+              <c:f>Charts!$L$21</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1058,7 +1771,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Charts!$T$1:$X$1</c:f>
+              <c:f>Charts!$M$18:$Q$18</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -1081,24 +1794,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Charts!$T$4:$X$4</c:f>
+              <c:f>Charts!$M$21:$Q$21</c:f>
               <c:numCache>
                 <c:formatCode>"$"#,##0_);\("$"#,##0\)</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>22621.8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>26229</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>33268.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>41956.12</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>52804.3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1275,10 +1988,7 @@
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
+        <a:schemeClr val="tx1"/>
       </a:solidFill>
       <a:round/>
     </a:ln>
@@ -1393,7 +2103,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Charts!$S$6</c:f>
+              <c:f>Charts!$L$23</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1414,7 +2124,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Charts!$T$5:$X$5</c:f>
+              <c:f>Charts!$M$22:$Q$22</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -1437,24 +2147,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Charts!$T$6:$X$6</c:f>
+              <c:f>Charts!$M$23:$Q$23</c:f>
               <c:numCache>
                 <c:formatCode>"$"#,##0_);\("$"#,##0\)</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>14284.2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>20776</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>35180.25</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>53329.06</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>76413.05</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1470,7 +2180,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Charts!$S$7</c:f>
+              <c:f>Charts!$L$24</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1491,7 +2201,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Charts!$T$5:$X$5</c:f>
+              <c:f>Charts!$M$22:$Q$22</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -1514,24 +2224,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Charts!$T$7:$X$7</c:f>
+              <c:f>Charts!$M$24:$Q$24</c:f>
               <c:numCache>
                 <c:formatCode>"$"#,##0_);\("$"#,##0\)</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>208406</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>225730</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>254760</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>289562</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>331858</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1547,7 +2257,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Charts!$S$8</c:f>
+              <c:f>Charts!$L$25</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1568,7 +2278,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Charts!$T$5:$X$5</c:f>
+              <c:f>Charts!$M$22:$Q$22</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -1591,24 +2301,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Charts!$T$8:$X$8</c:f>
+              <c:f>Charts!$M$25:$Q$25</c:f>
               <c:numCache>
                 <c:formatCode>"$"#,##0_);\("$"#,##0\)</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>479359</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>519416</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>586386</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>666628</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>764098</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1787,10 +2497,7 @@
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:solidFill>
       <a:round/>
     </a:ln>
@@ -1946,31 +2653,31 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>435</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>870</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>1,306</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>1,741</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>2,176</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>2,611</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>3,046</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>3,481</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>3,917</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1989,31 +2696,31 @@
                 <c:formatCode>"$"#,##0.00_);[Red]\("$"#,##0.00\)</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>15667</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>15667</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>15667</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>15667</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>15667</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>15667</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>15667</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>15667</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>15667</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2067,31 +2774,31 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>435</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>870</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>1,306</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>1,741</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>2,176</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>2,611</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>3,046</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>3,481</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>3,917</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2110,31 +2817,31 @@
                 <c:formatCode>"$"#,##0.00_);[Red]\("$"#,##0.00\)</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>5998.65</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>11997.3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>18009.739999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>24008.39</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>30007.039999999997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>36005.689999999995</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>42004.34</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>48002.99</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>54015.43</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2188,31 +2895,31 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>435</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>870</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>1,306</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>1,741</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>2,176</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>2,611</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>3,046</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>3,481</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>3,917</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2231,31 +2938,31 @@
                 <c:formatCode>"$"#,##0.00_);[Red]\("$"#,##0.00\)</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>19055.650000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>22444.3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>25840.739999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>29229.39</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>32618.04</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>36006.69</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>39395.339999999997</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>42783.990000000005</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>46180.43</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2507,10 +3214,7 @@
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
+        <a:schemeClr val="tx1"/>
       </a:solidFill>
       <a:round/>
     </a:ln>
@@ -4185,7 +4889,7 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>44450</xdr:colOff>
@@ -4193,8 +4897,8 @@
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>567650</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>498050</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>71100</xdr:rowOff>
     </xdr:to>
@@ -4217,18 +4921,18 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>34925</xdr:colOff>
+      <xdr:colOff>589029</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>34925</xdr:rowOff>
+      <xdr:rowOff>39491</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>558125</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>360926</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>67925</xdr:rowOff>
+      <xdr:rowOff>72491</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4249,7 +4953,7 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
@@ -4257,8 +4961,8 @@
       <xdr:rowOff>130175</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>570825</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>501225</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>163175</xdr:rowOff>
     </xdr:to>
@@ -4804,7 +5508,7 @@
   </sheetPr>
   <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScale="150" zoomScaleNormal="150" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
@@ -5487,16 +6191,768 @@
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF3399"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" customWidth="1"/>
-    <col min="2" max="6" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.42578125" style="106" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="6.28515625" style="106" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.28515625" style="106"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="142" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" s="143" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="143" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="143" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="143" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="143" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="127" t="s">
+        <v>89</v>
+      </c>
+      <c r="B2" s="144"/>
+      <c r="C2" s="145"/>
+      <c r="D2" s="145"/>
+      <c r="E2" s="145"/>
+      <c r="F2" s="146"/>
+    </row>
+    <row r="3" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="129" t="s">
+        <v>84</v>
+      </c>
+      <c r="B3" s="130">
+        <v>1</v>
+      </c>
+      <c r="C3" s="131">
+        <v>0</v>
+      </c>
+      <c r="D3" s="131">
+        <v>0</v>
+      </c>
+      <c r="E3" s="131">
+        <v>0</v>
+      </c>
+      <c r="F3" s="131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="132" t="s">
+        <v>87</v>
+      </c>
+      <c r="B4" s="130">
+        <v>1</v>
+      </c>
+      <c r="C4" s="131">
+        <v>0</v>
+      </c>
+      <c r="D4" s="131">
+        <v>0</v>
+      </c>
+      <c r="E4" s="131">
+        <v>0</v>
+      </c>
+      <c r="F4" s="131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="132" t="s">
+        <v>83</v>
+      </c>
+      <c r="B5" s="130">
+        <v>1</v>
+      </c>
+      <c r="C5" s="131">
+        <v>0</v>
+      </c>
+      <c r="D5" s="131">
+        <v>0</v>
+      </c>
+      <c r="E5" s="131">
+        <v>0</v>
+      </c>
+      <c r="F5" s="131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="132" t="s">
+        <v>86</v>
+      </c>
+      <c r="B6" s="130">
+        <v>1</v>
+      </c>
+      <c r="C6" s="131">
+        <v>0</v>
+      </c>
+      <c r="D6" s="131">
+        <v>0</v>
+      </c>
+      <c r="E6" s="131">
+        <v>0</v>
+      </c>
+      <c r="F6" s="131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="132" t="s">
+        <v>82</v>
+      </c>
+      <c r="B7" s="130">
+        <v>1</v>
+      </c>
+      <c r="C7" s="131">
+        <v>0</v>
+      </c>
+      <c r="D7" s="131">
+        <v>0</v>
+      </c>
+      <c r="E7" s="131">
+        <v>0</v>
+      </c>
+      <c r="F7" s="131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="129" t="s">
+        <v>85</v>
+      </c>
+      <c r="B8" s="130">
+        <v>1</v>
+      </c>
+      <c r="C8" s="131">
+        <v>0</v>
+      </c>
+      <c r="D8" s="131">
+        <v>0</v>
+      </c>
+      <c r="E8" s="131">
+        <v>0</v>
+      </c>
+      <c r="F8" s="131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="133" t="s">
+        <v>90</v>
+      </c>
+      <c r="B9" s="134">
+        <v>6</v>
+      </c>
+      <c r="C9" s="134">
+        <v>0</v>
+      </c>
+      <c r="D9" s="134">
+        <v>0</v>
+      </c>
+      <c r="E9" s="134">
+        <v>0</v>
+      </c>
+      <c r="F9" s="134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="127" t="s">
+        <v>81</v>
+      </c>
+      <c r="B10" s="128" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="128" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="128" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="128" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="128" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="135" t="s">
+        <v>84</v>
+      </c>
+      <c r="B11" s="136">
+        <v>12</v>
+      </c>
+      <c r="C11" s="137">
+        <v>12</v>
+      </c>
+      <c r="D11" s="137">
+        <v>12</v>
+      </c>
+      <c r="E11" s="137">
+        <v>12</v>
+      </c>
+      <c r="F11" s="137">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="135" t="s">
+        <v>87</v>
+      </c>
+      <c r="B12" s="136">
+        <v>13</v>
+      </c>
+      <c r="C12" s="137">
+        <v>13</v>
+      </c>
+      <c r="D12" s="137">
+        <v>13</v>
+      </c>
+      <c r="E12" s="137">
+        <v>13</v>
+      </c>
+      <c r="F12" s="137">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="135" t="s">
+        <v>83</v>
+      </c>
+      <c r="B13" s="136">
+        <v>14</v>
+      </c>
+      <c r="C13" s="137">
+        <v>14</v>
+      </c>
+      <c r="D13" s="137">
+        <v>14</v>
+      </c>
+      <c r="E13" s="137">
+        <v>14</v>
+      </c>
+      <c r="F13" s="137">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="135" t="s">
+        <v>86</v>
+      </c>
+      <c r="B14" s="136">
+        <v>15</v>
+      </c>
+      <c r="C14" s="137">
+        <v>15</v>
+      </c>
+      <c r="D14" s="137">
+        <v>15</v>
+      </c>
+      <c r="E14" s="137">
+        <v>15</v>
+      </c>
+      <c r="F14" s="137">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="135" t="s">
+        <v>82</v>
+      </c>
+      <c r="B15" s="136">
+        <v>16</v>
+      </c>
+      <c r="C15" s="137">
+        <v>16</v>
+      </c>
+      <c r="D15" s="137">
+        <v>16</v>
+      </c>
+      <c r="E15" s="137">
+        <v>16</v>
+      </c>
+      <c r="F15" s="137">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="138" t="s">
+        <v>85</v>
+      </c>
+      <c r="B16" s="136">
+        <v>17</v>
+      </c>
+      <c r="C16" s="137">
+        <v>17</v>
+      </c>
+      <c r="D16" s="137">
+        <v>17</v>
+      </c>
+      <c r="E16" s="137">
+        <v>17</v>
+      </c>
+      <c r="F16" s="137">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="127" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="144"/>
+      <c r="C17" s="145"/>
+      <c r="D17" s="145"/>
+      <c r="E17" s="145"/>
+      <c r="F17" s="146"/>
+    </row>
+    <row r="18" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="135" t="s">
+        <v>84</v>
+      </c>
+      <c r="B18" s="139">
+        <v>12</v>
+      </c>
+      <c r="C18" s="139">
+        <v>0</v>
+      </c>
+      <c r="D18" s="139">
+        <v>0</v>
+      </c>
+      <c r="E18" s="139">
+        <v>0</v>
+      </c>
+      <c r="F18" s="139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="135" t="s">
+        <v>87</v>
+      </c>
+      <c r="B19" s="139">
+        <v>13</v>
+      </c>
+      <c r="C19" s="139">
+        <v>0</v>
+      </c>
+      <c r="D19" s="139">
+        <v>0</v>
+      </c>
+      <c r="E19" s="139">
+        <v>0</v>
+      </c>
+      <c r="F19" s="139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="135" t="s">
+        <v>83</v>
+      </c>
+      <c r="B20" s="139">
+        <v>14</v>
+      </c>
+      <c r="C20" s="139">
+        <v>0</v>
+      </c>
+      <c r="D20" s="139">
+        <v>0</v>
+      </c>
+      <c r="E20" s="139">
+        <v>0</v>
+      </c>
+      <c r="F20" s="139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="135" t="s">
+        <v>86</v>
+      </c>
+      <c r="B21" s="139">
+        <v>15</v>
+      </c>
+      <c r="C21" s="139">
+        <v>0</v>
+      </c>
+      <c r="D21" s="139">
+        <v>0</v>
+      </c>
+      <c r="E21" s="139">
+        <v>0</v>
+      </c>
+      <c r="F21" s="139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="135" t="s">
+        <v>82</v>
+      </c>
+      <c r="B22" s="139">
+        <v>16</v>
+      </c>
+      <c r="C22" s="139">
+        <v>0</v>
+      </c>
+      <c r="D22" s="139">
+        <v>0</v>
+      </c>
+      <c r="E22" s="139">
+        <v>0</v>
+      </c>
+      <c r="F22" s="139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="138" t="s">
+        <v>85</v>
+      </c>
+      <c r="B23" s="139">
+        <v>17</v>
+      </c>
+      <c r="C23" s="139">
+        <v>0</v>
+      </c>
+      <c r="D23" s="139">
+        <v>0</v>
+      </c>
+      <c r="E23" s="139">
+        <v>0</v>
+      </c>
+      <c r="F23" s="139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="133" t="s">
+        <v>91</v>
+      </c>
+      <c r="B24" s="140">
+        <v>87</v>
+      </c>
+      <c r="C24" s="140">
+        <v>0</v>
+      </c>
+      <c r="D24" s="140">
+        <v>0</v>
+      </c>
+      <c r="E24" s="140">
+        <v>0</v>
+      </c>
+      <c r="F24" s="140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="127" t="s">
+        <v>80</v>
+      </c>
+      <c r="B25" s="128" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="128" t="s">
+        <v>2</v>
+      </c>
+      <c r="D25" s="128" t="s">
+        <v>3</v>
+      </c>
+      <c r="E25" s="128" t="s">
+        <v>4</v>
+      </c>
+      <c r="F25" s="128" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="135" t="s">
+        <v>84</v>
+      </c>
+      <c r="B26" s="141">
+        <v>6</v>
+      </c>
+      <c r="C26" s="137">
+        <v>6</v>
+      </c>
+      <c r="D26" s="137">
+        <v>6</v>
+      </c>
+      <c r="E26" s="137">
+        <v>6</v>
+      </c>
+      <c r="F26" s="137">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="135" t="s">
+        <v>87</v>
+      </c>
+      <c r="B27" s="141">
+        <v>7</v>
+      </c>
+      <c r="C27" s="137">
+        <v>7</v>
+      </c>
+      <c r="D27" s="137">
+        <v>7</v>
+      </c>
+      <c r="E27" s="137">
+        <v>7</v>
+      </c>
+      <c r="F27" s="137">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="135" t="s">
+        <v>83</v>
+      </c>
+      <c r="B28" s="141">
+        <v>8</v>
+      </c>
+      <c r="C28" s="137">
+        <v>8</v>
+      </c>
+      <c r="D28" s="137">
+        <v>8</v>
+      </c>
+      <c r="E28" s="137">
+        <v>8</v>
+      </c>
+      <c r="F28" s="137">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="135" t="s">
+        <v>86</v>
+      </c>
+      <c r="B29" s="141">
+        <v>9</v>
+      </c>
+      <c r="C29" s="137">
+        <v>9</v>
+      </c>
+      <c r="D29" s="137">
+        <v>9</v>
+      </c>
+      <c r="E29" s="137">
+        <v>9</v>
+      </c>
+      <c r="F29" s="137">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="135" t="s">
+        <v>82</v>
+      </c>
+      <c r="B30" s="141">
+        <v>10</v>
+      </c>
+      <c r="C30" s="137">
+        <v>10</v>
+      </c>
+      <c r="D30" s="137">
+        <v>10</v>
+      </c>
+      <c r="E30" s="137">
+        <v>10</v>
+      </c>
+      <c r="F30" s="137">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="138" t="s">
+        <v>85</v>
+      </c>
+      <c r="B31" s="141">
+        <v>11</v>
+      </c>
+      <c r="C31" s="137">
+        <v>11</v>
+      </c>
+      <c r="D31" s="137">
+        <v>11</v>
+      </c>
+      <c r="E31" s="137">
+        <v>11</v>
+      </c>
+      <c r="F31" s="137">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="127" t="s">
+        <v>63</v>
+      </c>
+      <c r="B32" s="144"/>
+      <c r="C32" s="145"/>
+      <c r="D32" s="145"/>
+      <c r="E32" s="145"/>
+      <c r="F32" s="146"/>
+    </row>
+    <row r="33" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="135" t="s">
+        <v>84</v>
+      </c>
+      <c r="B33" s="139">
+        <v>6</v>
+      </c>
+      <c r="C33" s="139">
+        <v>0</v>
+      </c>
+      <c r="D33" s="139">
+        <v>0</v>
+      </c>
+      <c r="E33" s="139">
+        <v>0</v>
+      </c>
+      <c r="F33" s="139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="135" t="s">
+        <v>87</v>
+      </c>
+      <c r="B34" s="139">
+        <v>7</v>
+      </c>
+      <c r="C34" s="139">
+        <v>0</v>
+      </c>
+      <c r="D34" s="139">
+        <v>0</v>
+      </c>
+      <c r="E34" s="139">
+        <v>0</v>
+      </c>
+      <c r="F34" s="139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="135" t="s">
+        <v>83</v>
+      </c>
+      <c r="B35" s="139">
+        <v>8</v>
+      </c>
+      <c r="C35" s="139">
+        <v>0</v>
+      </c>
+      <c r="D35" s="139">
+        <v>0</v>
+      </c>
+      <c r="E35" s="139">
+        <v>0</v>
+      </c>
+      <c r="F35" s="139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="135" t="s">
+        <v>86</v>
+      </c>
+      <c r="B36" s="139">
+        <v>9</v>
+      </c>
+      <c r="C36" s="139">
+        <v>0</v>
+      </c>
+      <c r="D36" s="139">
+        <v>0</v>
+      </c>
+      <c r="E36" s="139">
+        <v>0</v>
+      </c>
+      <c r="F36" s="139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="135" t="s">
+        <v>82</v>
+      </c>
+      <c r="B37" s="139">
+        <v>10</v>
+      </c>
+      <c r="C37" s="139">
+        <v>0</v>
+      </c>
+      <c r="D37" s="139">
+        <v>0</v>
+      </c>
+      <c r="E37" s="139">
+        <v>0</v>
+      </c>
+      <c r="F37" s="139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="138" t="s">
+        <v>85</v>
+      </c>
+      <c r="B38" s="139">
+        <v>11</v>
+      </c>
+      <c r="C38" s="139">
+        <v>0</v>
+      </c>
+      <c r="D38" s="139">
+        <v>0</v>
+      </c>
+      <c r="E38" s="139">
+        <v>0</v>
+      </c>
+      <c r="F38" s="139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="133" t="s">
+        <v>92</v>
+      </c>
+      <c r="B39" s="140">
+        <v>51</v>
+      </c>
+      <c r="C39" s="140">
+        <v>0</v>
+      </c>
+      <c r="D39" s="140">
+        <v>0</v>
+      </c>
+      <c r="E39" s="140">
+        <v>0</v>
+      </c>
+      <c r="F39" s="140">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -5507,17 +6963,470 @@
   <sheetPr codeName="Sheet3">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" customWidth="1"/>
-    <col min="2" max="6" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.140625" style="106" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="8" style="106" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.28515625" style="106"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="122" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="123" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="123" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="123" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="123" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="123" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="109" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="110">
+        <v>479359</v>
+      </c>
+      <c r="C2" s="110">
+        <v>519416</v>
+      </c>
+      <c r="D2" s="110">
+        <v>586386</v>
+      </c>
+      <c r="E2" s="110">
+        <v>666628</v>
+      </c>
+      <c r="F2" s="110">
+        <v>764098</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="111" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" s="112">
+        <v>270853</v>
+      </c>
+      <c r="C3" s="112">
+        <v>293486</v>
+      </c>
+      <c r="D3" s="112">
+        <v>331326</v>
+      </c>
+      <c r="E3" s="112">
+        <v>376666</v>
+      </c>
+      <c r="F3" s="112">
+        <v>431740</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="193" t="s">
+        <v>95</v>
+      </c>
+      <c r="B4" s="112">
+        <v>100</v>
+      </c>
+      <c r="C4" s="118">
+        <v>200</v>
+      </c>
+      <c r="D4" s="118">
+        <v>300</v>
+      </c>
+      <c r="E4" s="118">
+        <v>400</v>
+      </c>
+      <c r="F4" s="118">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="113" t="s">
+        <v>75</v>
+      </c>
+      <c r="B5" s="112">
+        <v>270953</v>
+      </c>
+      <c r="C5" s="112">
+        <v>293686</v>
+      </c>
+      <c r="D5" s="112">
+        <v>331626</v>
+      </c>
+      <c r="E5" s="112">
+        <v>377066</v>
+      </c>
+      <c r="F5" s="112">
+        <v>432240</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="111" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="114">
+        <v>208406</v>
+      </c>
+      <c r="C6" s="114">
+        <v>225730</v>
+      </c>
+      <c r="D6" s="114">
+        <v>254760</v>
+      </c>
+      <c r="E6" s="114">
+        <v>289562</v>
+      </c>
+      <c r="F6" s="114">
+        <v>331858</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="111" t="s">
+        <v>76</v>
+      </c>
+      <c r="B7" s="115">
+        <v>0.43475975208559764</v>
+      </c>
+      <c r="C7" s="115">
+        <v>0.43458422536078983</v>
+      </c>
+      <c r="D7" s="115">
+        <v>0.43445784858437958</v>
+      </c>
+      <c r="E7" s="115">
+        <v>0.43436819335521459</v>
+      </c>
+      <c r="F7" s="115">
+        <v>0.43431339959010495</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="109" t="s">
+        <v>68</v>
+      </c>
+      <c r="B8" s="124"/>
+      <c r="C8" s="125"/>
+      <c r="D8" s="125"/>
+      <c r="E8" s="125"/>
+      <c r="F8" s="126"/>
+    </row>
+    <row r="9" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="116" t="s">
+        <v>77</v>
+      </c>
+      <c r="B9" s="112">
+        <v>110000</v>
+      </c>
+      <c r="C9" s="112">
+        <v>115500</v>
+      </c>
+      <c r="D9" s="112">
+        <v>121275</v>
+      </c>
+      <c r="E9" s="112">
+        <v>127338.75</v>
+      </c>
+      <c r="F9" s="112">
+        <v>133705.6875</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="117" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="112">
+        <v>10000</v>
+      </c>
+      <c r="C10" s="118">
+        <v>10500</v>
+      </c>
+      <c r="D10" s="118">
+        <v>11025</v>
+      </c>
+      <c r="E10" s="118">
+        <v>11576.25</v>
+      </c>
+      <c r="F10" s="118">
+        <v>12155.0625</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="119" t="s">
+        <v>71</v>
+      </c>
+      <c r="B11" s="112">
+        <v>15000</v>
+      </c>
+      <c r="C11" s="118">
+        <v>15000</v>
+      </c>
+      <c r="D11" s="118">
+        <v>15000</v>
+      </c>
+      <c r="E11" s="118">
+        <v>15000</v>
+      </c>
+      <c r="F11" s="118">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="117" t="s">
+        <v>73</v>
+      </c>
+      <c r="B12" s="112">
+        <v>12000</v>
+      </c>
+      <c r="C12" s="118">
+        <v>12000</v>
+      </c>
+      <c r="D12" s="118">
+        <v>12000</v>
+      </c>
+      <c r="E12" s="118">
+        <v>12000</v>
+      </c>
+      <c r="F12" s="118">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="117" t="s">
+        <v>69</v>
+      </c>
+      <c r="B13" s="112">
+        <v>7000</v>
+      </c>
+      <c r="C13" s="118">
+        <v>7350</v>
+      </c>
+      <c r="D13" s="118">
+        <v>7717.5</v>
+      </c>
+      <c r="E13" s="118">
+        <v>8103.375</v>
+      </c>
+      <c r="F13" s="118">
+        <v>8508.5437500000007</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="117" t="s">
+        <v>67</v>
+      </c>
+      <c r="B14" s="112">
+        <v>5000</v>
+      </c>
+      <c r="C14" s="118">
+        <v>5250</v>
+      </c>
+      <c r="D14" s="118">
+        <v>5512.5</v>
+      </c>
+      <c r="E14" s="118">
+        <v>5788.125</v>
+      </c>
+      <c r="F14" s="118">
+        <v>6077.53125</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="117" t="s">
+        <v>66</v>
+      </c>
+      <c r="B15" s="112">
+        <v>2500</v>
+      </c>
+      <c r="C15" s="118">
+        <v>2625</v>
+      </c>
+      <c r="D15" s="118">
+        <v>2756.25</v>
+      </c>
+      <c r="E15" s="118">
+        <v>2894.0625</v>
+      </c>
+      <c r="F15" s="118">
+        <v>3038.765625</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="117" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="112">
+        <v>16500</v>
+      </c>
+      <c r="C16" s="118">
+        <v>17325</v>
+      </c>
+      <c r="D16" s="118">
+        <v>18191.25</v>
+      </c>
+      <c r="E16" s="118">
+        <v>19100.8125</v>
+      </c>
+      <c r="F16" s="118">
+        <v>20055.853124999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="117" t="s">
+        <v>72</v>
+      </c>
+      <c r="B17" s="112">
+        <v>10000</v>
+      </c>
+      <c r="C17" s="118">
+        <v>10500</v>
+      </c>
+      <c r="D17" s="118">
+        <v>11025</v>
+      </c>
+      <c r="E17" s="118">
+        <v>11576.25</v>
+      </c>
+      <c r="F17" s="118">
+        <v>12155.0625</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="120" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18" s="110">
+        <v>188000</v>
+      </c>
+      <c r="C18" s="110">
+        <v>196050</v>
+      </c>
+      <c r="D18" s="110">
+        <v>204502.5</v>
+      </c>
+      <c r="E18" s="110">
+        <v>213377.625</v>
+      </c>
+      <c r="F18" s="110">
+        <v>222696.50625000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="111" t="s">
+        <v>78</v>
+      </c>
+      <c r="B19" s="112">
+        <v>20406</v>
+      </c>
+      <c r="C19" s="112">
+        <v>29680</v>
+      </c>
+      <c r="D19" s="112">
+        <v>50257.5</v>
+      </c>
+      <c r="E19" s="112">
+        <v>76184.375</v>
+      </c>
+      <c r="F19" s="112">
+        <v>109161.49374999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="111" t="s">
+        <v>70</v>
+      </c>
+      <c r="B20" s="112">
+        <v>35406</v>
+      </c>
+      <c r="C20" s="112">
+        <v>44680</v>
+      </c>
+      <c r="D20" s="112">
+        <v>65257.5</v>
+      </c>
+      <c r="E20" s="112">
+        <v>91184.375</v>
+      </c>
+      <c r="F20" s="112">
+        <v>124161.49374999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="111" t="s">
+        <v>94</v>
+      </c>
+      <c r="B21" s="112">
+        <v>6121.8</v>
+      </c>
+      <c r="C21" s="112">
+        <v>8904</v>
+      </c>
+      <c r="D21" s="112">
+        <v>15077.25</v>
+      </c>
+      <c r="E21" s="112">
+        <v>22855.3125</v>
+      </c>
+      <c r="F21" s="112">
+        <v>32748.448124999995</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="109" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22" s="110">
+        <v>14284.2</v>
+      </c>
+      <c r="C22" s="110">
+        <v>20776</v>
+      </c>
+      <c r="D22" s="110">
+        <v>35180.25</v>
+      </c>
+      <c r="E22" s="110">
+        <v>53329.0625</v>
+      </c>
+      <c r="F22" s="110">
+        <v>76413.045624999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="113" t="s">
+        <v>79</v>
+      </c>
+      <c r="B23" s="121">
+        <v>2.9798543471594361E-2</v>
+      </c>
+      <c r="C23" s="121">
+        <v>3.9998767846966592E-2</v>
+      </c>
+      <c r="D23" s="121">
+        <v>5.9995037398573633E-2</v>
+      </c>
+      <c r="E23" s="121">
+        <v>7.9998233647551556E-2</v>
+      </c>
+      <c r="F23" s="121">
+        <v>0.10000424765540546</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5526,15 +7435,288 @@
   <sheetPr codeName="Sheet4">
     <tabColor theme="1" tint="0.34998626667073579"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="6" width="9.28515625" customWidth="1"/>
+    <col min="1" max="1" width="22" style="106" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="8.5703125" style="106" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.28515625" style="106"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="167" t="s">
+        <v>105</v>
+      </c>
+      <c r="B1" s="168" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="168" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="168" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="168" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="168" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="159" t="s">
+        <v>103</v>
+      </c>
+      <c r="B2" s="169"/>
+      <c r="C2" s="170"/>
+      <c r="D2" s="170"/>
+      <c r="E2" s="170"/>
+      <c r="F2" s="171"/>
+    </row>
+    <row r="3" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="160" t="s">
+        <v>106</v>
+      </c>
+      <c r="B3" s="172"/>
+      <c r="C3" s="173"/>
+      <c r="D3" s="173"/>
+      <c r="E3" s="173"/>
+      <c r="F3" s="174"/>
+    </row>
+    <row r="4" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="161" t="s">
+        <v>104</v>
+      </c>
+      <c r="B4" s="162">
+        <v>-173064</v>
+      </c>
+      <c r="C4" s="162">
+        <v>-354314</v>
+      </c>
+      <c r="D4" s="162">
+        <v>-544116.5</v>
+      </c>
+      <c r="E4" s="162">
+        <v>-742894.125</v>
+      </c>
+      <c r="F4" s="162">
+        <v>-951090.63124999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="163" t="s">
+        <v>102</v>
+      </c>
+      <c r="B5" s="162">
+        <v>-173064</v>
+      </c>
+      <c r="C5" s="162">
+        <v>-354314</v>
+      </c>
+      <c r="D5" s="162">
+        <v>-544116.5</v>
+      </c>
+      <c r="E5" s="162">
+        <v>-742894.125</v>
+      </c>
+      <c r="F5" s="162">
+        <v>-951090.63124999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="160" t="s">
+        <v>100</v>
+      </c>
+      <c r="B6" s="172"/>
+      <c r="C6" s="173"/>
+      <c r="D6" s="173"/>
+      <c r="E6" s="173"/>
+      <c r="F6" s="174"/>
+    </row>
+    <row r="7" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="161" t="s">
+        <v>100</v>
+      </c>
+      <c r="B7" s="162">
+        <v>150000</v>
+      </c>
+      <c r="C7" s="162">
+        <v>150000</v>
+      </c>
+      <c r="D7" s="162">
+        <v>150000</v>
+      </c>
+      <c r="E7" s="162">
+        <v>150000</v>
+      </c>
+      <c r="F7" s="162">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="161" t="s">
+        <v>99</v>
+      </c>
+      <c r="B8" s="162">
+        <v>15000</v>
+      </c>
+      <c r="C8" s="162">
+        <v>30000</v>
+      </c>
+      <c r="D8" s="162">
+        <v>45000</v>
+      </c>
+      <c r="E8" s="162">
+        <v>60000</v>
+      </c>
+      <c r="F8" s="162">
+        <v>75000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="163" t="s">
+        <v>98</v>
+      </c>
+      <c r="B9" s="162">
+        <v>135000</v>
+      </c>
+      <c r="C9" s="162">
+        <v>120000</v>
+      </c>
+      <c r="D9" s="162">
+        <v>105000</v>
+      </c>
+      <c r="E9" s="162">
+        <v>90000</v>
+      </c>
+      <c r="F9" s="162">
+        <v>75000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="160" t="s">
+        <v>97</v>
+      </c>
+      <c r="B10" s="164">
+        <v>-38064</v>
+      </c>
+      <c r="C10" s="164">
+        <v>-234314</v>
+      </c>
+      <c r="D10" s="164">
+        <v>-439116.5</v>
+      </c>
+      <c r="E10" s="164">
+        <v>-652894.125</v>
+      </c>
+      <c r="F10" s="164">
+        <v>-876090.63124999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="161" t="s">
+        <v>107</v>
+      </c>
+      <c r="B11" s="162">
+        <v>200000</v>
+      </c>
+      <c r="C11" s="162">
+        <v>200000</v>
+      </c>
+      <c r="D11" s="162">
+        <v>200000</v>
+      </c>
+      <c r="E11" s="162">
+        <v>200000</v>
+      </c>
+      <c r="F11" s="162">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="161" t="s">
+        <v>108</v>
+      </c>
+      <c r="B12" s="162">
+        <v>-50000</v>
+      </c>
+      <c r="C12" s="165">
+        <v>-238064</v>
+      </c>
+      <c r="D12" s="162">
+        <v>-434314</v>
+      </c>
+      <c r="E12" s="162">
+        <v>-639116.5</v>
+      </c>
+      <c r="F12" s="162">
+        <v>-852894.125</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="161" t="s">
+        <v>109</v>
+      </c>
+      <c r="B13" s="165">
+        <v>-188064</v>
+      </c>
+      <c r="C13" s="162">
+        <v>-196250</v>
+      </c>
+      <c r="D13" s="162">
+        <v>-204802.5</v>
+      </c>
+      <c r="E13" s="162">
+        <v>-213777.625</v>
+      </c>
+      <c r="F13" s="162">
+        <v>-223196.50625000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="160" t="s">
+        <v>101</v>
+      </c>
+      <c r="B14" s="164">
+        <v>-38064</v>
+      </c>
+      <c r="C14" s="164">
+        <v>-234314</v>
+      </c>
+      <c r="D14" s="164">
+        <v>-439116.5</v>
+      </c>
+      <c r="E14" s="164">
+        <v>-652894.125</v>
+      </c>
+      <c r="F14" s="164">
+        <v>-876090.63124999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="159" t="s">
+        <v>96</v>
+      </c>
+      <c r="B15" s="166">
+        <v>-38064</v>
+      </c>
+      <c r="C15" s="166">
+        <v>-234314</v>
+      </c>
+      <c r="D15" s="166">
+        <v>-439116.5</v>
+      </c>
+      <c r="E15" s="166">
+        <v>-652894.125</v>
+      </c>
+      <c r="F15" s="166">
+        <v>-876090.63124999998</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -5564,10 +7746,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="152" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="92"/>
+      <c r="B1" s="152"/>
       <c r="D1" s="11" t="s">
         <v>24</v>
       </c>
@@ -5595,7 +7777,7 @@
         <v>20</v>
       </c>
       <c r="B2" s="15">
-        <v>0</v>
+        <v>2611</v>
       </c>
       <c r="D2" s="16">
         <f>ROUND($B$2/6*0,0)</f>
@@ -5603,15 +7785,15 @@
       </c>
       <c r="E2" s="17">
         <f t="shared" ref="E2:E11" si="0">B$5</f>
-        <v>0</v>
+        <v>13.79</v>
       </c>
       <c r="F2" s="17">
         <f t="shared" ref="F2:F11" si="1">B$6</f>
-        <v>0</v>
+        <v>7.79</v>
       </c>
       <c r="G2" s="17">
         <f t="shared" ref="G2:G11" si="2">B$7</f>
-        <v>0</v>
+        <v>15667</v>
       </c>
       <c r="H2" s="18">
         <f t="shared" ref="H2:I11" si="3">$D2*E2</f>
@@ -5623,7 +7805,7 @@
       </c>
       <c r="J2" s="19">
         <f>G2+I2</f>
-        <v>0</v>
+        <v>15667</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -5631,69 +7813,69 @@
         <v>17</v>
       </c>
       <c r="B3" s="20">
-        <v>0</v>
+        <v>36018</v>
       </c>
       <c r="D3" s="16">
         <f>ROUND($B$2/6*1,0)</f>
-        <v>0</v>
+        <v>435</v>
       </c>
       <c r="E3" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>13.79</v>
       </c>
       <c r="F3" s="17">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>7.79</v>
       </c>
       <c r="G3" s="17">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>15667</v>
       </c>
       <c r="H3" s="18">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>5998.65</v>
       </c>
       <c r="I3" s="18">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>3388.65</v>
       </c>
       <c r="J3" s="19">
         <f t="shared" ref="J3:J11" si="4">G3+I3</f>
-        <v>0</v>
+        <v>19055.650000000001</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="93" t="s">
+      <c r="A4" s="153" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="93"/>
+      <c r="B4" s="153"/>
       <c r="D4" s="16">
         <f>ROUND($B$2/6*2,0)</f>
-        <v>0</v>
+        <v>870</v>
       </c>
       <c r="E4" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>13.79</v>
       </c>
       <c r="F4" s="17">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>7.79</v>
       </c>
       <c r="G4" s="17">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>15667</v>
       </c>
       <c r="H4" s="18">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>11997.3</v>
       </c>
       <c r="I4" s="18">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>6777.3</v>
       </c>
       <c r="J4" s="19">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>22444.3</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -5701,35 +7883,35 @@
         <v>16</v>
       </c>
       <c r="B5" s="21">
-        <v>0</v>
+        <v>13.79</v>
       </c>
       <c r="D5" s="16">
         <f>ROUND($B$2/6*3,0)</f>
-        <v>0</v>
+        <v>1306</v>
       </c>
       <c r="E5" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>13.79</v>
       </c>
       <c r="F5" s="17">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>7.79</v>
       </c>
       <c r="G5" s="17">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>15667</v>
       </c>
       <c r="H5" s="18">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>18009.739999999998</v>
       </c>
       <c r="I5" s="18">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>10173.74</v>
       </c>
       <c r="J5" s="19">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>25840.739999999998</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -5737,35 +7919,35 @@
         <v>18</v>
       </c>
       <c r="B6" s="21">
-        <v>0</v>
+        <v>7.79</v>
       </c>
       <c r="D6" s="16">
         <f>ROUND($B$2/6*4,0)</f>
-        <v>0</v>
+        <v>1741</v>
       </c>
       <c r="E6" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>13.79</v>
       </c>
       <c r="F6" s="17">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>7.79</v>
       </c>
       <c r="G6" s="17">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>15667</v>
       </c>
       <c r="H6" s="18">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>24008.39</v>
       </c>
       <c r="I6" s="18">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>13562.39</v>
       </c>
       <c r="J6" s="19">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>29229.39</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -5773,162 +7955,162 @@
         <v>21</v>
       </c>
       <c r="B7" s="20">
-        <v>0</v>
+        <v>15667</v>
       </c>
       <c r="D7" s="16">
         <f>ROUND($B$2/6*5,0)</f>
-        <v>0</v>
+        <v>2176</v>
       </c>
       <c r="E7" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>13.79</v>
       </c>
       <c r="F7" s="17">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>7.79</v>
       </c>
       <c r="G7" s="17">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>15667</v>
       </c>
       <c r="H7" s="18">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>30007.039999999997</v>
       </c>
       <c r="I7" s="18">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>16951.04</v>
       </c>
       <c r="J7" s="19">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>32618.04</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D8" s="22">
         <f>B2</f>
-        <v>0</v>
+        <v>2611</v>
       </c>
       <c r="E8" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>13.79</v>
       </c>
       <c r="F8" s="17">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>7.79</v>
       </c>
       <c r="G8" s="17">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>15667</v>
       </c>
       <c r="H8" s="18">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>36005.689999999995</v>
       </c>
       <c r="I8" s="18">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>20339.689999999999</v>
       </c>
       <c r="J8" s="19">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>36006.69</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D9" s="16">
         <f>ROUND($B$2/6*7,0)</f>
-        <v>0</v>
+        <v>3046</v>
       </c>
       <c r="E9" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>13.79</v>
       </c>
       <c r="F9" s="17">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>7.79</v>
       </c>
       <c r="G9" s="17">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>15667</v>
       </c>
       <c r="H9" s="18">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>42004.34</v>
       </c>
       <c r="I9" s="18">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>23728.34</v>
       </c>
       <c r="J9" s="19">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>39395.339999999997</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D10" s="16">
         <f>ROUND($B$2/6*8,0)</f>
-        <v>0</v>
+        <v>3481</v>
       </c>
       <c r="E10" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>13.79</v>
       </c>
       <c r="F10" s="17">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>7.79</v>
       </c>
       <c r="G10" s="17">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>15667</v>
       </c>
       <c r="H10" s="18">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>48002.99</v>
       </c>
       <c r="I10" s="18">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>27116.99</v>
       </c>
       <c r="J10" s="19">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>42783.990000000005</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D11" s="23">
         <f>ROUND($B$2/6*9,0)</f>
-        <v>0</v>
+        <v>3917</v>
       </c>
       <c r="E11" s="24">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>13.79</v>
       </c>
       <c r="F11" s="24">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>7.79</v>
       </c>
       <c r="G11" s="24">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>15667</v>
       </c>
       <c r="H11" s="25">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>54015.43</v>
       </c>
       <c r="I11" s="25">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>30513.43</v>
       </c>
       <c r="J11" s="26">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>46180.43</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="94" t="s">
+      <c r="A13" s="154" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="95"/>
+      <c r="B13" s="155"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="71" t="s">
@@ -5939,10 +8121,10 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="96" t="s">
+      <c r="A15" s="156" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="97"/>
+      <c r="B15" s="157"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="27" t="s">
@@ -5978,178 +8160,182 @@
   <sheetPr codeName="Sheet8">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="S1:X8"/>
+  <dimension ref="L18:Z25"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S1" sqref="S1"/>
+    <sheetView showGridLines="0" zoomScale="119" zoomScaleNormal="119" workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="18" width="9.140625" style="30"/>
-    <col min="19" max="19" width="16.85546875" style="68" bestFit="1" customWidth="1"/>
-    <col min="20" max="24" width="10.85546875" style="68" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="30"/>
+    <col min="1" max="11" width="9.140625" style="30"/>
+    <col min="12" max="12" width="16.85546875" style="30" bestFit="1" customWidth="1"/>
+    <col min="13" max="17" width="9.5703125" style="30" bestFit="1" customWidth="1"/>
+    <col min="18" max="20" width="9.140625" style="30"/>
+    <col min="21" max="21" width="16.85546875" style="68" bestFit="1" customWidth="1"/>
+    <col min="22" max="26" width="9.28515625" style="68" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="19:24" x14ac:dyDescent="0.25">
-      <c r="T1" s="70" t="s">
+    <row r="18" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L18" s="68"/>
+      <c r="M18" s="70" t="s">
         <v>32</v>
       </c>
-      <c r="U1" s="70" t="s">
+      <c r="N18" s="70" t="s">
         <v>33</v>
       </c>
-      <c r="V1" s="70" t="s">
+      <c r="O18" s="70" t="s">
         <v>34</v>
       </c>
-      <c r="W1" s="70" t="s">
+      <c r="P18" s="70" t="s">
         <v>35</v>
       </c>
-      <c r="X1" s="70" t="s">
+      <c r="Q18" s="70" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="19:24" x14ac:dyDescent="0.25">
-      <c r="S2" s="70" t="s">
+    <row r="19" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L19" s="194" t="s">
         <v>11</v>
       </c>
-      <c r="T2" s="69">
-        <v>0</v>
-      </c>
-      <c r="U2" s="69">
-        <v>0</v>
-      </c>
-      <c r="V2" s="69">
-        <v>0</v>
-      </c>
-      <c r="W2" s="69">
-        <v>0</v>
-      </c>
-      <c r="X2" s="69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="19:24" x14ac:dyDescent="0.25">
-      <c r="S3" s="70" t="s">
+      <c r="M19" s="69">
+        <v>16500</v>
+      </c>
+      <c r="N19" s="69">
+        <v>17325</v>
+      </c>
+      <c r="O19" s="69">
+        <v>18191.25</v>
+      </c>
+      <c r="P19" s="69">
+        <v>19100.810000000001</v>
+      </c>
+      <c r="Q19" s="69">
+        <v>20055.849999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L20" s="194" t="s">
         <v>50</v>
       </c>
-      <c r="T3" s="69">
-        <v>0</v>
-      </c>
-      <c r="U3" s="69">
-        <v>0</v>
-      </c>
-      <c r="V3" s="69">
-        <v>0</v>
-      </c>
-      <c r="W3" s="69">
-        <v>0</v>
-      </c>
-      <c r="X3" s="69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="19:24" x14ac:dyDescent="0.25">
-      <c r="S4" s="70" t="s">
+      <c r="M20" s="69">
+        <v>6121.8</v>
+      </c>
+      <c r="N20" s="69">
+        <v>8904</v>
+      </c>
+      <c r="O20" s="69">
+        <v>15077.25</v>
+      </c>
+      <c r="P20" s="69">
+        <v>22855.31</v>
+      </c>
+      <c r="Q20" s="69">
+        <v>32748.45</v>
+      </c>
+    </row>
+    <row r="21" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L21" s="194" t="s">
         <v>51</v>
       </c>
-      <c r="T4" s="69">
-        <f>T2+T3</f>
-        <v>0</v>
-      </c>
-      <c r="U4" s="69">
-        <f t="shared" ref="U4:X4" si="0">U2+U3</f>
-        <v>0</v>
-      </c>
-      <c r="V4" s="69">
+      <c r="M21" s="69">
+        <f>M19+M20</f>
+        <v>22621.8</v>
+      </c>
+      <c r="N21" s="69">
+        <f t="shared" ref="N21:Q21" si="0">N19+N20</f>
+        <v>26229</v>
+      </c>
+      <c r="O21" s="69">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="W4" s="69">
+        <v>33268.5</v>
+      </c>
+      <c r="P21" s="69">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="X4" s="69">
+        <v>41956.12</v>
+      </c>
+      <c r="Q21" s="69">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="19:24" x14ac:dyDescent="0.25">
-      <c r="S5" s="70"/>
-      <c r="T5" s="70" t="s">
+        <v>52804.3</v>
+      </c>
+    </row>
+    <row r="22" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L22" s="194"/>
+      <c r="M22" s="70" t="s">
         <v>32</v>
       </c>
-      <c r="U5" s="70" t="s">
+      <c r="N22" s="70" t="s">
         <v>33</v>
       </c>
-      <c r="V5" s="70" t="s">
+      <c r="O22" s="70" t="s">
         <v>34</v>
       </c>
-      <c r="W5" s="70" t="s">
+      <c r="P22" s="70" t="s">
         <v>35</v>
       </c>
-      <c r="X5" s="70" t="s">
+      <c r="Q22" s="70" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="19:24" x14ac:dyDescent="0.25">
-      <c r="S6" s="70" t="s">
+    <row r="23" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L23" s="194" t="s">
         <v>15</v>
       </c>
-      <c r="T6" s="69">
-        <v>0</v>
-      </c>
-      <c r="U6" s="69">
-        <v>0</v>
-      </c>
-      <c r="V6" s="69">
-        <v>0</v>
-      </c>
-      <c r="W6" s="69">
-        <v>0</v>
-      </c>
-      <c r="X6" s="69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="19:24" x14ac:dyDescent="0.25">
-      <c r="S7" s="70" t="s">
+      <c r="M23" s="69">
+        <v>14284.2</v>
+      </c>
+      <c r="N23" s="69">
+        <v>20776</v>
+      </c>
+      <c r="O23" s="69">
+        <v>35180.25</v>
+      </c>
+      <c r="P23" s="69">
+        <v>53329.06</v>
+      </c>
+      <c r="Q23" s="69">
+        <v>76413.05</v>
+      </c>
+    </row>
+    <row r="24" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L24" s="194" t="s">
         <v>14</v>
       </c>
-      <c r="T7" s="69">
-        <v>0</v>
-      </c>
-      <c r="U7" s="69">
-        <v>0</v>
-      </c>
-      <c r="V7" s="69">
-        <v>0</v>
-      </c>
-      <c r="W7" s="69">
-        <v>0</v>
-      </c>
-      <c r="X7" s="69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="19:24" x14ac:dyDescent="0.25">
-      <c r="S8" s="70" t="s">
+      <c r="M24" s="69">
+        <v>208406</v>
+      </c>
+      <c r="N24" s="69">
+        <v>225730</v>
+      </c>
+      <c r="O24" s="69">
+        <v>254760</v>
+      </c>
+      <c r="P24" s="69">
+        <v>289562</v>
+      </c>
+      <c r="Q24" s="69">
+        <v>331858</v>
+      </c>
+    </row>
+    <row r="25" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L25" s="194" t="s">
         <v>13</v>
       </c>
-      <c r="T8" s="69">
-        <v>0</v>
-      </c>
-      <c r="U8" s="69">
-        <v>0</v>
-      </c>
-      <c r="V8" s="69">
-        <v>0</v>
-      </c>
-      <c r="W8" s="69">
-        <v>0</v>
-      </c>
-      <c r="X8" s="69">
-        <v>0</v>
+      <c r="M25" s="69">
+        <v>479359</v>
+      </c>
+      <c r="N25" s="69">
+        <v>519416</v>
+      </c>
+      <c r="O25" s="69">
+        <v>586386</v>
+      </c>
+      <c r="P25" s="69">
+        <v>666628</v>
+      </c>
+      <c r="Q25" s="69">
+        <v>764098</v>
       </c>
     </row>
   </sheetData>
@@ -6591,4 +8777,3107 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet6">
+    <tabColor theme="1"/>
+  </sheetPr>
+  <dimension ref="A1:BA66"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="141" zoomScaleNormal="141" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O5" sqref="O5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.28515625" style="94" customWidth="1"/>
+    <col min="2" max="6" width="7.28515625" style="151" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="1.7109375" style="92" customWidth="1"/>
+    <col min="8" max="8" width="4.7109375" style="147" bestFit="1" customWidth="1"/>
+    <col min="9" max="12" width="4.7109375" style="147" customWidth="1"/>
+    <col min="13" max="13" width="1.7109375" style="92" customWidth="1"/>
+    <col min="14" max="14" width="24.140625" style="93" customWidth="1"/>
+    <col min="15" max="19" width="11.42578125" style="92" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="92"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:53" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="108" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="150" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="150" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="150" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="150" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="150" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1" s="158" t="s">
+        <v>93</v>
+      </c>
+      <c r="I1" s="158"/>
+      <c r="J1" s="158"/>
+      <c r="K1" s="158"/>
+      <c r="L1" s="158"/>
+      <c r="N1" s="107" t="s">
+        <v>64</v>
+      </c>
+      <c r="O1" s="106" t="s">
+        <v>32</v>
+      </c>
+      <c r="P1" s="106" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q1" s="106" t="s">
+        <v>34</v>
+      </c>
+      <c r="R1" s="106" t="s">
+        <v>35</v>
+      </c>
+      <c r="S1" s="106" t="s">
+        <v>36</v>
+      </c>
+      <c r="U1"/>
+      <c r="V1"/>
+      <c r="W1"/>
+      <c r="X1"/>
+      <c r="Y1"/>
+      <c r="Z1"/>
+      <c r="AA1"/>
+      <c r="AB1"/>
+      <c r="AC1"/>
+      <c r="AD1"/>
+      <c r="AE1"/>
+      <c r="AF1"/>
+      <c r="AG1"/>
+      <c r="AH1"/>
+      <c r="AI1"/>
+      <c r="AJ1"/>
+      <c r="AK1"/>
+      <c r="AL1"/>
+      <c r="AM1"/>
+      <c r="AN1"/>
+      <c r="AO1"/>
+      <c r="AP1"/>
+      <c r="AQ1"/>
+      <c r="AR1"/>
+      <c r="AS1"/>
+      <c r="AT1"/>
+      <c r="AU1"/>
+      <c r="AV1"/>
+      <c r="AW1"/>
+      <c r="AX1"/>
+      <c r="AY1"/>
+      <c r="AZ1"/>
+      <c r="BA1"/>
+    </row>
+    <row r="2" spans="1:53" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="191" t="s">
+        <v>84</v>
+      </c>
+      <c r="B2" s="190">
+        <f t="shared" ref="B2:F7" si="0">ROUND(H2*O$13,0)</f>
+        <v>10221</v>
+      </c>
+      <c r="C2" s="190">
+        <f t="shared" si="0"/>
+        <v>11075</v>
+      </c>
+      <c r="D2" s="190">
+        <f t="shared" si="0"/>
+        <v>12503</v>
+      </c>
+      <c r="E2" s="190">
+        <f t="shared" si="0"/>
+        <v>14214</v>
+      </c>
+      <c r="F2" s="190">
+        <f t="shared" si="0"/>
+        <v>16292</v>
+      </c>
+      <c r="G2" s="178"/>
+      <c r="H2" s="182">
+        <v>100</v>
+      </c>
+      <c r="I2" s="183">
+        <f t="shared" ref="I2:L3" si="1">H2</f>
+        <v>100</v>
+      </c>
+      <c r="J2" s="183">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="K2" s="183">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="L2" s="184">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="M2" s="179"/>
+      <c r="N2" s="93" t="s">
+        <v>13</v>
+      </c>
+      <c r="O2" s="148">
+        <f t="shared" ref="O2:S2" si="2">SUMPRODUCT(B2:B7,B8:B13)</f>
+        <v>479359</v>
+      </c>
+      <c r="P2" s="148">
+        <f t="shared" si="2"/>
+        <v>519416</v>
+      </c>
+      <c r="Q2" s="148">
+        <f t="shared" si="2"/>
+        <v>586386</v>
+      </c>
+      <c r="R2" s="148">
+        <f t="shared" si="2"/>
+        <v>666628</v>
+      </c>
+      <c r="S2" s="148">
+        <f t="shared" si="2"/>
+        <v>764098</v>
+      </c>
+      <c r="U2"/>
+      <c r="V2"/>
+      <c r="W2"/>
+      <c r="X2"/>
+      <c r="Y2"/>
+      <c r="Z2"/>
+      <c r="AA2"/>
+      <c r="AB2"/>
+      <c r="AC2"/>
+      <c r="AD2"/>
+      <c r="AE2"/>
+      <c r="AF2"/>
+      <c r="AG2"/>
+      <c r="AH2"/>
+      <c r="AI2"/>
+      <c r="AJ2"/>
+      <c r="AK2"/>
+      <c r="AL2"/>
+      <c r="AM2"/>
+      <c r="AN2"/>
+      <c r="AO2"/>
+      <c r="AP2"/>
+      <c r="AQ2"/>
+      <c r="AR2"/>
+      <c r="AS2"/>
+      <c r="AT2"/>
+      <c r="AU2"/>
+      <c r="AV2"/>
+      <c r="AW2"/>
+      <c r="AX2"/>
+      <c r="AY2"/>
+      <c r="AZ2"/>
+      <c r="BA2"/>
+    </row>
+    <row r="3" spans="1:53" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="192" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3" s="190">
+        <f t="shared" si="0"/>
+        <v>5110</v>
+      </c>
+      <c r="C3" s="190">
+        <f t="shared" si="0"/>
+        <v>5538</v>
+      </c>
+      <c r="D3" s="190">
+        <f t="shared" si="0"/>
+        <v>6252</v>
+      </c>
+      <c r="E3" s="190">
+        <f t="shared" si="0"/>
+        <v>7107</v>
+      </c>
+      <c r="F3" s="190">
+        <f t="shared" si="0"/>
+        <v>8146</v>
+      </c>
+      <c r="G3" s="178"/>
+      <c r="H3" s="182">
+        <v>50</v>
+      </c>
+      <c r="I3" s="183">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="J3" s="183">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="K3" s="183">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="L3" s="184">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="M3" s="179"/>
+      <c r="N3" s="93" t="s">
+        <v>63</v>
+      </c>
+      <c r="O3" s="149">
+        <f t="shared" ref="O3:S3" si="3">SUMPRODUCT(B2:B7,B14:B19)</f>
+        <v>270853</v>
+      </c>
+      <c r="P3" s="149">
+        <f t="shared" si="3"/>
+        <v>293486</v>
+      </c>
+      <c r="Q3" s="149">
+        <f t="shared" si="3"/>
+        <v>331326</v>
+      </c>
+      <c r="R3" s="149">
+        <f t="shared" si="3"/>
+        <v>376666</v>
+      </c>
+      <c r="S3" s="149">
+        <f t="shared" si="3"/>
+        <v>431740</v>
+      </c>
+      <c r="U3"/>
+      <c r="V3"/>
+      <c r="W3"/>
+      <c r="X3"/>
+      <c r="Y3"/>
+      <c r="Z3"/>
+      <c r="AA3"/>
+      <c r="AB3"/>
+      <c r="AC3"/>
+      <c r="AD3"/>
+      <c r="AE3"/>
+      <c r="AF3"/>
+      <c r="AG3"/>
+      <c r="AH3"/>
+      <c r="AI3"/>
+      <c r="AJ3"/>
+      <c r="AK3"/>
+      <c r="AL3"/>
+      <c r="AM3"/>
+      <c r="AN3"/>
+      <c r="AO3"/>
+      <c r="AP3"/>
+      <c r="AQ3"/>
+      <c r="AR3"/>
+      <c r="AS3"/>
+      <c r="AT3"/>
+      <c r="AU3"/>
+      <c r="AV3"/>
+      <c r="AW3"/>
+      <c r="AX3"/>
+      <c r="AY3"/>
+      <c r="AZ3"/>
+      <c r="BA3"/>
+    </row>
+    <row r="4" spans="1:53" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="192" t="s">
+        <v>83</v>
+      </c>
+      <c r="B4" s="190">
+        <f t="shared" si="0"/>
+        <v>7666</v>
+      </c>
+      <c r="C4" s="190">
+        <f t="shared" si="0"/>
+        <v>8306</v>
+      </c>
+      <c r="D4" s="190">
+        <f t="shared" si="0"/>
+        <v>9377</v>
+      </c>
+      <c r="E4" s="190">
+        <f t="shared" si="0"/>
+        <v>10660</v>
+      </c>
+      <c r="F4" s="190">
+        <f t="shared" si="0"/>
+        <v>12219</v>
+      </c>
+      <c r="G4" s="180"/>
+      <c r="H4" s="185">
+        <v>75</v>
+      </c>
+      <c r="I4" s="186">
+        <f t="shared" ref="I4:L7" si="4">H4</f>
+        <v>75</v>
+      </c>
+      <c r="J4" s="186">
+        <f t="shared" si="4"/>
+        <v>75</v>
+      </c>
+      <c r="K4" s="186">
+        <f t="shared" si="4"/>
+        <v>75</v>
+      </c>
+      <c r="L4" s="187">
+        <f t="shared" si="4"/>
+        <v>75</v>
+      </c>
+      <c r="M4" s="181"/>
+      <c r="N4" s="189" t="s">
+        <v>62</v>
+      </c>
+      <c r="O4" s="105">
+        <v>2.98E-2</v>
+      </c>
+      <c r="P4" s="105">
+        <v>0.04</v>
+      </c>
+      <c r="Q4" s="105">
+        <v>0.06</v>
+      </c>
+      <c r="R4" s="105">
+        <v>0.08</v>
+      </c>
+      <c r="S4" s="105">
+        <v>0.1</v>
+      </c>
+      <c r="U4"/>
+      <c r="V4"/>
+      <c r="W4"/>
+      <c r="X4"/>
+      <c r="Y4"/>
+      <c r="Z4"/>
+      <c r="AA4"/>
+      <c r="AB4"/>
+      <c r="AC4"/>
+      <c r="AD4"/>
+      <c r="AE4"/>
+      <c r="AF4"/>
+      <c r="AG4"/>
+      <c r="AH4"/>
+      <c r="AI4"/>
+      <c r="AJ4"/>
+      <c r="AK4"/>
+      <c r="AL4"/>
+      <c r="AM4"/>
+      <c r="AN4"/>
+      <c r="AO4"/>
+      <c r="AP4"/>
+      <c r="AQ4"/>
+      <c r="AR4"/>
+      <c r="AS4"/>
+      <c r="AT4"/>
+      <c r="AU4"/>
+      <c r="AV4"/>
+      <c r="AW4"/>
+      <c r="AX4"/>
+      <c r="AY4"/>
+      <c r="AZ4"/>
+      <c r="BA4"/>
+    </row>
+    <row r="5" spans="1:53" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="191" t="s">
+        <v>86</v>
+      </c>
+      <c r="B5" s="190">
+        <f t="shared" si="0"/>
+        <v>6644</v>
+      </c>
+      <c r="C5" s="190">
+        <f t="shared" si="0"/>
+        <v>7199</v>
+      </c>
+      <c r="D5" s="190">
+        <f t="shared" si="0"/>
+        <v>8127</v>
+      </c>
+      <c r="E5" s="190">
+        <f t="shared" si="0"/>
+        <v>9239</v>
+      </c>
+      <c r="F5" s="190">
+        <f t="shared" si="0"/>
+        <v>10590</v>
+      </c>
+      <c r="G5" s="180"/>
+      <c r="H5" s="185">
+        <v>65</v>
+      </c>
+      <c r="I5" s="186">
+        <f t="shared" si="4"/>
+        <v>65</v>
+      </c>
+      <c r="J5" s="186">
+        <f t="shared" si="4"/>
+        <v>65</v>
+      </c>
+      <c r="K5" s="186">
+        <f t="shared" si="4"/>
+        <v>65</v>
+      </c>
+      <c r="L5" s="187">
+        <f t="shared" si="4"/>
+        <v>65</v>
+      </c>
+      <c r="M5" s="181"/>
+      <c r="N5" s="93" t="s">
+        <v>61</v>
+      </c>
+      <c r="O5" s="104"/>
+      <c r="P5" s="104"/>
+      <c r="Q5" s="104"/>
+      <c r="R5" s="104"/>
+      <c r="S5" s="104"/>
+      <c r="U5"/>
+      <c r="V5"/>
+      <c r="W5"/>
+      <c r="X5"/>
+      <c r="Y5"/>
+      <c r="Z5"/>
+      <c r="AA5"/>
+      <c r="AB5"/>
+      <c r="AC5"/>
+      <c r="AD5"/>
+      <c r="AE5"/>
+      <c r="AF5"/>
+      <c r="AG5"/>
+      <c r="AH5"/>
+      <c r="AI5"/>
+      <c r="AJ5"/>
+      <c r="AK5"/>
+      <c r="AL5"/>
+      <c r="AM5"/>
+      <c r="AN5"/>
+      <c r="AO5"/>
+      <c r="AP5"/>
+      <c r="AQ5"/>
+      <c r="AR5"/>
+      <c r="AS5"/>
+      <c r="AT5"/>
+      <c r="AU5"/>
+      <c r="AV5"/>
+      <c r="AW5"/>
+      <c r="AX5"/>
+      <c r="AY5"/>
+      <c r="AZ5"/>
+      <c r="BA5"/>
+    </row>
+    <row r="6" spans="1:53" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="191" t="s">
+        <v>82</v>
+      </c>
+      <c r="B6" s="190">
+        <f t="shared" si="0"/>
+        <v>3577</v>
+      </c>
+      <c r="C6" s="190">
+        <f t="shared" si="0"/>
+        <v>3876</v>
+      </c>
+      <c r="D6" s="190">
+        <f t="shared" si="0"/>
+        <v>4376</v>
+      </c>
+      <c r="E6" s="190">
+        <f t="shared" si="0"/>
+        <v>4975</v>
+      </c>
+      <c r="F6" s="190">
+        <f t="shared" si="0"/>
+        <v>5702</v>
+      </c>
+      <c r="G6" s="180"/>
+      <c r="H6" s="185">
+        <v>35</v>
+      </c>
+      <c r="I6" s="186">
+        <f t="shared" si="4"/>
+        <v>35</v>
+      </c>
+      <c r="J6" s="186">
+        <f t="shared" si="4"/>
+        <v>35</v>
+      </c>
+      <c r="K6" s="186">
+        <f t="shared" si="4"/>
+        <v>35</v>
+      </c>
+      <c r="L6" s="187">
+        <f t="shared" si="4"/>
+        <v>35</v>
+      </c>
+      <c r="M6" s="181"/>
+      <c r="N6" s="93" t="s">
+        <v>60</v>
+      </c>
+      <c r="O6" s="103">
+        <f>IF(O7,0.3,0)</f>
+        <v>0.3</v>
+      </c>
+      <c r="P6" s="103">
+        <f>IF(P7,0.3,0)</f>
+        <v>0.3</v>
+      </c>
+      <c r="Q6" s="103">
+        <f>IF(Q7,0.3,0)</f>
+        <v>0.3</v>
+      </c>
+      <c r="R6" s="103">
+        <f>IF(R7,0.3,0)</f>
+        <v>0.3</v>
+      </c>
+      <c r="S6" s="103">
+        <f>IF(S7,0.3,0)</f>
+        <v>0.3</v>
+      </c>
+      <c r="U6"/>
+      <c r="V6"/>
+      <c r="W6"/>
+      <c r="X6"/>
+      <c r="Y6"/>
+      <c r="Z6"/>
+      <c r="AA6"/>
+      <c r="AB6"/>
+      <c r="AC6"/>
+      <c r="AD6"/>
+      <c r="AE6"/>
+      <c r="AF6"/>
+      <c r="AG6"/>
+      <c r="AH6"/>
+      <c r="AI6"/>
+      <c r="AJ6"/>
+      <c r="AK6"/>
+      <c r="AL6"/>
+      <c r="AM6"/>
+      <c r="AN6"/>
+      <c r="AO6"/>
+      <c r="AP6"/>
+      <c r="AQ6"/>
+      <c r="AR6"/>
+      <c r="AS6"/>
+      <c r="AT6"/>
+      <c r="AU6"/>
+      <c r="AV6"/>
+      <c r="AW6"/>
+      <c r="AX6"/>
+      <c r="AY6"/>
+      <c r="AZ6"/>
+      <c r="BA6"/>
+    </row>
+    <row r="7" spans="1:53" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="191" t="s">
+        <v>85</v>
+      </c>
+      <c r="B7" s="190">
+        <f t="shared" si="0"/>
+        <v>1533</v>
+      </c>
+      <c r="C7" s="190">
+        <f t="shared" si="0"/>
+        <v>1661</v>
+      </c>
+      <c r="D7" s="190">
+        <f t="shared" si="0"/>
+        <v>1875</v>
+      </c>
+      <c r="E7" s="190">
+        <f t="shared" si="0"/>
+        <v>2132</v>
+      </c>
+      <c r="F7" s="190">
+        <f t="shared" si="0"/>
+        <v>2444</v>
+      </c>
+      <c r="G7" s="180"/>
+      <c r="H7" s="185">
+        <v>15</v>
+      </c>
+      <c r="I7" s="186">
+        <f t="shared" si="4"/>
+        <v>15</v>
+      </c>
+      <c r="J7" s="186">
+        <f t="shared" si="4"/>
+        <v>15</v>
+      </c>
+      <c r="K7" s="186">
+        <f t="shared" si="4"/>
+        <v>15</v>
+      </c>
+      <c r="L7" s="187">
+        <f t="shared" si="4"/>
+        <v>15</v>
+      </c>
+      <c r="M7" s="181"/>
+      <c r="N7" s="102" t="s">
+        <v>59</v>
+      </c>
+      <c r="O7" s="101" t="b">
+        <v>1</v>
+      </c>
+      <c r="P7" s="101" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="101" t="b">
+        <v>1</v>
+      </c>
+      <c r="R7" s="101" t="b">
+        <v>1</v>
+      </c>
+      <c r="S7" s="101" t="b">
+        <v>1</v>
+      </c>
+      <c r="U7"/>
+      <c r="V7"/>
+      <c r="W7"/>
+      <c r="X7"/>
+      <c r="Y7"/>
+      <c r="Z7"/>
+      <c r="AA7"/>
+      <c r="AB7"/>
+      <c r="AC7"/>
+      <c r="AD7"/>
+      <c r="AE7"/>
+      <c r="AF7"/>
+      <c r="AG7"/>
+      <c r="AH7"/>
+      <c r="AI7"/>
+      <c r="AJ7"/>
+      <c r="AK7"/>
+      <c r="AL7"/>
+      <c r="AM7"/>
+      <c r="AN7"/>
+      <c r="AO7"/>
+      <c r="AP7"/>
+      <c r="AQ7"/>
+      <c r="AR7"/>
+      <c r="AS7"/>
+      <c r="AT7"/>
+      <c r="AU7"/>
+      <c r="AV7"/>
+      <c r="AW7"/>
+      <c r="AX7"/>
+      <c r="AY7"/>
+      <c r="AZ7"/>
+      <c r="BA7"/>
+    </row>
+    <row r="8" spans="1:53" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="175" t="s">
+        <v>84</v>
+      </c>
+      <c r="B8" s="176">
+        <v>12</v>
+      </c>
+      <c r="C8" s="176">
+        <v>12</v>
+      </c>
+      <c r="D8" s="176">
+        <v>12</v>
+      </c>
+      <c r="E8" s="176">
+        <v>12</v>
+      </c>
+      <c r="F8" s="176">
+        <v>12</v>
+      </c>
+      <c r="G8" s="100"/>
+      <c r="N8" s="93" t="s">
+        <v>58</v>
+      </c>
+      <c r="O8" s="99">
+        <v>100</v>
+      </c>
+      <c r="P8" s="99">
+        <v>200</v>
+      </c>
+      <c r="Q8" s="99">
+        <v>300</v>
+      </c>
+      <c r="R8" s="99">
+        <v>400</v>
+      </c>
+      <c r="S8" s="99">
+        <v>500</v>
+      </c>
+      <c r="U8"/>
+      <c r="V8"/>
+      <c r="W8"/>
+      <c r="X8"/>
+      <c r="Y8"/>
+      <c r="Z8"/>
+      <c r="AA8"/>
+      <c r="AB8"/>
+      <c r="AC8"/>
+      <c r="AD8"/>
+      <c r="AE8"/>
+      <c r="AF8"/>
+      <c r="AG8"/>
+      <c r="AH8"/>
+      <c r="AI8"/>
+      <c r="AJ8"/>
+      <c r="AK8"/>
+      <c r="AL8"/>
+      <c r="AM8"/>
+      <c r="AN8"/>
+      <c r="AO8"/>
+      <c r="AP8"/>
+      <c r="AQ8"/>
+      <c r="AR8"/>
+      <c r="AS8"/>
+      <c r="AT8"/>
+      <c r="AU8"/>
+      <c r="AV8"/>
+      <c r="AW8"/>
+      <c r="AX8"/>
+      <c r="AY8"/>
+      <c r="AZ8"/>
+      <c r="BA8"/>
+    </row>
+    <row r="9" spans="1:53" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="95" t="s">
+        <v>87</v>
+      </c>
+      <c r="B9" s="177">
+        <v>13</v>
+      </c>
+      <c r="C9" s="177">
+        <v>13</v>
+      </c>
+      <c r="D9" s="177">
+        <v>13</v>
+      </c>
+      <c r="E9" s="177">
+        <v>13</v>
+      </c>
+      <c r="F9" s="177">
+        <v>13</v>
+      </c>
+      <c r="G9" s="100"/>
+      <c r="N9" s="93" t="s">
+        <v>57</v>
+      </c>
+      <c r="O9" s="99">
+        <v>188000</v>
+      </c>
+      <c r="P9" s="99">
+        <v>196050</v>
+      </c>
+      <c r="Q9" s="99">
+        <v>204502.5</v>
+      </c>
+      <c r="R9" s="99">
+        <v>213377.63</v>
+      </c>
+      <c r="S9" s="99">
+        <v>222696.51</v>
+      </c>
+      <c r="U9"/>
+      <c r="V9"/>
+      <c r="W9"/>
+      <c r="X9"/>
+      <c r="Y9"/>
+      <c r="Z9"/>
+      <c r="AA9"/>
+      <c r="AB9"/>
+      <c r="AC9"/>
+      <c r="AD9"/>
+      <c r="AE9"/>
+      <c r="AF9"/>
+      <c r="AG9"/>
+      <c r="AH9"/>
+      <c r="AI9"/>
+      <c r="AJ9"/>
+      <c r="AK9"/>
+      <c r="AL9"/>
+      <c r="AM9"/>
+      <c r="AN9"/>
+      <c r="AO9"/>
+      <c r="AP9"/>
+      <c r="AQ9"/>
+      <c r="AR9"/>
+      <c r="AS9"/>
+      <c r="AT9"/>
+      <c r="AU9"/>
+      <c r="AV9"/>
+      <c r="AW9"/>
+      <c r="AX9"/>
+      <c r="AY9"/>
+      <c r="AZ9"/>
+      <c r="BA9"/>
+    </row>
+    <row r="10" spans="1:53" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="95" t="s">
+        <v>83</v>
+      </c>
+      <c r="B10" s="177">
+        <v>14</v>
+      </c>
+      <c r="C10" s="177">
+        <v>14</v>
+      </c>
+      <c r="D10" s="177">
+        <v>14</v>
+      </c>
+      <c r="E10" s="177">
+        <v>14</v>
+      </c>
+      <c r="F10" s="177">
+        <v>14</v>
+      </c>
+      <c r="G10" s="100"/>
+      <c r="N10" s="93" t="s">
+        <v>56</v>
+      </c>
+      <c r="O10" s="99">
+        <v>0</v>
+      </c>
+      <c r="P10" s="99">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="99">
+        <v>0</v>
+      </c>
+      <c r="R10" s="99">
+        <v>0</v>
+      </c>
+      <c r="S10" s="99">
+        <v>0</v>
+      </c>
+      <c r="U10"/>
+      <c r="V10"/>
+      <c r="W10"/>
+      <c r="X10"/>
+      <c r="Y10"/>
+      <c r="Z10"/>
+      <c r="AA10"/>
+      <c r="AB10"/>
+      <c r="AC10"/>
+      <c r="AD10"/>
+      <c r="AE10"/>
+      <c r="AF10"/>
+      <c r="AG10"/>
+      <c r="AH10"/>
+      <c r="AI10"/>
+      <c r="AJ10"/>
+      <c r="AK10"/>
+      <c r="AL10"/>
+      <c r="AM10"/>
+      <c r="AN10"/>
+      <c r="AO10"/>
+      <c r="AP10"/>
+      <c r="AQ10"/>
+      <c r="AR10"/>
+      <c r="AS10"/>
+      <c r="AT10"/>
+      <c r="AU10"/>
+      <c r="AV10"/>
+      <c r="AW10"/>
+      <c r="AX10"/>
+      <c r="AY10"/>
+      <c r="AZ10"/>
+      <c r="BA10"/>
+    </row>
+    <row r="11" spans="1:53" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="95" t="s">
+        <v>86</v>
+      </c>
+      <c r="B11" s="177">
+        <v>15</v>
+      </c>
+      <c r="C11" s="177">
+        <v>15</v>
+      </c>
+      <c r="D11" s="177">
+        <v>15</v>
+      </c>
+      <c r="E11" s="177">
+        <v>15</v>
+      </c>
+      <c r="F11" s="177">
+        <v>15</v>
+      </c>
+      <c r="G11" s="100"/>
+      <c r="N11" s="93" t="s">
+        <v>55</v>
+      </c>
+      <c r="O11" s="188">
+        <v>0</v>
+      </c>
+      <c r="P11" s="188">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="188">
+        <v>0</v>
+      </c>
+      <c r="R11" s="188">
+        <v>0</v>
+      </c>
+      <c r="S11" s="188">
+        <v>0</v>
+      </c>
+      <c r="U11"/>
+      <c r="V11"/>
+      <c r="W11"/>
+      <c r="X11"/>
+      <c r="Y11"/>
+      <c r="Z11"/>
+      <c r="AA11"/>
+      <c r="AB11"/>
+      <c r="AC11"/>
+      <c r="AD11"/>
+      <c r="AE11"/>
+      <c r="AF11"/>
+      <c r="AG11"/>
+      <c r="AH11"/>
+      <c r="AI11"/>
+      <c r="AJ11"/>
+      <c r="AK11"/>
+      <c r="AL11"/>
+      <c r="AM11"/>
+      <c r="AN11"/>
+      <c r="AO11"/>
+      <c r="AP11"/>
+      <c r="AQ11"/>
+      <c r="AR11"/>
+      <c r="AS11"/>
+      <c r="AT11"/>
+      <c r="AU11"/>
+      <c r="AV11"/>
+      <c r="AW11"/>
+      <c r="AX11"/>
+      <c r="AY11"/>
+      <c r="AZ11"/>
+      <c r="BA11"/>
+    </row>
+    <row r="12" spans="1:53" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="95" t="s">
+        <v>82</v>
+      </c>
+      <c r="B12" s="177">
+        <v>16</v>
+      </c>
+      <c r="C12" s="177">
+        <v>16</v>
+      </c>
+      <c r="D12" s="177">
+        <v>16</v>
+      </c>
+      <c r="E12" s="177">
+        <v>16</v>
+      </c>
+      <c r="F12" s="177">
+        <v>16</v>
+      </c>
+      <c r="N12" s="97" t="s">
+        <v>54</v>
+      </c>
+      <c r="O12" s="98">
+        <f>SUM(O8:O10)-O11</f>
+        <v>188100</v>
+      </c>
+      <c r="P12" s="98">
+        <f>SUM(P8:P10)-P11</f>
+        <v>196250</v>
+      </c>
+      <c r="Q12" s="98">
+        <f>SUM(Q8:Q10)-Q11</f>
+        <v>204802.5</v>
+      </c>
+      <c r="R12" s="98">
+        <f>SUM(R8:R10)-R11</f>
+        <v>213777.63</v>
+      </c>
+      <c r="S12" s="98">
+        <f>SUM(S8:S10)-S11</f>
+        <v>223196.51</v>
+      </c>
+      <c r="U12"/>
+      <c r="V12"/>
+      <c r="W12"/>
+      <c r="X12"/>
+      <c r="Y12"/>
+      <c r="Z12"/>
+      <c r="AA12"/>
+      <c r="AB12"/>
+      <c r="AC12"/>
+      <c r="AD12"/>
+      <c r="AE12"/>
+      <c r="AF12"/>
+      <c r="AG12"/>
+      <c r="AH12"/>
+      <c r="AI12"/>
+      <c r="AJ12"/>
+      <c r="AK12"/>
+      <c r="AL12"/>
+      <c r="AM12"/>
+      <c r="AN12"/>
+      <c r="AO12"/>
+      <c r="AP12"/>
+      <c r="AQ12"/>
+      <c r="AR12"/>
+      <c r="AS12"/>
+      <c r="AT12"/>
+      <c r="AU12"/>
+      <c r="AV12"/>
+      <c r="AW12"/>
+      <c r="AX12"/>
+      <c r="AY12"/>
+      <c r="AZ12"/>
+      <c r="BA12"/>
+    </row>
+    <row r="13" spans="1:53" ht="12" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="95" t="s">
+        <v>85</v>
+      </c>
+      <c r="B13" s="177">
+        <v>17</v>
+      </c>
+      <c r="C13" s="177">
+        <v>17</v>
+      </c>
+      <c r="D13" s="177">
+        <v>17</v>
+      </c>
+      <c r="E13" s="177">
+        <v>17</v>
+      </c>
+      <c r="F13" s="177">
+        <v>17</v>
+      </c>
+      <c r="N13" s="97" t="s">
+        <v>53</v>
+      </c>
+      <c r="O13" s="96">
+        <f t="shared" ref="O13:S13" si="5">(100%-O$6)*O$12/((100%-O$6-O$4)*SUMPRODUCT(H2:H7,B8:B13)-(100%-O$6)*SUMPRODUCT(H2:H7,B14:B19))</f>
+        <v>102.20937435473883</v>
+      </c>
+      <c r="P13" s="96">
+        <f t="shared" si="5"/>
+        <v>110.75056433408579</v>
+      </c>
+      <c r="Q13" s="96">
+        <f t="shared" si="5"/>
+        <v>125.03205128205131</v>
+      </c>
+      <c r="R13" s="96">
+        <f t="shared" si="5"/>
+        <v>142.13938164893611</v>
+      </c>
+      <c r="S13" s="96">
+        <f t="shared" si="5"/>
+        <v>162.91716058394158</v>
+      </c>
+      <c r="U13"/>
+      <c r="V13"/>
+      <c r="W13"/>
+      <c r="X13"/>
+      <c r="Y13"/>
+      <c r="Z13"/>
+      <c r="AA13"/>
+      <c r="AB13"/>
+      <c r="AC13"/>
+      <c r="AD13"/>
+      <c r="AE13"/>
+      <c r="AF13"/>
+      <c r="AG13"/>
+      <c r="AH13"/>
+      <c r="AI13"/>
+      <c r="AJ13"/>
+      <c r="AK13"/>
+      <c r="AL13"/>
+      <c r="AM13"/>
+      <c r="AN13"/>
+      <c r="AO13"/>
+      <c r="AP13"/>
+      <c r="AQ13"/>
+      <c r="AR13"/>
+      <c r="AS13"/>
+      <c r="AT13"/>
+      <c r="AU13"/>
+      <c r="AV13"/>
+      <c r="AW13"/>
+      <c r="AX13"/>
+      <c r="AY13"/>
+      <c r="AZ13"/>
+      <c r="BA13"/>
+    </row>
+    <row r="14" spans="1:53" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="175" t="s">
+        <v>84</v>
+      </c>
+      <c r="B14" s="176">
+        <v>6</v>
+      </c>
+      <c r="C14" s="176">
+        <v>6</v>
+      </c>
+      <c r="D14" s="176">
+        <v>6</v>
+      </c>
+      <c r="E14" s="176">
+        <v>6</v>
+      </c>
+      <c r="F14" s="176">
+        <v>6</v>
+      </c>
+      <c r="U14"/>
+      <c r="V14"/>
+      <c r="W14"/>
+      <c r="X14"/>
+      <c r="Y14"/>
+      <c r="Z14"/>
+      <c r="AA14"/>
+      <c r="AB14"/>
+      <c r="AC14"/>
+      <c r="AD14"/>
+      <c r="AE14"/>
+      <c r="AF14"/>
+      <c r="AG14"/>
+      <c r="AH14"/>
+      <c r="AI14"/>
+      <c r="AJ14"/>
+      <c r="AK14"/>
+      <c r="AL14"/>
+      <c r="AM14"/>
+      <c r="AN14"/>
+      <c r="AO14"/>
+      <c r="AP14"/>
+      <c r="AQ14"/>
+      <c r="AR14"/>
+      <c r="AS14"/>
+      <c r="AT14"/>
+      <c r="AU14"/>
+      <c r="AV14"/>
+      <c r="AW14"/>
+      <c r="AX14"/>
+      <c r="AY14"/>
+      <c r="AZ14"/>
+      <c r="BA14"/>
+    </row>
+    <row r="15" spans="1:53" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="95" t="s">
+        <v>87</v>
+      </c>
+      <c r="B15" s="177">
+        <v>7</v>
+      </c>
+      <c r="C15" s="177">
+        <v>7</v>
+      </c>
+      <c r="D15" s="177">
+        <v>7</v>
+      </c>
+      <c r="E15" s="177">
+        <v>7</v>
+      </c>
+      <c r="F15" s="177">
+        <v>7</v>
+      </c>
+      <c r="U15"/>
+      <c r="V15"/>
+      <c r="W15"/>
+      <c r="X15"/>
+      <c r="Y15"/>
+      <c r="Z15"/>
+      <c r="AA15"/>
+      <c r="AB15"/>
+      <c r="AC15"/>
+      <c r="AD15"/>
+      <c r="AE15"/>
+      <c r="AF15"/>
+      <c r="AG15"/>
+      <c r="AH15"/>
+      <c r="AI15"/>
+      <c r="AJ15"/>
+      <c r="AK15"/>
+      <c r="AL15"/>
+      <c r="AM15"/>
+      <c r="AN15"/>
+      <c r="AO15"/>
+      <c r="AP15"/>
+      <c r="AQ15"/>
+      <c r="AR15"/>
+      <c r="AS15"/>
+      <c r="AT15"/>
+      <c r="AU15"/>
+      <c r="AV15"/>
+      <c r="AW15"/>
+      <c r="AX15"/>
+      <c r="AY15"/>
+      <c r="AZ15"/>
+      <c r="BA15"/>
+    </row>
+    <row r="16" spans="1:53" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="95" t="s">
+        <v>83</v>
+      </c>
+      <c r="B16" s="177">
+        <v>8</v>
+      </c>
+      <c r="C16" s="177">
+        <v>8</v>
+      </c>
+      <c r="D16" s="177">
+        <v>8</v>
+      </c>
+      <c r="E16" s="177">
+        <v>8</v>
+      </c>
+      <c r="F16" s="177">
+        <v>8</v>
+      </c>
+      <c r="U16"/>
+      <c r="V16"/>
+      <c r="W16"/>
+      <c r="X16"/>
+      <c r="Y16"/>
+      <c r="Z16"/>
+      <c r="AA16"/>
+      <c r="AB16"/>
+      <c r="AC16"/>
+      <c r="AD16"/>
+      <c r="AE16"/>
+      <c r="AF16"/>
+      <c r="AG16"/>
+      <c r="AH16"/>
+      <c r="AI16"/>
+      <c r="AJ16"/>
+      <c r="AK16"/>
+      <c r="AL16"/>
+      <c r="AM16"/>
+      <c r="AN16"/>
+      <c r="AO16"/>
+      <c r="AP16"/>
+      <c r="AQ16"/>
+      <c r="AR16"/>
+      <c r="AS16"/>
+      <c r="AT16"/>
+      <c r="AU16"/>
+      <c r="AV16"/>
+      <c r="AW16"/>
+      <c r="AX16"/>
+      <c r="AY16"/>
+      <c r="AZ16"/>
+      <c r="BA16"/>
+    </row>
+    <row r="17" spans="1:53" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="95" t="s">
+        <v>86</v>
+      </c>
+      <c r="B17" s="177">
+        <v>9</v>
+      </c>
+      <c r="C17" s="177">
+        <v>9</v>
+      </c>
+      <c r="D17" s="177">
+        <v>9</v>
+      </c>
+      <c r="E17" s="177">
+        <v>9</v>
+      </c>
+      <c r="F17" s="177">
+        <v>9</v>
+      </c>
+      <c r="U17"/>
+      <c r="V17"/>
+      <c r="W17"/>
+      <c r="X17"/>
+      <c r="Y17"/>
+      <c r="Z17"/>
+      <c r="AA17"/>
+      <c r="AB17"/>
+      <c r="AC17"/>
+      <c r="AD17"/>
+      <c r="AE17"/>
+      <c r="AF17"/>
+      <c r="AG17"/>
+      <c r="AH17"/>
+      <c r="AI17"/>
+      <c r="AJ17"/>
+      <c r="AK17"/>
+      <c r="AL17"/>
+      <c r="AM17"/>
+      <c r="AN17"/>
+      <c r="AO17"/>
+      <c r="AP17"/>
+      <c r="AQ17"/>
+      <c r="AR17"/>
+      <c r="AS17"/>
+      <c r="AT17"/>
+      <c r="AU17"/>
+      <c r="AV17"/>
+      <c r="AW17"/>
+      <c r="AX17"/>
+      <c r="AY17"/>
+      <c r="AZ17"/>
+      <c r="BA17"/>
+    </row>
+    <row r="18" spans="1:53" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="95" t="s">
+        <v>82</v>
+      </c>
+      <c r="B18" s="177">
+        <v>10</v>
+      </c>
+      <c r="C18" s="177">
+        <v>10</v>
+      </c>
+      <c r="D18" s="177">
+        <v>10</v>
+      </c>
+      <c r="E18" s="177">
+        <v>10</v>
+      </c>
+      <c r="F18" s="177">
+        <v>10</v>
+      </c>
+      <c r="U18"/>
+      <c r="V18"/>
+      <c r="W18"/>
+      <c r="X18"/>
+      <c r="Y18"/>
+      <c r="Z18"/>
+      <c r="AA18"/>
+      <c r="AB18"/>
+      <c r="AC18"/>
+      <c r="AD18"/>
+      <c r="AE18"/>
+      <c r="AF18"/>
+      <c r="AG18"/>
+      <c r="AH18"/>
+      <c r="AI18"/>
+      <c r="AJ18"/>
+      <c r="AK18"/>
+      <c r="AL18"/>
+      <c r="AM18"/>
+      <c r="AN18"/>
+      <c r="AO18"/>
+      <c r="AP18"/>
+      <c r="AQ18"/>
+      <c r="AR18"/>
+      <c r="AS18"/>
+      <c r="AT18"/>
+      <c r="AU18"/>
+      <c r="AV18"/>
+      <c r="AW18"/>
+      <c r="AX18"/>
+      <c r="AY18"/>
+      <c r="AZ18"/>
+      <c r="BA18"/>
+    </row>
+    <row r="19" spans="1:53" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="95" t="s">
+        <v>85</v>
+      </c>
+      <c r="B19" s="177">
+        <v>11</v>
+      </c>
+      <c r="C19" s="177">
+        <v>11</v>
+      </c>
+      <c r="D19" s="177">
+        <v>11</v>
+      </c>
+      <c r="E19" s="177">
+        <v>11</v>
+      </c>
+      <c r="F19" s="177">
+        <v>11</v>
+      </c>
+      <c r="U19"/>
+      <c r="V19"/>
+      <c r="W19"/>
+      <c r="X19"/>
+      <c r="Y19"/>
+      <c r="Z19"/>
+      <c r="AA19"/>
+      <c r="AB19"/>
+      <c r="AC19"/>
+      <c r="AD19"/>
+      <c r="AE19"/>
+      <c r="AF19"/>
+      <c r="AG19"/>
+      <c r="AH19"/>
+      <c r="AI19"/>
+      <c r="AJ19"/>
+      <c r="AK19"/>
+      <c r="AL19"/>
+      <c r="AM19"/>
+      <c r="AN19"/>
+      <c r="AO19"/>
+      <c r="AP19"/>
+      <c r="AQ19"/>
+      <c r="AR19"/>
+      <c r="AS19"/>
+      <c r="AT19"/>
+      <c r="AU19"/>
+      <c r="AV19"/>
+      <c r="AW19"/>
+      <c r="AX19"/>
+      <c r="AY19"/>
+      <c r="AZ19"/>
+      <c r="BA19"/>
+    </row>
+    <row r="20" spans="1:53" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U20"/>
+      <c r="V20"/>
+      <c r="W20"/>
+      <c r="X20"/>
+      <c r="Y20"/>
+      <c r="Z20"/>
+      <c r="AA20"/>
+      <c r="AB20"/>
+      <c r="AC20"/>
+      <c r="AD20"/>
+      <c r="AE20"/>
+      <c r="AF20"/>
+      <c r="AG20"/>
+      <c r="AH20"/>
+      <c r="AI20"/>
+      <c r="AJ20"/>
+      <c r="AK20"/>
+      <c r="AL20"/>
+      <c r="AM20"/>
+      <c r="AN20"/>
+      <c r="AO20"/>
+      <c r="AP20"/>
+      <c r="AQ20"/>
+      <c r="AR20"/>
+      <c r="AS20"/>
+      <c r="AT20"/>
+      <c r="AU20"/>
+      <c r="AV20"/>
+      <c r="AW20"/>
+      <c r="AX20"/>
+      <c r="AY20"/>
+      <c r="AZ20"/>
+      <c r="BA20"/>
+    </row>
+    <row r="21" spans="1:53" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U21"/>
+      <c r="V21"/>
+      <c r="W21"/>
+      <c r="X21"/>
+      <c r="Y21"/>
+      <c r="Z21"/>
+      <c r="AA21"/>
+      <c r="AB21"/>
+      <c r="AC21"/>
+      <c r="AD21"/>
+      <c r="AE21"/>
+      <c r="AF21"/>
+      <c r="AG21"/>
+      <c r="AH21"/>
+      <c r="AI21"/>
+      <c r="AJ21"/>
+      <c r="AK21"/>
+      <c r="AL21"/>
+      <c r="AM21"/>
+      <c r="AN21"/>
+      <c r="AO21"/>
+      <c r="AP21"/>
+      <c r="AQ21"/>
+      <c r="AR21"/>
+      <c r="AS21"/>
+      <c r="AT21"/>
+      <c r="AU21"/>
+      <c r="AV21"/>
+      <c r="AW21"/>
+      <c r="AX21"/>
+      <c r="AY21"/>
+      <c r="AZ21"/>
+      <c r="BA21"/>
+    </row>
+    <row r="22" spans="1:53" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U22"/>
+      <c r="V22"/>
+      <c r="W22"/>
+      <c r="X22"/>
+      <c r="Y22"/>
+      <c r="Z22"/>
+      <c r="AA22"/>
+      <c r="AB22"/>
+      <c r="AC22"/>
+      <c r="AD22"/>
+      <c r="AE22"/>
+      <c r="AF22"/>
+      <c r="AG22"/>
+      <c r="AH22"/>
+      <c r="AI22"/>
+      <c r="AJ22"/>
+      <c r="AK22"/>
+      <c r="AL22"/>
+      <c r="AM22"/>
+      <c r="AN22"/>
+      <c r="AO22"/>
+      <c r="AP22"/>
+      <c r="AQ22"/>
+      <c r="AR22"/>
+      <c r="AS22"/>
+      <c r="AT22"/>
+      <c r="AU22"/>
+      <c r="AV22"/>
+      <c r="AW22"/>
+      <c r="AX22"/>
+      <c r="AY22"/>
+      <c r="AZ22"/>
+      <c r="BA22"/>
+    </row>
+    <row r="23" spans="1:53" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U23"/>
+      <c r="V23"/>
+      <c r="W23"/>
+      <c r="X23"/>
+      <c r="Y23"/>
+      <c r="Z23"/>
+      <c r="AA23"/>
+      <c r="AB23"/>
+      <c r="AC23"/>
+      <c r="AD23"/>
+      <c r="AE23"/>
+      <c r="AF23"/>
+      <c r="AG23"/>
+      <c r="AH23"/>
+      <c r="AI23"/>
+      <c r="AJ23"/>
+      <c r="AK23"/>
+      <c r="AL23"/>
+      <c r="AM23"/>
+      <c r="AN23"/>
+      <c r="AO23"/>
+      <c r="AP23"/>
+      <c r="AQ23"/>
+      <c r="AR23"/>
+      <c r="AS23"/>
+      <c r="AT23"/>
+      <c r="AU23"/>
+      <c r="AV23"/>
+      <c r="AW23"/>
+      <c r="AX23"/>
+      <c r="AY23"/>
+      <c r="AZ23"/>
+      <c r="BA23"/>
+    </row>
+    <row r="24" spans="1:53" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U24"/>
+      <c r="V24"/>
+      <c r="W24"/>
+      <c r="X24"/>
+      <c r="Y24"/>
+      <c r="Z24"/>
+      <c r="AA24"/>
+      <c r="AB24"/>
+      <c r="AC24"/>
+      <c r="AD24"/>
+      <c r="AE24"/>
+      <c r="AF24"/>
+      <c r="AG24"/>
+      <c r="AH24"/>
+      <c r="AI24"/>
+      <c r="AJ24"/>
+      <c r="AK24"/>
+      <c r="AL24"/>
+      <c r="AM24"/>
+      <c r="AN24"/>
+      <c r="AO24"/>
+      <c r="AP24"/>
+      <c r="AQ24"/>
+      <c r="AR24"/>
+      <c r="AS24"/>
+      <c r="AT24"/>
+      <c r="AU24"/>
+      <c r="AV24"/>
+      <c r="AW24"/>
+      <c r="AX24"/>
+      <c r="AY24"/>
+      <c r="AZ24"/>
+      <c r="BA24"/>
+    </row>
+    <row r="25" spans="1:53" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U25"/>
+      <c r="V25"/>
+      <c r="W25"/>
+      <c r="X25"/>
+      <c r="Y25"/>
+      <c r="Z25"/>
+      <c r="AA25"/>
+      <c r="AB25"/>
+      <c r="AC25"/>
+      <c r="AD25"/>
+      <c r="AE25"/>
+      <c r="AF25"/>
+      <c r="AG25"/>
+      <c r="AH25"/>
+      <c r="AI25"/>
+      <c r="AJ25"/>
+      <c r="AK25"/>
+      <c r="AL25"/>
+      <c r="AM25"/>
+      <c r="AN25"/>
+      <c r="AO25"/>
+      <c r="AP25"/>
+      <c r="AQ25"/>
+      <c r="AR25"/>
+      <c r="AS25"/>
+      <c r="AT25"/>
+      <c r="AU25"/>
+      <c r="AV25"/>
+      <c r="AW25"/>
+      <c r="AX25"/>
+      <c r="AY25"/>
+      <c r="AZ25"/>
+      <c r="BA25"/>
+    </row>
+    <row r="26" spans="1:53" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U26"/>
+      <c r="V26"/>
+      <c r="W26"/>
+      <c r="X26"/>
+      <c r="Y26"/>
+      <c r="Z26"/>
+      <c r="AA26"/>
+      <c r="AB26"/>
+      <c r="AC26"/>
+      <c r="AD26"/>
+      <c r="AE26"/>
+      <c r="AF26"/>
+      <c r="AG26"/>
+      <c r="AH26"/>
+      <c r="AI26"/>
+      <c r="AJ26"/>
+      <c r="AK26"/>
+      <c r="AL26"/>
+      <c r="AM26"/>
+      <c r="AN26"/>
+      <c r="AO26"/>
+      <c r="AP26"/>
+      <c r="AQ26"/>
+      <c r="AR26"/>
+      <c r="AS26"/>
+      <c r="AT26"/>
+      <c r="AU26"/>
+      <c r="AV26"/>
+      <c r="AW26"/>
+      <c r="AX26"/>
+      <c r="AY26"/>
+      <c r="AZ26"/>
+      <c r="BA26"/>
+    </row>
+    <row r="27" spans="1:53" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U27"/>
+      <c r="V27"/>
+      <c r="W27"/>
+      <c r="X27"/>
+      <c r="Y27"/>
+      <c r="Z27"/>
+      <c r="AA27"/>
+      <c r="AB27"/>
+      <c r="AC27"/>
+      <c r="AD27"/>
+      <c r="AE27"/>
+      <c r="AF27"/>
+      <c r="AG27"/>
+      <c r="AH27"/>
+      <c r="AI27"/>
+      <c r="AJ27"/>
+      <c r="AK27"/>
+      <c r="AL27"/>
+      <c r="AM27"/>
+      <c r="AN27"/>
+      <c r="AO27"/>
+      <c r="AP27"/>
+      <c r="AQ27"/>
+      <c r="AR27"/>
+      <c r="AS27"/>
+      <c r="AT27"/>
+      <c r="AU27"/>
+      <c r="AV27"/>
+      <c r="AW27"/>
+      <c r="AX27"/>
+      <c r="AY27"/>
+      <c r="AZ27"/>
+      <c r="BA27"/>
+    </row>
+    <row r="28" spans="1:53" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U28"/>
+      <c r="V28"/>
+      <c r="W28"/>
+      <c r="X28"/>
+      <c r="Y28"/>
+      <c r="Z28"/>
+      <c r="AA28"/>
+      <c r="AB28"/>
+      <c r="AC28"/>
+      <c r="AD28"/>
+      <c r="AE28"/>
+      <c r="AF28"/>
+      <c r="AG28"/>
+      <c r="AH28"/>
+      <c r="AI28"/>
+      <c r="AJ28"/>
+      <c r="AK28"/>
+      <c r="AL28"/>
+      <c r="AM28"/>
+      <c r="AN28"/>
+      <c r="AO28"/>
+      <c r="AP28"/>
+      <c r="AQ28"/>
+      <c r="AR28"/>
+      <c r="AS28"/>
+      <c r="AT28"/>
+      <c r="AU28"/>
+      <c r="AV28"/>
+      <c r="AW28"/>
+      <c r="AX28"/>
+      <c r="AY28"/>
+      <c r="AZ28"/>
+      <c r="BA28"/>
+    </row>
+    <row r="29" spans="1:53" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U29"/>
+      <c r="V29"/>
+      <c r="W29"/>
+      <c r="X29"/>
+      <c r="Y29"/>
+      <c r="Z29"/>
+      <c r="AA29"/>
+      <c r="AB29"/>
+      <c r="AC29"/>
+      <c r="AD29"/>
+      <c r="AE29"/>
+      <c r="AF29"/>
+      <c r="AG29"/>
+      <c r="AH29"/>
+      <c r="AI29"/>
+      <c r="AJ29"/>
+      <c r="AK29"/>
+      <c r="AL29"/>
+      <c r="AM29"/>
+      <c r="AN29"/>
+      <c r="AO29"/>
+      <c r="AP29"/>
+      <c r="AQ29"/>
+      <c r="AR29"/>
+      <c r="AS29"/>
+      <c r="AT29"/>
+      <c r="AU29"/>
+      <c r="AV29"/>
+      <c r="AW29"/>
+      <c r="AX29"/>
+      <c r="AY29"/>
+      <c r="AZ29"/>
+      <c r="BA29"/>
+    </row>
+    <row r="30" spans="1:53" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U30"/>
+      <c r="V30"/>
+      <c r="W30"/>
+      <c r="X30"/>
+      <c r="Y30"/>
+      <c r="Z30"/>
+      <c r="AA30"/>
+      <c r="AB30"/>
+      <c r="AC30"/>
+      <c r="AD30"/>
+      <c r="AE30"/>
+      <c r="AF30"/>
+      <c r="AG30"/>
+      <c r="AH30"/>
+      <c r="AI30"/>
+      <c r="AJ30"/>
+      <c r="AK30"/>
+      <c r="AL30"/>
+      <c r="AM30"/>
+      <c r="AN30"/>
+      <c r="AO30"/>
+      <c r="AP30"/>
+      <c r="AQ30"/>
+      <c r="AR30"/>
+      <c r="AS30"/>
+      <c r="AT30"/>
+      <c r="AU30"/>
+      <c r="AV30"/>
+      <c r="AW30"/>
+      <c r="AX30"/>
+      <c r="AY30"/>
+      <c r="AZ30"/>
+      <c r="BA30"/>
+    </row>
+    <row r="31" spans="1:53" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U31"/>
+      <c r="V31"/>
+      <c r="W31"/>
+      <c r="X31"/>
+      <c r="Y31"/>
+      <c r="Z31"/>
+      <c r="AA31"/>
+      <c r="AB31"/>
+      <c r="AC31"/>
+      <c r="AD31"/>
+      <c r="AE31"/>
+      <c r="AF31"/>
+      <c r="AG31"/>
+      <c r="AH31"/>
+      <c r="AI31"/>
+      <c r="AJ31"/>
+      <c r="AK31"/>
+      <c r="AL31"/>
+      <c r="AM31"/>
+      <c r="AN31"/>
+      <c r="AO31"/>
+      <c r="AP31"/>
+      <c r="AQ31"/>
+      <c r="AR31"/>
+      <c r="AS31"/>
+      <c r="AT31"/>
+      <c r="AU31"/>
+      <c r="AV31"/>
+      <c r="AW31"/>
+      <c r="AX31"/>
+      <c r="AY31"/>
+      <c r="AZ31"/>
+      <c r="BA31"/>
+    </row>
+    <row r="32" spans="1:53" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U32"/>
+      <c r="V32"/>
+      <c r="W32"/>
+      <c r="X32"/>
+      <c r="Y32"/>
+      <c r="Z32"/>
+      <c r="AA32"/>
+      <c r="AB32"/>
+      <c r="AC32"/>
+      <c r="AD32"/>
+      <c r="AE32"/>
+      <c r="AF32"/>
+      <c r="AG32"/>
+      <c r="AH32"/>
+      <c r="AI32"/>
+      <c r="AJ32"/>
+      <c r="AK32"/>
+      <c r="AL32"/>
+      <c r="AM32"/>
+      <c r="AN32"/>
+      <c r="AO32"/>
+      <c r="AP32"/>
+      <c r="AQ32"/>
+      <c r="AR32"/>
+      <c r="AS32"/>
+      <c r="AT32"/>
+      <c r="AU32"/>
+      <c r="AV32"/>
+      <c r="AW32"/>
+      <c r="AX32"/>
+      <c r="AY32"/>
+      <c r="AZ32"/>
+      <c r="BA32"/>
+    </row>
+    <row r="33" spans="21:53" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U33"/>
+      <c r="V33"/>
+      <c r="W33"/>
+      <c r="X33"/>
+      <c r="Y33"/>
+      <c r="Z33"/>
+      <c r="AA33"/>
+      <c r="AB33"/>
+      <c r="AC33"/>
+      <c r="AD33"/>
+      <c r="AE33"/>
+      <c r="AF33"/>
+      <c r="AG33"/>
+      <c r="AH33"/>
+      <c r="AI33"/>
+      <c r="AJ33"/>
+      <c r="AK33"/>
+      <c r="AL33"/>
+      <c r="AM33"/>
+      <c r="AN33"/>
+      <c r="AO33"/>
+      <c r="AP33"/>
+      <c r="AQ33"/>
+      <c r="AR33"/>
+      <c r="AS33"/>
+      <c r="AT33"/>
+      <c r="AU33"/>
+      <c r="AV33"/>
+      <c r="AW33"/>
+      <c r="AX33"/>
+      <c r="AY33"/>
+      <c r="AZ33"/>
+      <c r="BA33"/>
+    </row>
+    <row r="34" spans="21:53" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U34"/>
+      <c r="V34"/>
+      <c r="W34"/>
+      <c r="X34"/>
+      <c r="Y34"/>
+      <c r="Z34"/>
+      <c r="AA34"/>
+      <c r="AB34"/>
+      <c r="AC34"/>
+      <c r="AD34"/>
+      <c r="AE34"/>
+      <c r="AF34"/>
+      <c r="AG34"/>
+      <c r="AH34"/>
+      <c r="AI34"/>
+      <c r="AJ34"/>
+      <c r="AK34"/>
+      <c r="AL34"/>
+      <c r="AM34"/>
+      <c r="AN34"/>
+      <c r="AO34"/>
+      <c r="AP34"/>
+      <c r="AQ34"/>
+      <c r="AR34"/>
+      <c r="AS34"/>
+      <c r="AT34"/>
+      <c r="AU34"/>
+      <c r="AV34"/>
+      <c r="AW34"/>
+      <c r="AX34"/>
+      <c r="AY34"/>
+      <c r="AZ34"/>
+      <c r="BA34"/>
+    </row>
+    <row r="35" spans="21:53" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U35"/>
+      <c r="V35"/>
+      <c r="W35"/>
+      <c r="X35"/>
+      <c r="Y35"/>
+      <c r="Z35"/>
+      <c r="AA35"/>
+      <c r="AB35"/>
+      <c r="AC35"/>
+      <c r="AD35"/>
+      <c r="AE35"/>
+      <c r="AF35"/>
+      <c r="AG35"/>
+      <c r="AH35"/>
+      <c r="AI35"/>
+      <c r="AJ35"/>
+      <c r="AK35"/>
+      <c r="AL35"/>
+      <c r="AM35"/>
+      <c r="AN35"/>
+      <c r="AO35"/>
+      <c r="AP35"/>
+      <c r="AQ35"/>
+      <c r="AR35"/>
+      <c r="AS35"/>
+      <c r="AT35"/>
+      <c r="AU35"/>
+      <c r="AV35"/>
+      <c r="AW35"/>
+      <c r="AX35"/>
+      <c r="AY35"/>
+      <c r="AZ35"/>
+      <c r="BA35"/>
+    </row>
+    <row r="36" spans="21:53" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U36"/>
+      <c r="V36"/>
+      <c r="W36"/>
+      <c r="X36"/>
+      <c r="Y36"/>
+      <c r="Z36"/>
+      <c r="AA36"/>
+      <c r="AB36"/>
+      <c r="AC36"/>
+      <c r="AD36"/>
+      <c r="AE36"/>
+      <c r="AF36"/>
+      <c r="AG36"/>
+      <c r="AH36"/>
+      <c r="AI36"/>
+      <c r="AJ36"/>
+      <c r="AK36"/>
+      <c r="AL36"/>
+      <c r="AM36"/>
+      <c r="AN36"/>
+      <c r="AO36"/>
+      <c r="AP36"/>
+      <c r="AQ36"/>
+      <c r="AR36"/>
+      <c r="AS36"/>
+      <c r="AT36"/>
+      <c r="AU36"/>
+      <c r="AV36"/>
+      <c r="AW36"/>
+      <c r="AX36"/>
+      <c r="AY36"/>
+      <c r="AZ36"/>
+      <c r="BA36"/>
+    </row>
+    <row r="37" spans="21:53" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U37"/>
+      <c r="V37"/>
+      <c r="W37"/>
+      <c r="X37"/>
+      <c r="Y37"/>
+      <c r="Z37"/>
+      <c r="AA37"/>
+      <c r="AB37"/>
+      <c r="AC37"/>
+      <c r="AD37"/>
+      <c r="AE37"/>
+      <c r="AF37"/>
+      <c r="AG37"/>
+      <c r="AH37"/>
+      <c r="AI37"/>
+      <c r="AJ37"/>
+      <c r="AK37"/>
+      <c r="AL37"/>
+      <c r="AM37"/>
+      <c r="AN37"/>
+      <c r="AO37"/>
+      <c r="AP37"/>
+      <c r="AQ37"/>
+      <c r="AR37"/>
+      <c r="AS37"/>
+      <c r="AT37"/>
+      <c r="AU37"/>
+      <c r="AV37"/>
+      <c r="AW37"/>
+      <c r="AX37"/>
+      <c r="AY37"/>
+      <c r="AZ37"/>
+      <c r="BA37"/>
+    </row>
+    <row r="38" spans="21:53" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U38"/>
+      <c r="V38"/>
+      <c r="W38"/>
+      <c r="X38"/>
+      <c r="Y38"/>
+      <c r="Z38"/>
+      <c r="AA38"/>
+      <c r="AB38"/>
+      <c r="AC38"/>
+      <c r="AD38"/>
+      <c r="AE38"/>
+      <c r="AF38"/>
+      <c r="AG38"/>
+      <c r="AH38"/>
+      <c r="AI38"/>
+      <c r="AJ38"/>
+      <c r="AK38"/>
+      <c r="AL38"/>
+      <c r="AM38"/>
+      <c r="AN38"/>
+      <c r="AO38"/>
+      <c r="AP38"/>
+      <c r="AQ38"/>
+      <c r="AR38"/>
+      <c r="AS38"/>
+      <c r="AT38"/>
+      <c r="AU38"/>
+      <c r="AV38"/>
+      <c r="AW38"/>
+      <c r="AX38"/>
+      <c r="AY38"/>
+      <c r="AZ38"/>
+      <c r="BA38"/>
+    </row>
+    <row r="39" spans="21:53" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U39"/>
+      <c r="V39"/>
+      <c r="W39"/>
+      <c r="X39"/>
+      <c r="Y39"/>
+      <c r="Z39"/>
+      <c r="AA39"/>
+      <c r="AB39"/>
+      <c r="AC39"/>
+      <c r="AD39"/>
+      <c r="AE39"/>
+      <c r="AF39"/>
+      <c r="AG39"/>
+      <c r="AH39"/>
+      <c r="AI39"/>
+      <c r="AJ39"/>
+      <c r="AK39"/>
+      <c r="AL39"/>
+      <c r="AM39"/>
+      <c r="AN39"/>
+      <c r="AO39"/>
+      <c r="AP39"/>
+      <c r="AQ39"/>
+      <c r="AR39"/>
+      <c r="AS39"/>
+      <c r="AT39"/>
+      <c r="AU39"/>
+      <c r="AV39"/>
+      <c r="AW39"/>
+      <c r="AX39"/>
+      <c r="AY39"/>
+      <c r="AZ39"/>
+      <c r="BA39"/>
+    </row>
+    <row r="40" spans="21:53" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U40"/>
+      <c r="V40"/>
+      <c r="W40"/>
+      <c r="X40"/>
+      <c r="Y40"/>
+      <c r="Z40"/>
+      <c r="AA40"/>
+      <c r="AB40"/>
+      <c r="AC40"/>
+      <c r="AD40"/>
+      <c r="AE40"/>
+      <c r="AF40"/>
+      <c r="AG40"/>
+      <c r="AH40"/>
+      <c r="AI40"/>
+      <c r="AJ40"/>
+      <c r="AK40"/>
+      <c r="AL40"/>
+      <c r="AM40"/>
+      <c r="AN40"/>
+      <c r="AO40"/>
+      <c r="AP40"/>
+      <c r="AQ40"/>
+      <c r="AR40"/>
+      <c r="AS40"/>
+      <c r="AT40"/>
+      <c r="AU40"/>
+      <c r="AV40"/>
+      <c r="AW40"/>
+      <c r="AX40"/>
+      <c r="AY40"/>
+      <c r="AZ40"/>
+      <c r="BA40"/>
+    </row>
+    <row r="41" spans="21:53" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U41"/>
+      <c r="V41"/>
+      <c r="W41"/>
+      <c r="X41"/>
+      <c r="Y41"/>
+      <c r="Z41"/>
+      <c r="AA41"/>
+      <c r="AB41"/>
+      <c r="AC41"/>
+      <c r="AD41"/>
+      <c r="AE41"/>
+      <c r="AF41"/>
+      <c r="AG41"/>
+      <c r="AH41"/>
+      <c r="AI41"/>
+      <c r="AJ41"/>
+      <c r="AK41"/>
+      <c r="AL41"/>
+      <c r="AM41"/>
+      <c r="AN41"/>
+      <c r="AO41"/>
+      <c r="AP41"/>
+      <c r="AQ41"/>
+      <c r="AR41"/>
+      <c r="AS41"/>
+      <c r="AT41"/>
+      <c r="AU41"/>
+      <c r="AV41"/>
+      <c r="AW41"/>
+      <c r="AX41"/>
+      <c r="AY41"/>
+      <c r="AZ41"/>
+      <c r="BA41"/>
+    </row>
+    <row r="42" spans="21:53" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U42"/>
+      <c r="V42"/>
+      <c r="W42"/>
+      <c r="X42"/>
+      <c r="Y42"/>
+      <c r="Z42"/>
+      <c r="AA42"/>
+      <c r="AB42"/>
+      <c r="AC42"/>
+      <c r="AD42"/>
+      <c r="AE42"/>
+      <c r="AF42"/>
+      <c r="AG42"/>
+      <c r="AH42"/>
+      <c r="AI42"/>
+      <c r="AJ42"/>
+      <c r="AK42"/>
+      <c r="AL42"/>
+      <c r="AM42"/>
+      <c r="AN42"/>
+      <c r="AO42"/>
+      <c r="AP42"/>
+      <c r="AQ42"/>
+      <c r="AR42"/>
+      <c r="AS42"/>
+      <c r="AT42"/>
+      <c r="AU42"/>
+      <c r="AV42"/>
+      <c r="AW42"/>
+      <c r="AX42"/>
+      <c r="AY42"/>
+      <c r="AZ42"/>
+      <c r="BA42"/>
+    </row>
+    <row r="43" spans="21:53" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U43"/>
+      <c r="V43"/>
+      <c r="W43"/>
+      <c r="X43"/>
+      <c r="Y43"/>
+      <c r="Z43"/>
+      <c r="AA43"/>
+      <c r="AB43"/>
+      <c r="AC43"/>
+      <c r="AD43"/>
+      <c r="AE43"/>
+      <c r="AF43"/>
+      <c r="AG43"/>
+      <c r="AH43"/>
+      <c r="AI43"/>
+      <c r="AJ43"/>
+      <c r="AK43"/>
+      <c r="AL43"/>
+      <c r="AM43"/>
+      <c r="AN43"/>
+      <c r="AO43"/>
+      <c r="AP43"/>
+      <c r="AQ43"/>
+      <c r="AR43"/>
+      <c r="AS43"/>
+      <c r="AT43"/>
+      <c r="AU43"/>
+      <c r="AV43"/>
+      <c r="AW43"/>
+      <c r="AX43"/>
+      <c r="AY43"/>
+      <c r="AZ43"/>
+      <c r="BA43"/>
+    </row>
+    <row r="44" spans="21:53" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U44"/>
+      <c r="V44"/>
+      <c r="W44"/>
+      <c r="X44"/>
+      <c r="Y44"/>
+      <c r="Z44"/>
+      <c r="AA44"/>
+      <c r="AB44"/>
+      <c r="AC44"/>
+      <c r="AD44"/>
+      <c r="AE44"/>
+      <c r="AF44"/>
+      <c r="AG44"/>
+      <c r="AH44"/>
+      <c r="AI44"/>
+      <c r="AJ44"/>
+      <c r="AK44"/>
+      <c r="AL44"/>
+      <c r="AM44"/>
+      <c r="AN44"/>
+      <c r="AO44"/>
+      <c r="AP44"/>
+      <c r="AQ44"/>
+      <c r="AR44"/>
+      <c r="AS44"/>
+      <c r="AT44"/>
+      <c r="AU44"/>
+      <c r="AV44"/>
+      <c r="AW44"/>
+      <c r="AX44"/>
+      <c r="AY44"/>
+      <c r="AZ44"/>
+      <c r="BA44"/>
+    </row>
+    <row r="45" spans="21:53" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U45"/>
+      <c r="V45"/>
+      <c r="W45"/>
+      <c r="X45"/>
+      <c r="Y45"/>
+      <c r="Z45"/>
+      <c r="AA45"/>
+      <c r="AB45"/>
+      <c r="AC45"/>
+      <c r="AD45"/>
+      <c r="AE45"/>
+      <c r="AF45"/>
+      <c r="AG45"/>
+      <c r="AH45"/>
+      <c r="AI45"/>
+      <c r="AJ45"/>
+      <c r="AK45"/>
+      <c r="AL45"/>
+      <c r="AM45"/>
+      <c r="AN45"/>
+      <c r="AO45"/>
+      <c r="AP45"/>
+      <c r="AQ45"/>
+      <c r="AR45"/>
+      <c r="AS45"/>
+      <c r="AT45"/>
+      <c r="AU45"/>
+      <c r="AV45"/>
+      <c r="AW45"/>
+      <c r="AX45"/>
+      <c r="AY45"/>
+      <c r="AZ45"/>
+      <c r="BA45"/>
+    </row>
+    <row r="46" spans="21:53" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U46"/>
+      <c r="V46"/>
+      <c r="W46"/>
+      <c r="X46"/>
+      <c r="Y46"/>
+      <c r="Z46"/>
+      <c r="AA46"/>
+      <c r="AB46"/>
+      <c r="AC46"/>
+      <c r="AD46"/>
+      <c r="AE46"/>
+      <c r="AF46"/>
+      <c r="AG46"/>
+      <c r="AH46"/>
+      <c r="AI46"/>
+      <c r="AJ46"/>
+      <c r="AK46"/>
+      <c r="AL46"/>
+      <c r="AM46"/>
+      <c r="AN46"/>
+      <c r="AO46"/>
+      <c r="AP46"/>
+      <c r="AQ46"/>
+      <c r="AR46"/>
+      <c r="AS46"/>
+      <c r="AT46"/>
+      <c r="AU46"/>
+      <c r="AV46"/>
+      <c r="AW46"/>
+      <c r="AX46"/>
+      <c r="AY46"/>
+      <c r="AZ46"/>
+      <c r="BA46"/>
+    </row>
+    <row r="47" spans="21:53" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U47"/>
+      <c r="V47"/>
+      <c r="W47"/>
+      <c r="X47"/>
+      <c r="Y47"/>
+      <c r="Z47"/>
+      <c r="AA47"/>
+      <c r="AB47"/>
+      <c r="AC47"/>
+      <c r="AD47"/>
+      <c r="AE47"/>
+      <c r="AF47"/>
+      <c r="AG47"/>
+      <c r="AH47"/>
+      <c r="AI47"/>
+      <c r="AJ47"/>
+      <c r="AK47"/>
+      <c r="AL47"/>
+      <c r="AM47"/>
+      <c r="AN47"/>
+      <c r="AO47"/>
+      <c r="AP47"/>
+      <c r="AQ47"/>
+      <c r="AR47"/>
+      <c r="AS47"/>
+      <c r="AT47"/>
+      <c r="AU47"/>
+      <c r="AV47"/>
+      <c r="AW47"/>
+      <c r="AX47"/>
+      <c r="AY47"/>
+      <c r="AZ47"/>
+      <c r="BA47"/>
+    </row>
+    <row r="48" spans="21:53" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U48"/>
+      <c r="V48"/>
+      <c r="W48"/>
+      <c r="X48"/>
+      <c r="Y48"/>
+      <c r="Z48"/>
+      <c r="AA48"/>
+      <c r="AB48"/>
+      <c r="AC48"/>
+      <c r="AD48"/>
+      <c r="AE48"/>
+      <c r="AF48"/>
+      <c r="AG48"/>
+      <c r="AH48"/>
+      <c r="AI48"/>
+      <c r="AJ48"/>
+      <c r="AK48"/>
+      <c r="AL48"/>
+      <c r="AM48"/>
+      <c r="AN48"/>
+      <c r="AO48"/>
+      <c r="AP48"/>
+      <c r="AQ48"/>
+      <c r="AR48"/>
+      <c r="AS48"/>
+      <c r="AT48"/>
+      <c r="AU48"/>
+      <c r="AV48"/>
+      <c r="AW48"/>
+      <c r="AX48"/>
+      <c r="AY48"/>
+      <c r="AZ48"/>
+      <c r="BA48"/>
+    </row>
+    <row r="49" spans="21:53" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U49"/>
+      <c r="V49"/>
+      <c r="W49"/>
+      <c r="X49"/>
+      <c r="Y49"/>
+      <c r="Z49"/>
+      <c r="AA49"/>
+      <c r="AB49"/>
+      <c r="AC49"/>
+      <c r="AD49"/>
+      <c r="AE49"/>
+      <c r="AF49"/>
+      <c r="AG49"/>
+      <c r="AH49"/>
+      <c r="AI49"/>
+      <c r="AJ49"/>
+      <c r="AK49"/>
+      <c r="AL49"/>
+      <c r="AM49"/>
+      <c r="AN49"/>
+      <c r="AO49"/>
+      <c r="AP49"/>
+      <c r="AQ49"/>
+      <c r="AR49"/>
+      <c r="AS49"/>
+      <c r="AT49"/>
+      <c r="AU49"/>
+      <c r="AV49"/>
+      <c r="AW49"/>
+      <c r="AX49"/>
+      <c r="AY49"/>
+      <c r="AZ49"/>
+      <c r="BA49"/>
+    </row>
+    <row r="50" spans="21:53" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U50"/>
+      <c r="V50"/>
+      <c r="W50"/>
+      <c r="X50"/>
+      <c r="Y50"/>
+      <c r="Z50"/>
+      <c r="AA50"/>
+      <c r="AB50"/>
+      <c r="AC50"/>
+      <c r="AD50"/>
+      <c r="AE50"/>
+      <c r="AF50"/>
+      <c r="AG50"/>
+      <c r="AH50"/>
+      <c r="AI50"/>
+      <c r="AJ50"/>
+      <c r="AK50"/>
+      <c r="AL50"/>
+      <c r="AM50"/>
+      <c r="AN50"/>
+      <c r="AO50"/>
+      <c r="AP50"/>
+      <c r="AQ50"/>
+      <c r="AR50"/>
+      <c r="AS50"/>
+      <c r="AT50"/>
+      <c r="AU50"/>
+      <c r="AV50"/>
+      <c r="AW50"/>
+      <c r="AX50"/>
+      <c r="AY50"/>
+      <c r="AZ50"/>
+      <c r="BA50"/>
+    </row>
+    <row r="51" spans="21:53" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U51"/>
+      <c r="V51"/>
+      <c r="W51"/>
+      <c r="X51"/>
+      <c r="Y51"/>
+      <c r="Z51"/>
+      <c r="AA51"/>
+      <c r="AB51"/>
+      <c r="AC51"/>
+      <c r="AD51"/>
+      <c r="AE51"/>
+      <c r="AF51"/>
+      <c r="AG51"/>
+      <c r="AH51"/>
+      <c r="AI51"/>
+      <c r="AJ51"/>
+      <c r="AK51"/>
+      <c r="AL51"/>
+      <c r="AM51"/>
+      <c r="AN51"/>
+      <c r="AO51"/>
+      <c r="AP51"/>
+      <c r="AQ51"/>
+      <c r="AR51"/>
+      <c r="AS51"/>
+      <c r="AT51"/>
+      <c r="AU51"/>
+      <c r="AV51"/>
+      <c r="AW51"/>
+      <c r="AX51"/>
+      <c r="AY51"/>
+      <c r="AZ51"/>
+      <c r="BA51"/>
+    </row>
+    <row r="52" spans="21:53" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U52"/>
+      <c r="V52"/>
+      <c r="W52"/>
+      <c r="X52"/>
+      <c r="Y52"/>
+      <c r="Z52"/>
+      <c r="AA52"/>
+      <c r="AB52"/>
+      <c r="AC52"/>
+      <c r="AD52"/>
+      <c r="AE52"/>
+      <c r="AF52"/>
+      <c r="AG52"/>
+      <c r="AH52"/>
+      <c r="AI52"/>
+      <c r="AJ52"/>
+      <c r="AK52"/>
+      <c r="AL52"/>
+      <c r="AM52"/>
+      <c r="AN52"/>
+      <c r="AO52"/>
+      <c r="AP52"/>
+      <c r="AQ52"/>
+      <c r="AR52"/>
+      <c r="AS52"/>
+      <c r="AT52"/>
+      <c r="AU52"/>
+      <c r="AV52"/>
+      <c r="AW52"/>
+      <c r="AX52"/>
+      <c r="AY52"/>
+      <c r="AZ52"/>
+      <c r="BA52"/>
+    </row>
+    <row r="53" spans="21:53" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U53"/>
+      <c r="V53"/>
+      <c r="W53"/>
+      <c r="X53"/>
+      <c r="Y53"/>
+      <c r="Z53"/>
+      <c r="AA53"/>
+      <c r="AB53"/>
+      <c r="AC53"/>
+      <c r="AD53"/>
+      <c r="AE53"/>
+      <c r="AF53"/>
+      <c r="AG53"/>
+      <c r="AH53"/>
+      <c r="AI53"/>
+      <c r="AJ53"/>
+      <c r="AK53"/>
+      <c r="AL53"/>
+      <c r="AM53"/>
+      <c r="AN53"/>
+      <c r="AO53"/>
+      <c r="AP53"/>
+      <c r="AQ53"/>
+      <c r="AR53"/>
+      <c r="AS53"/>
+      <c r="AT53"/>
+      <c r="AU53"/>
+      <c r="AV53"/>
+      <c r="AW53"/>
+      <c r="AX53"/>
+      <c r="AY53"/>
+      <c r="AZ53"/>
+      <c r="BA53"/>
+    </row>
+    <row r="54" spans="21:53" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U54"/>
+      <c r="V54"/>
+      <c r="W54"/>
+      <c r="X54"/>
+      <c r="Y54"/>
+      <c r="Z54"/>
+      <c r="AA54"/>
+      <c r="AB54"/>
+      <c r="AC54"/>
+      <c r="AD54"/>
+      <c r="AE54"/>
+      <c r="AF54"/>
+      <c r="AG54"/>
+      <c r="AH54"/>
+      <c r="AI54"/>
+      <c r="AJ54"/>
+      <c r="AK54"/>
+      <c r="AL54"/>
+      <c r="AM54"/>
+      <c r="AN54"/>
+      <c r="AO54"/>
+      <c r="AP54"/>
+      <c r="AQ54"/>
+      <c r="AR54"/>
+      <c r="AS54"/>
+      <c r="AT54"/>
+      <c r="AU54"/>
+      <c r="AV54"/>
+      <c r="AW54"/>
+      <c r="AX54"/>
+      <c r="AY54"/>
+      <c r="AZ54"/>
+      <c r="BA54"/>
+    </row>
+    <row r="55" spans="21:53" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U55"/>
+      <c r="V55"/>
+      <c r="W55"/>
+      <c r="X55"/>
+      <c r="Y55"/>
+      <c r="Z55"/>
+      <c r="AA55"/>
+      <c r="AB55"/>
+      <c r="AC55"/>
+      <c r="AD55"/>
+      <c r="AE55"/>
+      <c r="AF55"/>
+      <c r="AG55"/>
+      <c r="AH55"/>
+      <c r="AI55"/>
+      <c r="AJ55"/>
+      <c r="AK55"/>
+      <c r="AL55"/>
+      <c r="AM55"/>
+      <c r="AN55"/>
+      <c r="AO55"/>
+      <c r="AP55"/>
+      <c r="AQ55"/>
+      <c r="AR55"/>
+      <c r="AS55"/>
+      <c r="AT55"/>
+      <c r="AU55"/>
+      <c r="AV55"/>
+      <c r="AW55"/>
+      <c r="AX55"/>
+      <c r="AY55"/>
+      <c r="AZ55"/>
+      <c r="BA55"/>
+    </row>
+    <row r="56" spans="21:53" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U56"/>
+      <c r="V56"/>
+      <c r="W56"/>
+      <c r="X56"/>
+      <c r="Y56"/>
+      <c r="Z56"/>
+      <c r="AA56"/>
+      <c r="AB56"/>
+      <c r="AC56"/>
+      <c r="AD56"/>
+      <c r="AE56"/>
+      <c r="AF56"/>
+      <c r="AG56"/>
+      <c r="AH56"/>
+      <c r="AI56"/>
+      <c r="AJ56"/>
+      <c r="AK56"/>
+      <c r="AL56"/>
+      <c r="AM56"/>
+      <c r="AN56"/>
+      <c r="AO56"/>
+      <c r="AP56"/>
+      <c r="AQ56"/>
+      <c r="AR56"/>
+      <c r="AS56"/>
+      <c r="AT56"/>
+      <c r="AU56"/>
+      <c r="AV56"/>
+      <c r="AW56"/>
+      <c r="AX56"/>
+      <c r="AY56"/>
+      <c r="AZ56"/>
+      <c r="BA56"/>
+    </row>
+    <row r="57" spans="21:53" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U57"/>
+      <c r="V57"/>
+      <c r="W57"/>
+      <c r="X57"/>
+      <c r="Y57"/>
+      <c r="Z57"/>
+      <c r="AA57"/>
+      <c r="AB57"/>
+      <c r="AC57"/>
+      <c r="AD57"/>
+      <c r="AE57"/>
+      <c r="AF57"/>
+      <c r="AG57"/>
+      <c r="AH57"/>
+      <c r="AI57"/>
+      <c r="AJ57"/>
+      <c r="AK57"/>
+      <c r="AL57"/>
+      <c r="AM57"/>
+      <c r="AN57"/>
+      <c r="AO57"/>
+      <c r="AP57"/>
+      <c r="AQ57"/>
+      <c r="AR57"/>
+      <c r="AS57"/>
+      <c r="AT57"/>
+      <c r="AU57"/>
+      <c r="AV57"/>
+      <c r="AW57"/>
+      <c r="AX57"/>
+      <c r="AY57"/>
+      <c r="AZ57"/>
+      <c r="BA57"/>
+    </row>
+    <row r="58" spans="21:53" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U58"/>
+      <c r="V58"/>
+      <c r="W58"/>
+      <c r="X58"/>
+      <c r="Y58"/>
+      <c r="Z58"/>
+      <c r="AA58"/>
+      <c r="AB58"/>
+      <c r="AC58"/>
+      <c r="AD58"/>
+      <c r="AE58"/>
+      <c r="AF58"/>
+      <c r="AG58"/>
+      <c r="AH58"/>
+      <c r="AI58"/>
+      <c r="AJ58"/>
+      <c r="AK58"/>
+      <c r="AL58"/>
+      <c r="AM58"/>
+      <c r="AN58"/>
+      <c r="AO58"/>
+      <c r="AP58"/>
+      <c r="AQ58"/>
+      <c r="AR58"/>
+      <c r="AS58"/>
+      <c r="AT58"/>
+      <c r="AU58"/>
+      <c r="AV58"/>
+      <c r="AW58"/>
+      <c r="AX58"/>
+      <c r="AY58"/>
+      <c r="AZ58"/>
+      <c r="BA58"/>
+    </row>
+    <row r="59" spans="21:53" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U59"/>
+      <c r="V59"/>
+      <c r="W59"/>
+      <c r="X59"/>
+      <c r="Y59"/>
+      <c r="Z59"/>
+      <c r="AA59"/>
+      <c r="AB59"/>
+      <c r="AC59"/>
+      <c r="AD59"/>
+      <c r="AE59"/>
+      <c r="AF59"/>
+      <c r="AG59"/>
+      <c r="AH59"/>
+      <c r="AI59"/>
+      <c r="AJ59"/>
+      <c r="AK59"/>
+      <c r="AL59"/>
+      <c r="AM59"/>
+      <c r="AN59"/>
+      <c r="AO59"/>
+      <c r="AP59"/>
+      <c r="AQ59"/>
+      <c r="AR59"/>
+      <c r="AS59"/>
+      <c r="AT59"/>
+      <c r="AU59"/>
+      <c r="AV59"/>
+      <c r="AW59"/>
+      <c r="AX59"/>
+      <c r="AY59"/>
+      <c r="AZ59"/>
+      <c r="BA59"/>
+    </row>
+    <row r="60" spans="21:53" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U60"/>
+      <c r="V60"/>
+      <c r="W60"/>
+      <c r="X60"/>
+      <c r="Y60"/>
+      <c r="Z60"/>
+      <c r="AA60"/>
+      <c r="AB60"/>
+      <c r="AC60"/>
+      <c r="AD60"/>
+      <c r="AE60"/>
+      <c r="AF60"/>
+      <c r="AG60"/>
+      <c r="AH60"/>
+      <c r="AI60"/>
+      <c r="AJ60"/>
+      <c r="AK60"/>
+      <c r="AL60"/>
+      <c r="AM60"/>
+      <c r="AN60"/>
+      <c r="AO60"/>
+      <c r="AP60"/>
+      <c r="AQ60"/>
+      <c r="AR60"/>
+      <c r="AS60"/>
+      <c r="AT60"/>
+      <c r="AU60"/>
+      <c r="AV60"/>
+      <c r="AW60"/>
+      <c r="AX60"/>
+      <c r="AY60"/>
+      <c r="AZ60"/>
+      <c r="BA60"/>
+    </row>
+    <row r="61" spans="21:53" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U61"/>
+      <c r="V61"/>
+      <c r="W61"/>
+      <c r="X61"/>
+      <c r="Y61"/>
+      <c r="Z61"/>
+      <c r="AA61"/>
+      <c r="AB61"/>
+      <c r="AC61"/>
+      <c r="AD61"/>
+      <c r="AE61"/>
+      <c r="AF61"/>
+      <c r="AG61"/>
+      <c r="AH61"/>
+      <c r="AI61"/>
+      <c r="AJ61"/>
+      <c r="AK61"/>
+      <c r="AL61"/>
+      <c r="AM61"/>
+      <c r="AN61"/>
+      <c r="AO61"/>
+      <c r="AP61"/>
+      <c r="AQ61"/>
+      <c r="AR61"/>
+      <c r="AS61"/>
+      <c r="AT61"/>
+      <c r="AU61"/>
+      <c r="AV61"/>
+      <c r="AW61"/>
+      <c r="AX61"/>
+      <c r="AY61"/>
+      <c r="AZ61"/>
+      <c r="BA61"/>
+    </row>
+    <row r="62" spans="21:53" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U62"/>
+      <c r="V62"/>
+      <c r="W62"/>
+      <c r="X62"/>
+      <c r="Y62"/>
+      <c r="Z62"/>
+      <c r="AA62"/>
+      <c r="AB62"/>
+      <c r="AC62"/>
+      <c r="AD62"/>
+      <c r="AE62"/>
+      <c r="AF62"/>
+      <c r="AG62"/>
+      <c r="AH62"/>
+      <c r="AI62"/>
+      <c r="AJ62"/>
+      <c r="AK62"/>
+      <c r="AL62"/>
+      <c r="AM62"/>
+      <c r="AN62"/>
+      <c r="AO62"/>
+      <c r="AP62"/>
+      <c r="AQ62"/>
+      <c r="AR62"/>
+      <c r="AS62"/>
+      <c r="AT62"/>
+      <c r="AU62"/>
+      <c r="AV62"/>
+      <c r="AW62"/>
+      <c r="AX62"/>
+      <c r="AY62"/>
+      <c r="AZ62"/>
+      <c r="BA62"/>
+    </row>
+    <row r="63" spans="21:53" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U63"/>
+      <c r="V63"/>
+      <c r="W63"/>
+      <c r="X63"/>
+      <c r="Y63"/>
+      <c r="Z63"/>
+      <c r="AA63"/>
+      <c r="AB63"/>
+      <c r="AC63"/>
+      <c r="AD63"/>
+      <c r="AE63"/>
+      <c r="AF63"/>
+      <c r="AG63"/>
+      <c r="AH63"/>
+      <c r="AI63"/>
+      <c r="AJ63"/>
+      <c r="AK63"/>
+      <c r="AL63"/>
+      <c r="AM63"/>
+      <c r="AN63"/>
+      <c r="AO63"/>
+      <c r="AP63"/>
+      <c r="AQ63"/>
+      <c r="AR63"/>
+      <c r="AS63"/>
+      <c r="AT63"/>
+      <c r="AU63"/>
+      <c r="AV63"/>
+      <c r="AW63"/>
+      <c r="AX63"/>
+      <c r="AY63"/>
+      <c r="AZ63"/>
+      <c r="BA63"/>
+    </row>
+    <row r="64" spans="21:53" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U64"/>
+      <c r="V64"/>
+      <c r="W64"/>
+      <c r="X64"/>
+      <c r="Y64"/>
+      <c r="Z64"/>
+      <c r="AA64"/>
+      <c r="AB64"/>
+      <c r="AC64"/>
+      <c r="AD64"/>
+      <c r="AE64"/>
+      <c r="AF64"/>
+      <c r="AG64"/>
+      <c r="AH64"/>
+      <c r="AI64"/>
+      <c r="AJ64"/>
+      <c r="AK64"/>
+      <c r="AL64"/>
+      <c r="AM64"/>
+      <c r="AN64"/>
+      <c r="AO64"/>
+      <c r="AP64"/>
+      <c r="AQ64"/>
+      <c r="AR64"/>
+      <c r="AS64"/>
+      <c r="AT64"/>
+      <c r="AU64"/>
+      <c r="AV64"/>
+      <c r="AW64"/>
+      <c r="AX64"/>
+      <c r="AY64"/>
+      <c r="AZ64"/>
+      <c r="BA64"/>
+    </row>
+    <row r="65" spans="21:53" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U65"/>
+      <c r="V65"/>
+      <c r="W65"/>
+      <c r="X65"/>
+      <c r="Y65"/>
+      <c r="Z65"/>
+      <c r="AA65"/>
+      <c r="AB65"/>
+      <c r="AC65"/>
+      <c r="AD65"/>
+      <c r="AE65"/>
+      <c r="AF65"/>
+      <c r="AG65"/>
+      <c r="AH65"/>
+      <c r="AI65"/>
+      <c r="AJ65"/>
+      <c r="AK65"/>
+      <c r="AL65"/>
+      <c r="AM65"/>
+      <c r="AN65"/>
+      <c r="AO65"/>
+      <c r="AP65"/>
+      <c r="AQ65"/>
+      <c r="AR65"/>
+      <c r="AS65"/>
+      <c r="AT65"/>
+      <c r="AU65"/>
+      <c r="AV65"/>
+      <c r="AW65"/>
+      <c r="AX65"/>
+      <c r="AY65"/>
+      <c r="AZ65"/>
+      <c r="BA65"/>
+    </row>
+    <row r="66" spans="21:53" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U66"/>
+      <c r="V66"/>
+      <c r="W66"/>
+      <c r="X66"/>
+      <c r="Y66"/>
+      <c r="Z66"/>
+      <c r="AA66"/>
+      <c r="AB66"/>
+      <c r="AC66"/>
+      <c r="AD66"/>
+      <c r="AE66"/>
+      <c r="AF66"/>
+      <c r="AG66"/>
+      <c r="AH66"/>
+      <c r="AI66"/>
+      <c r="AJ66"/>
+      <c r="AK66"/>
+      <c r="AL66"/>
+      <c r="AM66"/>
+      <c r="AN66"/>
+      <c r="AO66"/>
+      <c r="AP66"/>
+      <c r="AQ66"/>
+      <c r="AR66"/>
+      <c r="AS66"/>
+      <c r="AT66"/>
+      <c r="AU66"/>
+      <c r="AV66"/>
+      <c r="AW66"/>
+      <c r="AX66"/>
+      <c r="AY66"/>
+      <c r="AZ66"/>
+      <c r="BA66"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="H1:L1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/Things betwixt/Financial_Template.xlsx
+++ b/Things betwixt/Financial_Template.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6915" tabRatio="834" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6915" tabRatio="834" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Personnel" sheetId="8" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="Feasibility" sheetId="11" r:id="rId7"/>
     <sheet name="Cost Benefit" sheetId="12" r:id="rId8"/>
     <sheet name="Things Betwixt" sheetId="13" r:id="rId9"/>
+    <sheet name="Ravenue Growth Snippet" sheetId="14" r:id="rId10"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -90,7 +91,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="73">
   <si>
     <t>Number of Employees per Position</t>
   </si>
@@ -310,143 +311,32 @@
     <t>GOODS</t>
   </si>
   <si>
-    <t>Insurance</t>
-  </si>
-  <si>
-    <t>Utilities</t>
-  </si>
-  <si>
-    <t>Operating Expenses</t>
-  </si>
-  <si>
-    <t>Maintenance Expenses</t>
-  </si>
-  <si>
-    <t>EBITDA</t>
-  </si>
-  <si>
-    <t>Depreciation</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Rent</t>
-  </si>
-  <si>
-    <t>Pro Forma Profit and Loss</t>
-  </si>
-  <si>
-    <t>Total Cost of Sales</t>
-  </si>
-  <si>
-    <t>Gross Margin %</t>
-  </si>
-  <si>
-    <t>Payroll</t>
-  </si>
-  <si>
-    <t>Profit Before Interest and Taxes</t>
-  </si>
-  <si>
-    <t>Net Profit/Sales</t>
-  </si>
-  <si>
-    <t>Direct Unit Costs</t>
-  </si>
-  <si>
-    <t>Unit Prices</t>
-  </si>
-  <si>
-    <t>name 5</t>
-  </si>
-  <si>
-    <t>name 3</t>
-  </si>
-  <si>
-    <t>name 1</t>
-  </si>
-  <si>
-    <t>name 6</t>
-  </si>
-  <si>
-    <t>name 4</t>
-  </si>
-  <si>
-    <t>name 2</t>
-  </si>
-  <si>
-    <t>Sales Forecast</t>
-  </si>
-  <si>
-    <t>Unit Sales</t>
-  </si>
-  <si>
-    <t>Total Unit Sales</t>
-  </si>
-  <si>
-    <t>Total Sales</t>
-  </si>
-  <si>
-    <t>Subtotal Direct Cost of Sales</t>
-  </si>
-  <si>
     <t>Ratio for each year</t>
   </si>
   <si>
-    <t xml:space="preserve">  Taxes Incurred</t>
+    <t>Growth %</t>
   </si>
   <si>
-    <t>Other Costs of Sales</t>
+    <t>Ravenue $ million</t>
   </si>
   <si>
-    <t>Net Worth</t>
+    <t>Year</t>
   </si>
   <si>
-    <t>Total Assets</t>
+    <t>Growth First Year</t>
   </si>
   <si>
-    <t>Total Long-term Assets</t>
+    <t>Ravenue First Year</t>
   </si>
   <si>
-    <t>Accumulated Depreciation</t>
-  </si>
-  <si>
-    <t>Long-term Assets</t>
-  </si>
-  <si>
-    <t>Total Capital</t>
-  </si>
-  <si>
-    <t>Total Current Assets</t>
-  </si>
-  <si>
-    <t>Assets</t>
-  </si>
-  <si>
-    <t>Cash</t>
-  </si>
-  <si>
-    <t>Pro Forma Balance Sheet</t>
-  </si>
-  <si>
-    <t>Current Assets</t>
-  </si>
-  <si>
-    <t>Paid-in Capital</t>
-  </si>
-  <si>
-    <t>Retained Earnings</t>
-  </si>
-  <si>
-    <t>Earnings</t>
+    <t>Revenue Outlook</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="15">
+  <numFmts count="17">
     <numFmt numFmtId="5" formatCode="&quot;$&quot;#,##0_);\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="7" formatCode="&quot;$&quot;#,##0.00_);\(&quot;$&quot;#,##0.00\)"/>
@@ -458,12 +348,14 @@
     <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0_)"/>
     <numFmt numFmtId="169" formatCode="0_)"/>
     <numFmt numFmtId="170" formatCode="&quot;$&quot;#,##0.0_);[Red]\(&quot;$&quot;#,##0.0\)"/>
-    <numFmt numFmtId="171" formatCode="0.0000%_)"/>
-    <numFmt numFmtId="172" formatCode="0.00%_)"/>
-    <numFmt numFmtId="173" formatCode="#,##0_);\-#,##0_)"/>
-    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="171" formatCode="0.00%_)"/>
+    <numFmt numFmtId="172" formatCode="0.000%_)"/>
+    <numFmt numFmtId="173" formatCode="0.0"/>
+    <numFmt numFmtId="174" formatCode="#,##0.0"/>
+    <numFmt numFmtId="175" formatCode="0.0%_)"/>
+    <numFmt numFmtId="176" formatCode="#,##0.0_)"/>
   </numFmts>
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -622,8 +514,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Liberation Sans"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Liberation Sans"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="5"/>
+      <name val="Liberation Sans"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="16">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -703,24 +615,10 @@
       </patternFill>
     </fill>
     <fill>
-      <gradientFill type="path">
-        <stop position="0">
-          <color theme="0"/>
-        </stop>
-        <stop position="1">
-          <color theme="5"/>
-        </stop>
-      </gradientFill>
-    </fill>
-    <fill>
-      <gradientFill type="path" left="1" right="1">
-        <stop position="0">
-          <color theme="0"/>
-        </stop>
-        <stop position="1">
-          <color theme="5"/>
-        </stop>
-      </gradientFill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="16">
@@ -837,72 +735,72 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
+      <top/>
+      <bottom style="hair">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="double">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
+      <top/>
+      <bottom style="thin">
+        <color theme="5"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="dotted">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="thin">
+        <color theme="5"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="dotted">
-        <color auto="1"/>
-      </left>
-      <right style="dotted">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFF0000"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="dotted">
-        <color auto="1"/>
-      </left>
+      <left/>
       <right/>
-      <top/>
-      <bottom/>
+      <top style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="hair">
-        <color auto="1"/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="195">
+  <cellXfs count="145">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyProtection="1"/>
     <xf numFmtId="3" fontId="5" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1174,9 +1072,6 @@
     <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="40" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1201,10 +1096,7 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="3" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1216,126 +1108,6 @@
     <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="4" fillId="6" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="4" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="4" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="4" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="4" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="5" fontId="4" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="10" fillId="6" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="4" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="5" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="4" fillId="6" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="6" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="173" fontId="4" fillId="0" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="4" fillId="0" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="4" fillId="0" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="4" fillId="0" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="4" fillId="0" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="4" fillId="0" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="4" fillId="0" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="4" fillId="0" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="5" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="6" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="6" borderId="10" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="6" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="38" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
@@ -1351,6 +1123,33 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="170" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="3" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="11" fillId="5" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1372,124 +1171,54 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="4" fillId="0" borderId="4" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="4" fillId="0" borderId="4" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="4" fillId="0" borderId="4" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="4" fillId="6" borderId="4" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="5" borderId="4" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="10" fillId="6" borderId="3" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="10" fillId="6" borderId="10" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="10" fillId="6" borderId="5" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="3" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="10" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="5" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="7" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="7" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="173" fontId="22" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="174" fontId="22" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="173" fontId="22" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="174" fontId="22" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="175" fontId="3" fillId="14" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="14" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="174" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="5">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
-    <cellStyle name="Normal_Balance Sheet" xfId="6"/>
     <cellStyle name="Normal_BEA" xfId="4"/>
     <cellStyle name="Normal_Break-even" xfId="3"/>
     <cellStyle name="Normal_Profit and Loss" xfId="2"/>
-    <cellStyle name="Normal_Sales Forecast" xfId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1547,7 +1276,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1645,19 +1373,19 @@
                 <c:formatCode>"$"#,##0_);\("$"#,##0\)</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>16500</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>17325</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>18191.25</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>19100.810000000001</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>20055.849999999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1722,19 +1450,19 @@
                 <c:formatCode>"$"#,##0_);\("$"#,##0\)</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>6121.8</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8904</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15077.25</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>22855.31</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>32748.45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1799,19 +1527,19 @@
                 <c:formatCode>"$"#,##0_);\("$"#,##0\)</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>22621.8</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>26229</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>33268.5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>41956.12</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>52804.3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2054,7 +1782,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2152,19 +1879,19 @@
                 <c:formatCode>"$"#,##0_);\("$"#,##0\)</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>14284.2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20776</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>35180.25</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>53329.06</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>76413.05</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2229,19 +1956,19 @@
                 <c:formatCode>"$"#,##0_);\("$"#,##0\)</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>208406</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>225730</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>254760</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>289562</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>331858</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2306,19 +2033,19 @@
                 <c:formatCode>"$"#,##0_);\("$"#,##0\)</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>479359</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>519416</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>586386</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>666628</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>764098</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2565,7 +2292,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2653,31 +2379,31 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>435</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>870</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1,306</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1,741</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2,176</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2,611</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3,046</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3,481</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3,917</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2696,31 +2422,31 @@
                 <c:formatCode>"$"#,##0.00_);[Red]\("$"#,##0.00\)</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>15667</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15667</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15667</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15667</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>15667</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>15667</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>15667</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>15667</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>15667</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2774,31 +2500,31 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>435</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>870</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1,306</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1,741</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2,176</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2,611</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3,046</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3,481</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3,917</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2817,31 +2543,31 @@
                 <c:formatCode>"$"#,##0.00_);[Red]\("$"#,##0.00\)</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>5998.65</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11997.3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>18009.739999999998</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>24008.39</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>30007.039999999997</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>36005.689999999995</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>42004.34</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>48002.99</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>54015.43</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2895,31 +2621,31 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>435</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>870</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1,306</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1,741</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2,176</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2,611</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3,046</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3,481</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3,917</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2938,31 +2664,31 @@
                 <c:formatCode>"$"#,##0.00_);[Red]\("$"#,##0.00\)</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>19055.650000000001</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>22444.3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>25840.739999999998</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>29229.39</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>32618.04</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>36006.69</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>39395.339999999997</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>42783.990000000005</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>46180.43</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4988,6 +4714,98 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3256917" cy="937564"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3048000" y="419100"/>
+          <a:ext cx="3256917" cy="937564"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="900"/>
+            <a:t>Instructions:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="900"/>
+            <a:t>1.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="900" baseline="0"/>
+            <a:t> Enter data from first year in cells above</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="900" baseline="0"/>
+            <a:t>2. Add or delete rows as needed</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="900" baseline="0"/>
+            <a:t>3. On adding new rown extend formula from row above manually</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="900" baseline="0"/>
+            <a:t>4. Fill up "Year" column</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="900" baseline="0"/>
+            <a:t>5. Fill up "Growth %" column as you wish</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="900"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -5510,7 +5328,7 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="150" zoomScaleNormal="150" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12"/>
   <cols>
     <col min="1" max="1" width="44.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="6" width="8.5703125" style="1" customWidth="1"/>
@@ -5519,7 +5337,7 @@
     <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -5539,7 +5357,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10">
       <c r="A2" s="85"/>
       <c r="B2" s="86"/>
       <c r="C2" s="86">
@@ -5559,7 +5377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10">
       <c r="A3" s="85"/>
       <c r="B3" s="86"/>
       <c r="C3" s="86">
@@ -5579,7 +5397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10">
       <c r="A4" s="85"/>
       <c r="B4" s="86"/>
       <c r="C4" s="86">
@@ -5599,7 +5417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10">
       <c r="A5" s="85"/>
       <c r="B5" s="86"/>
       <c r="C5" s="86">
@@ -5619,7 +5437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10">
       <c r="A6" s="85"/>
       <c r="B6" s="86"/>
       <c r="C6" s="86">
@@ -5639,7 +5457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10">
       <c r="A7" s="85"/>
       <c r="B7" s="86"/>
       <c r="C7" s="86">
@@ -5659,7 +5477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10">
       <c r="A8" s="87" t="s">
         <v>6</v>
       </c>
@@ -5685,7 +5503,7 @@
       </c>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -5694,7 +5512,7 @@
       <c r="F9" s="4"/>
       <c r="G9" s="3"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10">
       <c r="A10" s="5" t="s">
         <v>7</v>
       </c>
@@ -5719,7 +5537,7 @@
       <c r="H10" s="80"/>
       <c r="J10" s="6"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10">
       <c r="A11" s="7">
         <f t="shared" ref="A11:A16" si="2">A2</f>
         <v>0</v>
@@ -5749,7 +5567,7 @@
       </c>
       <c r="H11" s="81"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10">
       <c r="A12" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -5779,7 +5597,7 @@
       </c>
       <c r="H12" s="81"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10">
       <c r="A13" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -5809,7 +5627,7 @@
       </c>
       <c r="H13" s="81"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10">
       <c r="A14" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -5839,7 +5657,7 @@
       </c>
       <c r="H14" s="81"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10">
       <c r="A15" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -5869,7 +5687,7 @@
       </c>
       <c r="H15" s="81"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10">
       <c r="A16" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -5899,7 +5717,7 @@
       </c>
       <c r="H16" s="81"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -5907,7 +5725,7 @@
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13">
       <c r="A18" s="5" t="s">
         <v>9</v>
       </c>
@@ -5930,7 +5748,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13">
       <c r="A19" s="7">
         <f t="shared" ref="A19:A25" si="5">A2</f>
         <v>0</v>
@@ -5963,7 +5781,7 @@
       <c r="L19" s="9"/>
       <c r="M19" s="9"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13">
       <c r="A20" s="7">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -5996,7 +5814,7 @@
       <c r="L20" s="9"/>
       <c r="M20" s="9"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13">
       <c r="A21" s="7">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -6029,7 +5847,7 @@
       <c r="L21" s="9"/>
       <c r="M21" s="9"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13">
       <c r="A22" s="7">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -6062,7 +5880,7 @@
       <c r="L22" s="9"/>
       <c r="M22" s="9"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13">
       <c r="A23" s="7">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -6095,7 +5913,7 @@
       <c r="L23" s="9"/>
       <c r="M23" s="9"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13">
       <c r="A24" s="7">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -6128,7 +5946,7 @@
       <c r="L24" s="9"/>
       <c r="M24" s="9"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13">
       <c r="A25" s="83" t="str">
         <f t="shared" si="5"/>
         <v>Total Employees</v>
@@ -6154,7 +5972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13">
       <c r="A26" s="84" t="s">
         <v>10</v>
       </c>
@@ -6183,6 +6001,216 @@
   <sheetProtection formatCells="0" insertRows="0" deleteRows="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet12">
+    <tabColor theme="0" tint="-0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="A1:I12"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12"/>
+  <cols>
+    <col min="1" max="1" width="20.28515625" style="33" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" style="33" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" style="33" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="33"/>
+    <col min="5" max="5" width="21.42578125" style="33" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="33" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="33" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="33"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="15">
+      <c r="A1" s="144" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="143"/>
+      <c r="C1" s="143"/>
+      <c r="D1" s="128"/>
+      <c r="E1" s="142" t="str">
+        <f>"Year "&amp;(A3-1)&amp;" Ravenue"</f>
+        <v>Year 2010 Ravenue</v>
+      </c>
+      <c r="F1" s="142" t="s">
+        <v>71</v>
+      </c>
+      <c r="G1" s="142" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="141" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" s="140" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" s="140" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2" s="128"/>
+      <c r="E2" s="139">
+        <f>F2/(100%+G2)</f>
+        <v>0</v>
+      </c>
+      <c r="F2" s="138">
+        <v>0</v>
+      </c>
+      <c r="G2" s="137">
+        <v>0</v>
+      </c>
+      <c r="H2" s="128"/>
+      <c r="I2" s="128"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="134">
+        <v>2011</v>
+      </c>
+      <c r="B3" s="133">
+        <f>E$2*(100%+C3/100)</f>
+        <v>0</v>
+      </c>
+      <c r="C3" s="132"/>
+      <c r="D3" s="128"/>
+      <c r="E3" s="128"/>
+      <c r="F3" s="136"/>
+      <c r="G3" s="135"/>
+      <c r="H3" s="128"/>
+      <c r="I3" s="128"/>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="134">
+        <v>2012</v>
+      </c>
+      <c r="B4" s="133">
+        <f>B3*(100%+C4/100)</f>
+        <v>0</v>
+      </c>
+      <c r="C4" s="132"/>
+      <c r="D4" s="128"/>
+      <c r="E4" s="128"/>
+      <c r="F4" s="128"/>
+      <c r="G4" s="128"/>
+      <c r="H4" s="128"/>
+      <c r="I4" s="128"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="134">
+        <v>2013</v>
+      </c>
+      <c r="B5" s="133">
+        <f>B4*(100%+C5/100)</f>
+        <v>0</v>
+      </c>
+      <c r="C5" s="132"/>
+      <c r="D5" s="128"/>
+      <c r="E5" s="128"/>
+      <c r="F5" s="128"/>
+      <c r="G5" s="128"/>
+      <c r="H5" s="128"/>
+      <c r="I5" s="128"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="134">
+        <v>2014</v>
+      </c>
+      <c r="B6" s="133">
+        <f>B5*(100%+C6/100)</f>
+        <v>0</v>
+      </c>
+      <c r="C6" s="132"/>
+      <c r="D6" s="128"/>
+      <c r="E6" s="128"/>
+      <c r="F6" s="128"/>
+      <c r="G6" s="128"/>
+      <c r="H6" s="128"/>
+      <c r="I6" s="128"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="134">
+        <v>2015</v>
+      </c>
+      <c r="B7" s="133">
+        <f>B6*(100%+C7/100)</f>
+        <v>0</v>
+      </c>
+      <c r="C7" s="132"/>
+      <c r="D7" s="128"/>
+      <c r="E7" s="128"/>
+      <c r="F7" s="128"/>
+      <c r="G7" s="128"/>
+      <c r="H7" s="128"/>
+      <c r="I7" s="128"/>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="131">
+        <v>2016</v>
+      </c>
+      <c r="B8" s="130">
+        <f>B7*(100%+C8/100)</f>
+        <v>0</v>
+      </c>
+      <c r="C8" s="129"/>
+      <c r="D8" s="128"/>
+      <c r="E8" s="128"/>
+      <c r="F8" s="128"/>
+      <c r="G8" s="128"/>
+      <c r="H8" s="128"/>
+      <c r="I8" s="128"/>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="128"/>
+      <c r="B9" s="128"/>
+      <c r="C9" s="128"/>
+      <c r="D9" s="128"/>
+      <c r="E9" s="128"/>
+      <c r="F9" s="128"/>
+      <c r="G9" s="128"/>
+      <c r="H9" s="128"/>
+      <c r="I9" s="128"/>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="128"/>
+      <c r="B10" s="128"/>
+      <c r="C10" s="128"/>
+      <c r="D10" s="128"/>
+      <c r="E10" s="128"/>
+      <c r="F10" s="128"/>
+      <c r="G10" s="128"/>
+      <c r="H10" s="128"/>
+      <c r="I10" s="128"/>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="128"/>
+      <c r="B11" s="128"/>
+      <c r="C11" s="128"/>
+      <c r="D11" s="128"/>
+      <c r="E11" s="128"/>
+      <c r="F11" s="128"/>
+      <c r="G11" s="128"/>
+      <c r="H11" s="128"/>
+      <c r="I11" s="128"/>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="128"/>
+      <c r="B12" s="128"/>
+      <c r="C12" s="128"/>
+      <c r="D12" s="128"/>
+      <c r="E12" s="128"/>
+      <c r="F12" s="128"/>
+      <c r="G12" s="128"/>
+      <c r="H12" s="128"/>
+      <c r="I12" s="128"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -6191,768 +6219,16 @@
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF3399"/>
   </sheetPr>
-  <dimension ref="A1:F39"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="12" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" style="106" bestFit="1" customWidth="1"/>
-    <col min="2" max="6" width="6.28515625" style="106" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.28515625" style="106"/>
+    <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="142" t="s">
-        <v>88</v>
-      </c>
-      <c r="B1" s="143" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="143" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="143" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="143" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="143" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="127" t="s">
-        <v>89</v>
-      </c>
-      <c r="B2" s="144"/>
-      <c r="C2" s="145"/>
-      <c r="D2" s="145"/>
-      <c r="E2" s="145"/>
-      <c r="F2" s="146"/>
-    </row>
-    <row r="3" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="129" t="s">
-        <v>84</v>
-      </c>
-      <c r="B3" s="130">
-        <v>1</v>
-      </c>
-      <c r="C3" s="131">
-        <v>0</v>
-      </c>
-      <c r="D3" s="131">
-        <v>0</v>
-      </c>
-      <c r="E3" s="131">
-        <v>0</v>
-      </c>
-      <c r="F3" s="131">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="132" t="s">
-        <v>87</v>
-      </c>
-      <c r="B4" s="130">
-        <v>1</v>
-      </c>
-      <c r="C4" s="131">
-        <v>0</v>
-      </c>
-      <c r="D4" s="131">
-        <v>0</v>
-      </c>
-      <c r="E4" s="131">
-        <v>0</v>
-      </c>
-      <c r="F4" s="131">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="132" t="s">
-        <v>83</v>
-      </c>
-      <c r="B5" s="130">
-        <v>1</v>
-      </c>
-      <c r="C5" s="131">
-        <v>0</v>
-      </c>
-      <c r="D5" s="131">
-        <v>0</v>
-      </c>
-      <c r="E5" s="131">
-        <v>0</v>
-      </c>
-      <c r="F5" s="131">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="132" t="s">
-        <v>86</v>
-      </c>
-      <c r="B6" s="130">
-        <v>1</v>
-      </c>
-      <c r="C6" s="131">
-        <v>0</v>
-      </c>
-      <c r="D6" s="131">
-        <v>0</v>
-      </c>
-      <c r="E6" s="131">
-        <v>0</v>
-      </c>
-      <c r="F6" s="131">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="132" t="s">
-        <v>82</v>
-      </c>
-      <c r="B7" s="130">
-        <v>1</v>
-      </c>
-      <c r="C7" s="131">
-        <v>0</v>
-      </c>
-      <c r="D7" s="131">
-        <v>0</v>
-      </c>
-      <c r="E7" s="131">
-        <v>0</v>
-      </c>
-      <c r="F7" s="131">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="129" t="s">
-        <v>85</v>
-      </c>
-      <c r="B8" s="130">
-        <v>1</v>
-      </c>
-      <c r="C8" s="131">
-        <v>0</v>
-      </c>
-      <c r="D8" s="131">
-        <v>0</v>
-      </c>
-      <c r="E8" s="131">
-        <v>0</v>
-      </c>
-      <c r="F8" s="131">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="133" t="s">
-        <v>90</v>
-      </c>
-      <c r="B9" s="134">
-        <v>6</v>
-      </c>
-      <c r="C9" s="134">
-        <v>0</v>
-      </c>
-      <c r="D9" s="134">
-        <v>0</v>
-      </c>
-      <c r="E9" s="134">
-        <v>0</v>
-      </c>
-      <c r="F9" s="134">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="127" t="s">
-        <v>81</v>
-      </c>
-      <c r="B10" s="128" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" s="128" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" s="128" t="s">
-        <v>3</v>
-      </c>
-      <c r="E10" s="128" t="s">
-        <v>4</v>
-      </c>
-      <c r="F10" s="128" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="135" t="s">
-        <v>84</v>
-      </c>
-      <c r="B11" s="136">
-        <v>12</v>
-      </c>
-      <c r="C11" s="137">
-        <v>12</v>
-      </c>
-      <c r="D11" s="137">
-        <v>12</v>
-      </c>
-      <c r="E11" s="137">
-        <v>12</v>
-      </c>
-      <c r="F11" s="137">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="135" t="s">
-        <v>87</v>
-      </c>
-      <c r="B12" s="136">
-        <v>13</v>
-      </c>
-      <c r="C12" s="137">
-        <v>13</v>
-      </c>
-      <c r="D12" s="137">
-        <v>13</v>
-      </c>
-      <c r="E12" s="137">
-        <v>13</v>
-      </c>
-      <c r="F12" s="137">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="135" t="s">
-        <v>83</v>
-      </c>
-      <c r="B13" s="136">
-        <v>14</v>
-      </c>
-      <c r="C13" s="137">
-        <v>14</v>
-      </c>
-      <c r="D13" s="137">
-        <v>14</v>
-      </c>
-      <c r="E13" s="137">
-        <v>14</v>
-      </c>
-      <c r="F13" s="137">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="135" t="s">
-        <v>86</v>
-      </c>
-      <c r="B14" s="136">
-        <v>15</v>
-      </c>
-      <c r="C14" s="137">
-        <v>15</v>
-      </c>
-      <c r="D14" s="137">
-        <v>15</v>
-      </c>
-      <c r="E14" s="137">
-        <v>15</v>
-      </c>
-      <c r="F14" s="137">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="135" t="s">
-        <v>82</v>
-      </c>
-      <c r="B15" s="136">
-        <v>16</v>
-      </c>
-      <c r="C15" s="137">
-        <v>16</v>
-      </c>
-      <c r="D15" s="137">
-        <v>16</v>
-      </c>
-      <c r="E15" s="137">
-        <v>16</v>
-      </c>
-      <c r="F15" s="137">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="138" t="s">
-        <v>85</v>
-      </c>
-      <c r="B16" s="136">
-        <v>17</v>
-      </c>
-      <c r="C16" s="137">
-        <v>17</v>
-      </c>
-      <c r="D16" s="137">
-        <v>17</v>
-      </c>
-      <c r="E16" s="137">
-        <v>17</v>
-      </c>
-      <c r="F16" s="137">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="127" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17" s="144"/>
-      <c r="C17" s="145"/>
-      <c r="D17" s="145"/>
-      <c r="E17" s="145"/>
-      <c r="F17" s="146"/>
-    </row>
-    <row r="18" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="135" t="s">
-        <v>84</v>
-      </c>
-      <c r="B18" s="139">
-        <v>12</v>
-      </c>
-      <c r="C18" s="139">
-        <v>0</v>
-      </c>
-      <c r="D18" s="139">
-        <v>0</v>
-      </c>
-      <c r="E18" s="139">
-        <v>0</v>
-      </c>
-      <c r="F18" s="139">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="135" t="s">
-        <v>87</v>
-      </c>
-      <c r="B19" s="139">
-        <v>13</v>
-      </c>
-      <c r="C19" s="139">
-        <v>0</v>
-      </c>
-      <c r="D19" s="139">
-        <v>0</v>
-      </c>
-      <c r="E19" s="139">
-        <v>0</v>
-      </c>
-      <c r="F19" s="139">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="135" t="s">
-        <v>83</v>
-      </c>
-      <c r="B20" s="139">
-        <v>14</v>
-      </c>
-      <c r="C20" s="139">
-        <v>0</v>
-      </c>
-      <c r="D20" s="139">
-        <v>0</v>
-      </c>
-      <c r="E20" s="139">
-        <v>0</v>
-      </c>
-      <c r="F20" s="139">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="135" t="s">
-        <v>86</v>
-      </c>
-      <c r="B21" s="139">
-        <v>15</v>
-      </c>
-      <c r="C21" s="139">
-        <v>0</v>
-      </c>
-      <c r="D21" s="139">
-        <v>0</v>
-      </c>
-      <c r="E21" s="139">
-        <v>0</v>
-      </c>
-      <c r="F21" s="139">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="135" t="s">
-        <v>82</v>
-      </c>
-      <c r="B22" s="139">
-        <v>16</v>
-      </c>
-      <c r="C22" s="139">
-        <v>0</v>
-      </c>
-      <c r="D22" s="139">
-        <v>0</v>
-      </c>
-      <c r="E22" s="139">
-        <v>0</v>
-      </c>
-      <c r="F22" s="139">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="138" t="s">
-        <v>85</v>
-      </c>
-      <c r="B23" s="139">
-        <v>17</v>
-      </c>
-      <c r="C23" s="139">
-        <v>0</v>
-      </c>
-      <c r="D23" s="139">
-        <v>0</v>
-      </c>
-      <c r="E23" s="139">
-        <v>0</v>
-      </c>
-      <c r="F23" s="139">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="133" t="s">
-        <v>91</v>
-      </c>
-      <c r="B24" s="140">
-        <v>87</v>
-      </c>
-      <c r="C24" s="140">
-        <v>0</v>
-      </c>
-      <c r="D24" s="140">
-        <v>0</v>
-      </c>
-      <c r="E24" s="140">
-        <v>0</v>
-      </c>
-      <c r="F24" s="140">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="127" t="s">
-        <v>80</v>
-      </c>
-      <c r="B25" s="128" t="s">
-        <v>1</v>
-      </c>
-      <c r="C25" s="128" t="s">
-        <v>2</v>
-      </c>
-      <c r="D25" s="128" t="s">
-        <v>3</v>
-      </c>
-      <c r="E25" s="128" t="s">
-        <v>4</v>
-      </c>
-      <c r="F25" s="128" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="135" t="s">
-        <v>84</v>
-      </c>
-      <c r="B26" s="141">
-        <v>6</v>
-      </c>
-      <c r="C26" s="137">
-        <v>6</v>
-      </c>
-      <c r="D26" s="137">
-        <v>6</v>
-      </c>
-      <c r="E26" s="137">
-        <v>6</v>
-      </c>
-      <c r="F26" s="137">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="135" t="s">
-        <v>87</v>
-      </c>
-      <c r="B27" s="141">
-        <v>7</v>
-      </c>
-      <c r="C27" s="137">
-        <v>7</v>
-      </c>
-      <c r="D27" s="137">
-        <v>7</v>
-      </c>
-      <c r="E27" s="137">
-        <v>7</v>
-      </c>
-      <c r="F27" s="137">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="135" t="s">
-        <v>83</v>
-      </c>
-      <c r="B28" s="141">
-        <v>8</v>
-      </c>
-      <c r="C28" s="137">
-        <v>8</v>
-      </c>
-      <c r="D28" s="137">
-        <v>8</v>
-      </c>
-      <c r="E28" s="137">
-        <v>8</v>
-      </c>
-      <c r="F28" s="137">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="135" t="s">
-        <v>86</v>
-      </c>
-      <c r="B29" s="141">
-        <v>9</v>
-      </c>
-      <c r="C29" s="137">
-        <v>9</v>
-      </c>
-      <c r="D29" s="137">
-        <v>9</v>
-      </c>
-      <c r="E29" s="137">
-        <v>9</v>
-      </c>
-      <c r="F29" s="137">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="135" t="s">
-        <v>82</v>
-      </c>
-      <c r="B30" s="141">
-        <v>10</v>
-      </c>
-      <c r="C30" s="137">
-        <v>10</v>
-      </c>
-      <c r="D30" s="137">
-        <v>10</v>
-      </c>
-      <c r="E30" s="137">
-        <v>10</v>
-      </c>
-      <c r="F30" s="137">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="138" t="s">
-        <v>85</v>
-      </c>
-      <c r="B31" s="141">
-        <v>11</v>
-      </c>
-      <c r="C31" s="137">
-        <v>11</v>
-      </c>
-      <c r="D31" s="137">
-        <v>11</v>
-      </c>
-      <c r="E31" s="137">
-        <v>11</v>
-      </c>
-      <c r="F31" s="137">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="127" t="s">
-        <v>63</v>
-      </c>
-      <c r="B32" s="144"/>
-      <c r="C32" s="145"/>
-      <c r="D32" s="145"/>
-      <c r="E32" s="145"/>
-      <c r="F32" s="146"/>
-    </row>
-    <row r="33" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="135" t="s">
-        <v>84</v>
-      </c>
-      <c r="B33" s="139">
-        <v>6</v>
-      </c>
-      <c r="C33" s="139">
-        <v>0</v>
-      </c>
-      <c r="D33" s="139">
-        <v>0</v>
-      </c>
-      <c r="E33" s="139">
-        <v>0</v>
-      </c>
-      <c r="F33" s="139">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="135" t="s">
-        <v>87</v>
-      </c>
-      <c r="B34" s="139">
-        <v>7</v>
-      </c>
-      <c r="C34" s="139">
-        <v>0</v>
-      </c>
-      <c r="D34" s="139">
-        <v>0</v>
-      </c>
-      <c r="E34" s="139">
-        <v>0</v>
-      </c>
-      <c r="F34" s="139">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="135" t="s">
-        <v>83</v>
-      </c>
-      <c r="B35" s="139">
-        <v>8</v>
-      </c>
-      <c r="C35" s="139">
-        <v>0</v>
-      </c>
-      <c r="D35" s="139">
-        <v>0</v>
-      </c>
-      <c r="E35" s="139">
-        <v>0</v>
-      </c>
-      <c r="F35" s="139">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="135" t="s">
-        <v>86</v>
-      </c>
-      <c r="B36" s="139">
-        <v>9</v>
-      </c>
-      <c r="C36" s="139">
-        <v>0</v>
-      </c>
-      <c r="D36" s="139">
-        <v>0</v>
-      </c>
-      <c r="E36" s="139">
-        <v>0</v>
-      </c>
-      <c r="F36" s="139">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="135" t="s">
-        <v>82</v>
-      </c>
-      <c r="B37" s="139">
-        <v>10</v>
-      </c>
-      <c r="C37" s="139">
-        <v>0</v>
-      </c>
-      <c r="D37" s="139">
-        <v>0</v>
-      </c>
-      <c r="E37" s="139">
-        <v>0</v>
-      </c>
-      <c r="F37" s="139">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="138" t="s">
-        <v>85</v>
-      </c>
-      <c r="B38" s="139">
-        <v>11</v>
-      </c>
-      <c r="C38" s="139">
-        <v>0</v>
-      </c>
-      <c r="D38" s="139">
-        <v>0</v>
-      </c>
-      <c r="E38" s="139">
-        <v>0</v>
-      </c>
-      <c r="F38" s="139">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="133" t="s">
-        <v>92</v>
-      </c>
-      <c r="B39" s="140">
-        <v>51</v>
-      </c>
-      <c r="C39" s="140">
-        <v>0</v>
-      </c>
-      <c r="D39" s="140">
-        <v>0</v>
-      </c>
-      <c r="E39" s="140">
-        <v>0</v>
-      </c>
-      <c r="F39" s="140">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -6963,468 +6239,16 @@
   <sheetPr codeName="Sheet3">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="12" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="26.140625" style="106" bestFit="1" customWidth="1"/>
-    <col min="2" max="6" width="8" style="106" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.28515625" style="106"/>
+    <col min="1" max="1" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="8" bestFit="1" customWidth="1"/>
   </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="122" t="s">
-        <v>74</v>
-      </c>
-      <c r="B1" s="123" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="123" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="123" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="123" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="123" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="109" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="110">
-        <v>479359</v>
-      </c>
-      <c r="C2" s="110">
-        <v>519416</v>
-      </c>
-      <c r="D2" s="110">
-        <v>586386</v>
-      </c>
-      <c r="E2" s="110">
-        <v>666628</v>
-      </c>
-      <c r="F2" s="110">
-        <v>764098</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="111" t="s">
-        <v>63</v>
-      </c>
-      <c r="B3" s="112">
-        <v>270853</v>
-      </c>
-      <c r="C3" s="112">
-        <v>293486</v>
-      </c>
-      <c r="D3" s="112">
-        <v>331326</v>
-      </c>
-      <c r="E3" s="112">
-        <v>376666</v>
-      </c>
-      <c r="F3" s="112">
-        <v>431740</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="193" t="s">
-        <v>95</v>
-      </c>
-      <c r="B4" s="112">
-        <v>100</v>
-      </c>
-      <c r="C4" s="118">
-        <v>200</v>
-      </c>
-      <c r="D4" s="118">
-        <v>300</v>
-      </c>
-      <c r="E4" s="118">
-        <v>400</v>
-      </c>
-      <c r="F4" s="118">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="113" t="s">
-        <v>75</v>
-      </c>
-      <c r="B5" s="112">
-        <v>270953</v>
-      </c>
-      <c r="C5" s="112">
-        <v>293686</v>
-      </c>
-      <c r="D5" s="112">
-        <v>331626</v>
-      </c>
-      <c r="E5" s="112">
-        <v>377066</v>
-      </c>
-      <c r="F5" s="112">
-        <v>432240</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="111" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="114">
-        <v>208406</v>
-      </c>
-      <c r="C6" s="114">
-        <v>225730</v>
-      </c>
-      <c r="D6" s="114">
-        <v>254760</v>
-      </c>
-      <c r="E6" s="114">
-        <v>289562</v>
-      </c>
-      <c r="F6" s="114">
-        <v>331858</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="111" t="s">
-        <v>76</v>
-      </c>
-      <c r="B7" s="115">
-        <v>0.43475975208559764</v>
-      </c>
-      <c r="C7" s="115">
-        <v>0.43458422536078983</v>
-      </c>
-      <c r="D7" s="115">
-        <v>0.43445784858437958</v>
-      </c>
-      <c r="E7" s="115">
-        <v>0.43436819335521459</v>
-      </c>
-      <c r="F7" s="115">
-        <v>0.43431339959010495</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="109" t="s">
-        <v>68</v>
-      </c>
-      <c r="B8" s="124"/>
-      <c r="C8" s="125"/>
-      <c r="D8" s="125"/>
-      <c r="E8" s="125"/>
-      <c r="F8" s="126"/>
-    </row>
-    <row r="9" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="116" t="s">
-        <v>77</v>
-      </c>
-      <c r="B9" s="112">
-        <v>110000</v>
-      </c>
-      <c r="C9" s="112">
-        <v>115500</v>
-      </c>
-      <c r="D9" s="112">
-        <v>121275</v>
-      </c>
-      <c r="E9" s="112">
-        <v>127338.75</v>
-      </c>
-      <c r="F9" s="112">
-        <v>133705.6875</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="117" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="112">
-        <v>10000</v>
-      </c>
-      <c r="C10" s="118">
-        <v>10500</v>
-      </c>
-      <c r="D10" s="118">
-        <v>11025</v>
-      </c>
-      <c r="E10" s="118">
-        <v>11576.25</v>
-      </c>
-      <c r="F10" s="118">
-        <v>12155.0625</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="119" t="s">
-        <v>71</v>
-      </c>
-      <c r="B11" s="112">
-        <v>15000</v>
-      </c>
-      <c r="C11" s="118">
-        <v>15000</v>
-      </c>
-      <c r="D11" s="118">
-        <v>15000</v>
-      </c>
-      <c r="E11" s="118">
-        <v>15000</v>
-      </c>
-      <c r="F11" s="118">
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="117" t="s">
-        <v>73</v>
-      </c>
-      <c r="B12" s="112">
-        <v>12000</v>
-      </c>
-      <c r="C12" s="118">
-        <v>12000</v>
-      </c>
-      <c r="D12" s="118">
-        <v>12000</v>
-      </c>
-      <c r="E12" s="118">
-        <v>12000</v>
-      </c>
-      <c r="F12" s="118">
-        <v>12000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="117" t="s">
-        <v>69</v>
-      </c>
-      <c r="B13" s="112">
-        <v>7000</v>
-      </c>
-      <c r="C13" s="118">
-        <v>7350</v>
-      </c>
-      <c r="D13" s="118">
-        <v>7717.5</v>
-      </c>
-      <c r="E13" s="118">
-        <v>8103.375</v>
-      </c>
-      <c r="F13" s="118">
-        <v>8508.5437500000007</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="117" t="s">
-        <v>67</v>
-      </c>
-      <c r="B14" s="112">
-        <v>5000</v>
-      </c>
-      <c r="C14" s="118">
-        <v>5250</v>
-      </c>
-      <c r="D14" s="118">
-        <v>5512.5</v>
-      </c>
-      <c r="E14" s="118">
-        <v>5788.125</v>
-      </c>
-      <c r="F14" s="118">
-        <v>6077.53125</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="117" t="s">
-        <v>66</v>
-      </c>
-      <c r="B15" s="112">
-        <v>2500</v>
-      </c>
-      <c r="C15" s="118">
-        <v>2625</v>
-      </c>
-      <c r="D15" s="118">
-        <v>2756.25</v>
-      </c>
-      <c r="E15" s="118">
-        <v>2894.0625</v>
-      </c>
-      <c r="F15" s="118">
-        <v>3038.765625</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="117" t="s">
-        <v>11</v>
-      </c>
-      <c r="B16" s="112">
-        <v>16500</v>
-      </c>
-      <c r="C16" s="118">
-        <v>17325</v>
-      </c>
-      <c r="D16" s="118">
-        <v>18191.25</v>
-      </c>
-      <c r="E16" s="118">
-        <v>19100.8125</v>
-      </c>
-      <c r="F16" s="118">
-        <v>20055.853124999998</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="117" t="s">
-        <v>72</v>
-      </c>
-      <c r="B17" s="112">
-        <v>10000</v>
-      </c>
-      <c r="C17" s="118">
-        <v>10500</v>
-      </c>
-      <c r="D17" s="118">
-        <v>11025</v>
-      </c>
-      <c r="E17" s="118">
-        <v>11576.25</v>
-      </c>
-      <c r="F17" s="118">
-        <v>12155.0625</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="120" t="s">
-        <v>57</v>
-      </c>
-      <c r="B18" s="110">
-        <v>188000</v>
-      </c>
-      <c r="C18" s="110">
-        <v>196050</v>
-      </c>
-      <c r="D18" s="110">
-        <v>204502.5</v>
-      </c>
-      <c r="E18" s="110">
-        <v>213377.625</v>
-      </c>
-      <c r="F18" s="110">
-        <v>222696.50625000001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="111" t="s">
-        <v>78</v>
-      </c>
-      <c r="B19" s="112">
-        <v>20406</v>
-      </c>
-      <c r="C19" s="112">
-        <v>29680</v>
-      </c>
-      <c r="D19" s="112">
-        <v>50257.5</v>
-      </c>
-      <c r="E19" s="112">
-        <v>76184.375</v>
-      </c>
-      <c r="F19" s="112">
-        <v>109161.49374999999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="111" t="s">
-        <v>70</v>
-      </c>
-      <c r="B20" s="112">
-        <v>35406</v>
-      </c>
-      <c r="C20" s="112">
-        <v>44680</v>
-      </c>
-      <c r="D20" s="112">
-        <v>65257.5</v>
-      </c>
-      <c r="E20" s="112">
-        <v>91184.375</v>
-      </c>
-      <c r="F20" s="112">
-        <v>124161.49374999999</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="111" t="s">
-        <v>94</v>
-      </c>
-      <c r="B21" s="112">
-        <v>6121.8</v>
-      </c>
-      <c r="C21" s="112">
-        <v>8904</v>
-      </c>
-      <c r="D21" s="112">
-        <v>15077.25</v>
-      </c>
-      <c r="E21" s="112">
-        <v>22855.3125</v>
-      </c>
-      <c r="F21" s="112">
-        <v>32748.448124999995</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="109" t="s">
-        <v>15</v>
-      </c>
-      <c r="B22" s="110">
-        <v>14284.2</v>
-      </c>
-      <c r="C22" s="110">
-        <v>20776</v>
-      </c>
-      <c r="D22" s="110">
-        <v>35180.25</v>
-      </c>
-      <c r="E22" s="110">
-        <v>53329.0625</v>
-      </c>
-      <c r="F22" s="110">
-        <v>76413.045624999999</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="113" t="s">
-        <v>79</v>
-      </c>
-      <c r="B23" s="121">
-        <v>2.9798543471594361E-2</v>
-      </c>
-      <c r="C23" s="121">
-        <v>3.9998767846966592E-2</v>
-      </c>
-      <c r="D23" s="121">
-        <v>5.9995037398573633E-2</v>
-      </c>
-      <c r="E23" s="121">
-        <v>7.9998233647551556E-2</v>
-      </c>
-      <c r="F23" s="121">
-        <v>0.10000424765540546</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -7435,288 +6259,16 @@
   <sheetPr codeName="Sheet4">
     <tabColor theme="1" tint="0.34998626667073579"/>
   </sheetPr>
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="12" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="22" style="106" bestFit="1" customWidth="1"/>
-    <col min="2" max="6" width="8.5703125" style="106" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.28515625" style="106"/>
+    <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="8.5703125" bestFit="1" customWidth="1"/>
   </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="167" t="s">
-        <v>105</v>
-      </c>
-      <c r="B1" s="168" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="168" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="168" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="168" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="168" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="159" t="s">
-        <v>103</v>
-      </c>
-      <c r="B2" s="169"/>
-      <c r="C2" s="170"/>
-      <c r="D2" s="170"/>
-      <c r="E2" s="170"/>
-      <c r="F2" s="171"/>
-    </row>
-    <row r="3" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="160" t="s">
-        <v>106</v>
-      </c>
-      <c r="B3" s="172"/>
-      <c r="C3" s="173"/>
-      <c r="D3" s="173"/>
-      <c r="E3" s="173"/>
-      <c r="F3" s="174"/>
-    </row>
-    <row r="4" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="161" t="s">
-        <v>104</v>
-      </c>
-      <c r="B4" s="162">
-        <v>-173064</v>
-      </c>
-      <c r="C4" s="162">
-        <v>-354314</v>
-      </c>
-      <c r="D4" s="162">
-        <v>-544116.5</v>
-      </c>
-      <c r="E4" s="162">
-        <v>-742894.125</v>
-      </c>
-      <c r="F4" s="162">
-        <v>-951090.63124999998</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="163" t="s">
-        <v>102</v>
-      </c>
-      <c r="B5" s="162">
-        <v>-173064</v>
-      </c>
-      <c r="C5" s="162">
-        <v>-354314</v>
-      </c>
-      <c r="D5" s="162">
-        <v>-544116.5</v>
-      </c>
-      <c r="E5" s="162">
-        <v>-742894.125</v>
-      </c>
-      <c r="F5" s="162">
-        <v>-951090.63124999998</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="160" t="s">
-        <v>100</v>
-      </c>
-      <c r="B6" s="172"/>
-      <c r="C6" s="173"/>
-      <c r="D6" s="173"/>
-      <c r="E6" s="173"/>
-      <c r="F6" s="174"/>
-    </row>
-    <row r="7" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="161" t="s">
-        <v>100</v>
-      </c>
-      <c r="B7" s="162">
-        <v>150000</v>
-      </c>
-      <c r="C7" s="162">
-        <v>150000</v>
-      </c>
-      <c r="D7" s="162">
-        <v>150000</v>
-      </c>
-      <c r="E7" s="162">
-        <v>150000</v>
-      </c>
-      <c r="F7" s="162">
-        <v>150000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="161" t="s">
-        <v>99</v>
-      </c>
-      <c r="B8" s="162">
-        <v>15000</v>
-      </c>
-      <c r="C8" s="162">
-        <v>30000</v>
-      </c>
-      <c r="D8" s="162">
-        <v>45000</v>
-      </c>
-      <c r="E8" s="162">
-        <v>60000</v>
-      </c>
-      <c r="F8" s="162">
-        <v>75000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="163" t="s">
-        <v>98</v>
-      </c>
-      <c r="B9" s="162">
-        <v>135000</v>
-      </c>
-      <c r="C9" s="162">
-        <v>120000</v>
-      </c>
-      <c r="D9" s="162">
-        <v>105000</v>
-      </c>
-      <c r="E9" s="162">
-        <v>90000</v>
-      </c>
-      <c r="F9" s="162">
-        <v>75000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="160" t="s">
-        <v>97</v>
-      </c>
-      <c r="B10" s="164">
-        <v>-38064</v>
-      </c>
-      <c r="C10" s="164">
-        <v>-234314</v>
-      </c>
-      <c r="D10" s="164">
-        <v>-439116.5</v>
-      </c>
-      <c r="E10" s="164">
-        <v>-652894.125</v>
-      </c>
-      <c r="F10" s="164">
-        <v>-876090.63124999998</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="161" t="s">
-        <v>107</v>
-      </c>
-      <c r="B11" s="162">
-        <v>200000</v>
-      </c>
-      <c r="C11" s="162">
-        <v>200000</v>
-      </c>
-      <c r="D11" s="162">
-        <v>200000</v>
-      </c>
-      <c r="E11" s="162">
-        <v>200000</v>
-      </c>
-      <c r="F11" s="162">
-        <v>200000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="161" t="s">
-        <v>108</v>
-      </c>
-      <c r="B12" s="162">
-        <v>-50000</v>
-      </c>
-      <c r="C12" s="165">
-        <v>-238064</v>
-      </c>
-      <c r="D12" s="162">
-        <v>-434314</v>
-      </c>
-      <c r="E12" s="162">
-        <v>-639116.5</v>
-      </c>
-      <c r="F12" s="162">
-        <v>-852894.125</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="161" t="s">
-        <v>109</v>
-      </c>
-      <c r="B13" s="165">
-        <v>-188064</v>
-      </c>
-      <c r="C13" s="162">
-        <v>-196250</v>
-      </c>
-      <c r="D13" s="162">
-        <v>-204802.5</v>
-      </c>
-      <c r="E13" s="162">
-        <v>-213777.625</v>
-      </c>
-      <c r="F13" s="162">
-        <v>-223196.50625000001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="160" t="s">
-        <v>101</v>
-      </c>
-      <c r="B14" s="164">
-        <v>-38064</v>
-      </c>
-      <c r="C14" s="164">
-        <v>-234314</v>
-      </c>
-      <c r="D14" s="164">
-        <v>-439116.5</v>
-      </c>
-      <c r="E14" s="164">
-        <v>-652894.125</v>
-      </c>
-      <c r="F14" s="164">
-        <v>-876090.63124999998</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="159" t="s">
-        <v>96</v>
-      </c>
-      <c r="B15" s="166">
-        <v>-38064</v>
-      </c>
-      <c r="C15" s="166">
-        <v>-234314</v>
-      </c>
-      <c r="D15" s="166">
-        <v>-439116.5</v>
-      </c>
-      <c r="E15" s="166">
-        <v>-652894.125</v>
-      </c>
-      <c r="F15" s="166">
-        <v>-876090.63124999998</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -7732,7 +6284,7 @@
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12"/>
   <cols>
     <col min="1" max="1" width="44" style="1" customWidth="1"/>
     <col min="2" max="2" width="16.28515625" style="1" customWidth="1"/>
@@ -7745,11 +6297,11 @@
     <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="152" t="s">
+    <row r="1" spans="1:10">
+      <c r="A1" s="121" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="152"/>
+      <c r="B1" s="121"/>
       <c r="D1" s="11" t="s">
         <v>24</v>
       </c>
@@ -7772,12 +6324,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10">
       <c r="A2" s="14" t="s">
         <v>20</v>
       </c>
       <c r="B2" s="15">
-        <v>2611</v>
+        <v>0</v>
       </c>
       <c r="D2" s="16">
         <f>ROUND($B$2/6*0,0)</f>
@@ -7785,15 +6337,15 @@
       </c>
       <c r="E2" s="17">
         <f t="shared" ref="E2:E11" si="0">B$5</f>
-        <v>13.79</v>
+        <v>0</v>
       </c>
       <c r="F2" s="17">
         <f t="shared" ref="F2:F11" si="1">B$6</f>
-        <v>7.79</v>
+        <v>0</v>
       </c>
       <c r="G2" s="17">
         <f t="shared" ref="G2:G11" si="2">B$7</f>
-        <v>15667</v>
+        <v>0</v>
       </c>
       <c r="H2" s="18">
         <f t="shared" ref="H2:I11" si="3">$D2*E2</f>
@@ -7805,314 +6357,314 @@
       </c>
       <c r="J2" s="19">
         <f>G2+I2</f>
-        <v>15667</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="14" t="s">
         <v>17</v>
       </c>
       <c r="B3" s="20">
-        <v>36018</v>
+        <v>0</v>
       </c>
       <c r="D3" s="16">
         <f>ROUND($B$2/6*1,0)</f>
-        <v>435</v>
+        <v>0</v>
       </c>
       <c r="E3" s="17">
         <f t="shared" si="0"/>
-        <v>13.79</v>
+        <v>0</v>
       </c>
       <c r="F3" s="17">
         <f t="shared" si="1"/>
-        <v>7.79</v>
+        <v>0</v>
       </c>
       <c r="G3" s="17">
         <f t="shared" si="2"/>
-        <v>15667</v>
+        <v>0</v>
       </c>
       <c r="H3" s="18">
         <f t="shared" si="3"/>
-        <v>5998.65</v>
+        <v>0</v>
       </c>
       <c r="I3" s="18">
         <f t="shared" si="3"/>
-        <v>3388.65</v>
+        <v>0</v>
       </c>
       <c r="J3" s="19">
         <f t="shared" ref="J3:J11" si="4">G3+I3</f>
-        <v>19055.650000000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="153" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="122" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="153"/>
+      <c r="B4" s="122"/>
       <c r="D4" s="16">
         <f>ROUND($B$2/6*2,0)</f>
-        <v>870</v>
+        <v>0</v>
       </c>
       <c r="E4" s="17">
         <f t="shared" si="0"/>
-        <v>13.79</v>
+        <v>0</v>
       </c>
       <c r="F4" s="17">
         <f t="shared" si="1"/>
-        <v>7.79</v>
+        <v>0</v>
       </c>
       <c r="G4" s="17">
         <f t="shared" si="2"/>
-        <v>15667</v>
+        <v>0</v>
       </c>
       <c r="H4" s="18">
         <f t="shared" si="3"/>
-        <v>11997.3</v>
+        <v>0</v>
       </c>
       <c r="I4" s="18">
         <f t="shared" si="3"/>
-        <v>6777.3</v>
+        <v>0</v>
       </c>
       <c r="J4" s="19">
         <f t="shared" si="4"/>
-        <v>22444.3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="14" t="s">
         <v>16</v>
       </c>
       <c r="B5" s="21">
-        <v>13.79</v>
+        <v>0</v>
       </c>
       <c r="D5" s="16">
         <f>ROUND($B$2/6*3,0)</f>
-        <v>1306</v>
+        <v>0</v>
       </c>
       <c r="E5" s="17">
         <f t="shared" si="0"/>
-        <v>13.79</v>
+        <v>0</v>
       </c>
       <c r="F5" s="17">
         <f t="shared" si="1"/>
-        <v>7.79</v>
+        <v>0</v>
       </c>
       <c r="G5" s="17">
         <f t="shared" si="2"/>
-        <v>15667</v>
+        <v>0</v>
       </c>
       <c r="H5" s="18">
         <f t="shared" si="3"/>
-        <v>18009.739999999998</v>
+        <v>0</v>
       </c>
       <c r="I5" s="18">
         <f t="shared" si="3"/>
-        <v>10173.74</v>
+        <v>0</v>
       </c>
       <c r="J5" s="19">
         <f t="shared" si="4"/>
-        <v>25840.739999999998</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="14" t="s">
         <v>18</v>
       </c>
       <c r="B6" s="21">
-        <v>7.79</v>
+        <v>0</v>
       </c>
       <c r="D6" s="16">
         <f>ROUND($B$2/6*4,0)</f>
-        <v>1741</v>
+        <v>0</v>
       </c>
       <c r="E6" s="17">
         <f t="shared" si="0"/>
-        <v>13.79</v>
+        <v>0</v>
       </c>
       <c r="F6" s="17">
         <f t="shared" si="1"/>
-        <v>7.79</v>
+        <v>0</v>
       </c>
       <c r="G6" s="17">
         <f t="shared" si="2"/>
-        <v>15667</v>
+        <v>0</v>
       </c>
       <c r="H6" s="18">
         <f t="shared" si="3"/>
-        <v>24008.39</v>
+        <v>0</v>
       </c>
       <c r="I6" s="18">
         <f t="shared" si="3"/>
-        <v>13562.39</v>
+        <v>0</v>
       </c>
       <c r="J6" s="19">
         <f t="shared" si="4"/>
-        <v>29229.39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="14" t="s">
         <v>21</v>
       </c>
       <c r="B7" s="20">
-        <v>15667</v>
+        <v>0</v>
       </c>
       <c r="D7" s="16">
         <f>ROUND($B$2/6*5,0)</f>
-        <v>2176</v>
+        <v>0</v>
       </c>
       <c r="E7" s="17">
         <f t="shared" si="0"/>
-        <v>13.79</v>
+        <v>0</v>
       </c>
       <c r="F7" s="17">
         <f t="shared" si="1"/>
-        <v>7.79</v>
+        <v>0</v>
       </c>
       <c r="G7" s="17">
         <f t="shared" si="2"/>
-        <v>15667</v>
+        <v>0</v>
       </c>
       <c r="H7" s="18">
         <f t="shared" si="3"/>
-        <v>30007.039999999997</v>
+        <v>0</v>
       </c>
       <c r="I7" s="18">
         <f t="shared" si="3"/>
-        <v>16951.04</v>
+        <v>0</v>
       </c>
       <c r="J7" s="19">
         <f t="shared" si="4"/>
-        <v>32618.04</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="D8" s="22">
         <f>B2</f>
-        <v>2611</v>
+        <v>0</v>
       </c>
       <c r="E8" s="17">
         <f t="shared" si="0"/>
-        <v>13.79</v>
+        <v>0</v>
       </c>
       <c r="F8" s="17">
         <f t="shared" si="1"/>
-        <v>7.79</v>
+        <v>0</v>
       </c>
       <c r="G8" s="17">
         <f t="shared" si="2"/>
-        <v>15667</v>
+        <v>0</v>
       </c>
       <c r="H8" s="18">
         <f t="shared" si="3"/>
-        <v>36005.689999999995</v>
+        <v>0</v>
       </c>
       <c r="I8" s="18">
         <f t="shared" si="3"/>
-        <v>20339.689999999999</v>
+        <v>0</v>
       </c>
       <c r="J8" s="19">
         <f t="shared" si="4"/>
-        <v>36006.69</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="D9" s="16">
         <f>ROUND($B$2/6*7,0)</f>
-        <v>3046</v>
+        <v>0</v>
       </c>
       <c r="E9" s="17">
         <f t="shared" si="0"/>
-        <v>13.79</v>
+        <v>0</v>
       </c>
       <c r="F9" s="17">
         <f t="shared" si="1"/>
-        <v>7.79</v>
+        <v>0</v>
       </c>
       <c r="G9" s="17">
         <f t="shared" si="2"/>
-        <v>15667</v>
+        <v>0</v>
       </c>
       <c r="H9" s="18">
         <f t="shared" si="3"/>
-        <v>42004.34</v>
+        <v>0</v>
       </c>
       <c r="I9" s="18">
         <f t="shared" si="3"/>
-        <v>23728.34</v>
+        <v>0</v>
       </c>
       <c r="J9" s="19">
         <f t="shared" si="4"/>
-        <v>39395.339999999997</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="D10" s="16">
         <f>ROUND($B$2/6*8,0)</f>
-        <v>3481</v>
+        <v>0</v>
       </c>
       <c r="E10" s="17">
         <f t="shared" si="0"/>
-        <v>13.79</v>
+        <v>0</v>
       </c>
       <c r="F10" s="17">
         <f t="shared" si="1"/>
-        <v>7.79</v>
+        <v>0</v>
       </c>
       <c r="G10" s="17">
         <f t="shared" si="2"/>
-        <v>15667</v>
+        <v>0</v>
       </c>
       <c r="H10" s="18">
         <f t="shared" si="3"/>
-        <v>48002.99</v>
+        <v>0</v>
       </c>
       <c r="I10" s="18">
         <f t="shared" si="3"/>
-        <v>27116.99</v>
+        <v>0</v>
       </c>
       <c r="J10" s="19">
         <f t="shared" si="4"/>
-        <v>42783.990000000005</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="D11" s="23">
         <f>ROUND($B$2/6*9,0)</f>
-        <v>3917</v>
+        <v>0</v>
       </c>
       <c r="E11" s="24">
         <f t="shared" si="0"/>
-        <v>13.79</v>
+        <v>0</v>
       </c>
       <c r="F11" s="24">
         <f t="shared" si="1"/>
-        <v>7.79</v>
+        <v>0</v>
       </c>
       <c r="G11" s="24">
         <f t="shared" si="2"/>
-        <v>15667</v>
+        <v>0</v>
       </c>
       <c r="H11" s="25">
         <f t="shared" si="3"/>
-        <v>54015.43</v>
+        <v>0</v>
       </c>
       <c r="I11" s="25">
         <f t="shared" si="3"/>
-        <v>30513.43</v>
+        <v>0</v>
       </c>
       <c r="J11" s="26">
         <f t="shared" si="4"/>
-        <v>46180.43</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="154" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="123" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="155"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B13" s="124"/>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="71" t="s">
         <v>17</v>
       </c>
@@ -8120,13 +6672,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="156" t="s">
+    <row r="15" spans="1:10">
+      <c r="A15" s="125" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="157"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B15" s="126"/>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="27" t="s">
         <v>19</v>
       </c>
@@ -8134,7 +6686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2">
       <c r="A17" s="27" t="s">
         <v>21</v>
       </c>
@@ -8166,7 +6718,7 @@
       <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="11" width="9.140625" style="30"/>
     <col min="12" max="12" width="16.85546875" style="30" bestFit="1" customWidth="1"/>
@@ -8177,7 +6729,7 @@
     <col min="27" max="16384" width="9.140625" style="30"/>
   </cols>
   <sheetData>
-    <row r="18" spans="12:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="12:17">
       <c r="L18" s="68"/>
       <c r="M18" s="70" t="s">
         <v>32</v>
@@ -8195,73 +6747,73 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="12:17" x14ac:dyDescent="0.25">
-      <c r="L19" s="194" t="s">
+    <row r="19" spans="12:17">
+      <c r="L19" s="116" t="s">
         <v>11</v>
       </c>
       <c r="M19" s="69">
-        <v>16500</v>
+        <v>0</v>
       </c>
       <c r="N19" s="69">
-        <v>17325</v>
+        <v>0</v>
       </c>
       <c r="O19" s="69">
-        <v>18191.25</v>
+        <v>0</v>
       </c>
       <c r="P19" s="69">
-        <v>19100.810000000001</v>
+        <v>0</v>
       </c>
       <c r="Q19" s="69">
-        <v>20055.849999999999</v>
-      </c>
-    </row>
-    <row r="20" spans="12:17" x14ac:dyDescent="0.25">
-      <c r="L20" s="194" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="12:17">
+      <c r="L20" s="116" t="s">
         <v>50</v>
       </c>
       <c r="M20" s="69">
-        <v>6121.8</v>
+        <v>0</v>
       </c>
       <c r="N20" s="69">
-        <v>8904</v>
+        <v>0</v>
       </c>
       <c r="O20" s="69">
-        <v>15077.25</v>
+        <v>0</v>
       </c>
       <c r="P20" s="69">
-        <v>22855.31</v>
+        <v>0</v>
       </c>
       <c r="Q20" s="69">
-        <v>32748.45</v>
-      </c>
-    </row>
-    <row r="21" spans="12:17" x14ac:dyDescent="0.25">
-      <c r="L21" s="194" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="12:17">
+      <c r="L21" s="116" t="s">
         <v>51</v>
       </c>
       <c r="M21" s="69">
         <f>M19+M20</f>
-        <v>22621.8</v>
+        <v>0</v>
       </c>
       <c r="N21" s="69">
         <f t="shared" ref="N21:Q21" si="0">N19+N20</f>
-        <v>26229</v>
+        <v>0</v>
       </c>
       <c r="O21" s="69">
         <f t="shared" si="0"/>
-        <v>33268.5</v>
+        <v>0</v>
       </c>
       <c r="P21" s="69">
         <f t="shared" si="0"/>
-        <v>41956.12</v>
+        <v>0</v>
       </c>
       <c r="Q21" s="69">
         <f t="shared" si="0"/>
-        <v>52804.3</v>
-      </c>
-    </row>
-    <row r="22" spans="12:17" x14ac:dyDescent="0.25">
-      <c r="L22" s="194"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="12:17">
+      <c r="L22" s="116"/>
       <c r="M22" s="70" t="s">
         <v>32</v>
       </c>
@@ -8278,64 +6830,64 @@
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="12:17" x14ac:dyDescent="0.25">
-      <c r="L23" s="194" t="s">
+    <row r="23" spans="12:17">
+      <c r="L23" s="116" t="s">
         <v>15</v>
       </c>
       <c r="M23" s="69">
-        <v>14284.2</v>
+        <v>0</v>
       </c>
       <c r="N23" s="69">
-        <v>20776</v>
+        <v>0</v>
       </c>
       <c r="O23" s="69">
-        <v>35180.25</v>
+        <v>0</v>
       </c>
       <c r="P23" s="69">
-        <v>53329.06</v>
+        <v>0</v>
       </c>
       <c r="Q23" s="69">
-        <v>76413.05</v>
-      </c>
-    </row>
-    <row r="24" spans="12:17" x14ac:dyDescent="0.25">
-      <c r="L24" s="194" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="12:17">
+      <c r="L24" s="116" t="s">
         <v>14</v>
       </c>
       <c r="M24" s="69">
-        <v>208406</v>
+        <v>0</v>
       </c>
       <c r="N24" s="69">
-        <v>225730</v>
+        <v>0</v>
       </c>
       <c r="O24" s="69">
-        <v>254760</v>
+        <v>0</v>
       </c>
       <c r="P24" s="69">
-        <v>289562</v>
+        <v>0</v>
       </c>
       <c r="Q24" s="69">
-        <v>331858</v>
-      </c>
-    </row>
-    <row r="25" spans="12:17" x14ac:dyDescent="0.25">
-      <c r="L25" s="194" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="12:17">
+      <c r="L25" s="116" t="s">
         <v>13</v>
       </c>
       <c r="M25" s="69">
-        <v>479359</v>
+        <v>0</v>
       </c>
       <c r="N25" s="69">
-        <v>519416</v>
+        <v>0</v>
       </c>
       <c r="O25" s="69">
-        <v>586386</v>
+        <v>0</v>
       </c>
       <c r="P25" s="69">
-        <v>666628</v>
+        <v>0</v>
       </c>
       <c r="Q25" s="69">
-        <v>764098</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -8353,7 +6905,7 @@
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12"/>
   <cols>
     <col min="1" max="1" width="37" style="33" bestFit="1" customWidth="1"/>
     <col min="2" max="6" width="9.28515625" style="33" bestFit="1" customWidth="1"/>
@@ -8362,7 +6914,7 @@
     <col min="10" max="16384" width="9.140625" style="33"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="A1" s="31" t="s">
         <v>31</v>
       </c>
@@ -8382,7 +6934,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6">
       <c r="A2" s="34" t="s">
         <v>13</v>
       </c>
@@ -8402,7 +6954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6">
       <c r="A3" s="37" t="s">
         <v>37</v>
       </c>
@@ -8412,7 +6964,7 @@
       <c r="E3" s="39"/>
       <c r="F3" s="40"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6">
       <c r="A4" s="41"/>
       <c r="B4" s="66"/>
       <c r="C4" s="66"/>
@@ -8420,7 +6972,7 @@
       <c r="E4" s="66"/>
       <c r="F4" s="67"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6">
       <c r="A5" s="41"/>
       <c r="B5" s="66"/>
       <c r="C5" s="66"/>
@@ -8428,7 +6980,7 @@
       <c r="E5" s="66"/>
       <c r="F5" s="67"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6">
       <c r="A6" s="37" t="s">
         <v>38</v>
       </c>
@@ -8438,7 +6990,7 @@
       <c r="E6" s="39"/>
       <c r="F6" s="40"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6">
       <c r="A7" s="42" t="s">
         <v>12</v>
       </c>
@@ -8458,7 +7010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6">
       <c r="A8" s="43" t="s">
         <v>39</v>
       </c>
@@ -8483,7 +7035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6">
       <c r="A9" s="46" t="s">
         <v>40</v>
       </c>
@@ -8523,16 +7075,16 @@
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12"/>
   <cols>
     <col min="1" max="1" width="25.85546875" style="63" bestFit="1" customWidth="1"/>
-    <col min="2" max="6" width="9.140625" style="33" customWidth="1"/>
+    <col min="2" max="6" width="5.85546875" style="33" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.140625" style="33"/>
     <col min="8" max="8" width="9.28515625" style="33" customWidth="1"/>
     <col min="9" max="16384" width="9.140625" style="33"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="A1" s="5" t="s">
         <v>41</v>
       </c>
@@ -8552,7 +7104,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6">
       <c r="A2" s="50" t="s">
         <v>13</v>
       </c>
@@ -8572,7 +7124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6">
       <c r="A3" s="52" t="s">
         <v>15</v>
       </c>
@@ -8592,7 +7144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6">
       <c r="A4" s="50" t="s">
         <v>42</v>
       </c>
@@ -8602,7 +7154,7 @@
       <c r="E4" s="54"/>
       <c r="F4" s="55"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6">
       <c r="A5" s="50" t="s">
         <v>43</v>
       </c>
@@ -8622,7 +7174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6">
       <c r="A6" s="52" t="s">
         <v>44</v>
       </c>
@@ -8647,7 +7199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6">
       <c r="A7" s="74" t="s">
         <v>45</v>
       </c>
@@ -8657,7 +7209,7 @@
       <c r="E7" s="59"/>
       <c r="F7" s="60"/>
     </row>
-    <row r="8" spans="1:6" s="76" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" s="76" customFormat="1" ht="12" customHeight="1">
       <c r="A8" s="73"/>
       <c r="B8" s="75"/>
       <c r="C8" s="75"/>
@@ -8665,7 +7217,7 @@
       <c r="E8" s="75"/>
       <c r="F8" s="75"/>
     </row>
-    <row r="9" spans="1:6" s="76" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" s="76" customFormat="1" ht="12" customHeight="1">
       <c r="A9" s="73"/>
       <c r="B9" s="75"/>
       <c r="C9" s="75"/>
@@ -8673,7 +7225,7 @@
       <c r="E9" s="75"/>
       <c r="F9" s="75"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6">
       <c r="A10" s="50" t="s">
         <v>46</v>
       </c>
@@ -8698,7 +7250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6">
       <c r="A11" s="52" t="s">
         <v>47</v>
       </c>
@@ -8723,7 +7275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6">
       <c r="A12" s="77" t="s">
         <v>48</v>
       </c>
@@ -8748,7 +7300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6">
       <c r="A13" s="77" t="s">
         <v>49</v>
       </c>
@@ -8786,66 +7338,66 @@
   </sheetPr>
   <dimension ref="A1:BA66"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="141" zoomScaleNormal="141" workbookViewId="0">
+    <sheetView zoomScale="141" zoomScaleNormal="141" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O5" sqref="O5"/>
+      <selection pane="bottomLeft" activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="18.28515625" style="94" customWidth="1"/>
-    <col min="2" max="6" width="7.28515625" style="151" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="7.28515625" style="111" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="1.7109375" style="92" customWidth="1"/>
-    <col min="8" max="8" width="4.7109375" style="147" bestFit="1" customWidth="1"/>
-    <col min="9" max="12" width="4.7109375" style="147" customWidth="1"/>
+    <col min="8" max="8" width="4.7109375" style="107" bestFit="1" customWidth="1"/>
+    <col min="9" max="12" width="4.7109375" style="107" customWidth="1"/>
     <col min="13" max="13" width="1.7109375" style="92" customWidth="1"/>
     <col min="14" max="14" width="24.140625" style="93" customWidth="1"/>
     <col min="15" max="19" width="11.42578125" style="92" customWidth="1"/>
     <col min="20" max="16384" width="9.140625" style="92"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="108" t="s">
+    <row r="1" spans="1:53" ht="12" customHeight="1">
+      <c r="A1" s="106" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="150" t="s">
+      <c r="B1" s="110" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="150" t="s">
+      <c r="C1" s="110" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="150" t="s">
+      <c r="D1" s="110" t="s">
         <v>34</v>
       </c>
-      <c r="E1" s="150" t="s">
+      <c r="E1" s="110" t="s">
         <v>35</v>
       </c>
-      <c r="F1" s="150" t="s">
+      <c r="F1" s="110" t="s">
         <v>36</v>
       </c>
-      <c r="H1" s="158" t="s">
-        <v>93</v>
-      </c>
-      <c r="I1" s="158"/>
-      <c r="J1" s="158"/>
-      <c r="K1" s="158"/>
-      <c r="L1" s="158"/>
-      <c r="N1" s="107" t="s">
+      <c r="H1" s="127" t="s">
+        <v>66</v>
+      </c>
+      <c r="I1" s="127"/>
+      <c r="J1" s="127"/>
+      <c r="K1" s="127"/>
+      <c r="L1" s="127"/>
+      <c r="N1" s="105" t="s">
         <v>64</v>
       </c>
-      <c r="O1" s="106" t="s">
+      <c r="O1" s="104" t="s">
         <v>32</v>
       </c>
-      <c r="P1" s="106" t="s">
+      <c r="P1" s="104" t="s">
         <v>33</v>
       </c>
-      <c r="Q1" s="106" t="s">
+      <c r="Q1" s="104" t="s">
         <v>34</v>
       </c>
-      <c r="R1" s="106" t="s">
+      <c r="R1" s="104" t="s">
         <v>35</v>
       </c>
-      <c r="S1" s="106" t="s">
+      <c r="S1" s="104" t="s">
         <v>36</v>
       </c>
       <c r="U1"/>
@@ -8882,74 +7434,28 @@
       <c r="AZ1"/>
       <c r="BA1"/>
     </row>
-    <row r="2" spans="1:53" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="191" t="s">
-        <v>84</v>
-      </c>
-      <c r="B2" s="190">
-        <f t="shared" ref="B2:F7" si="0">ROUND(H2*O$13,0)</f>
-        <v>10221</v>
-      </c>
-      <c r="C2" s="190">
-        <f t="shared" si="0"/>
-        <v>11075</v>
-      </c>
-      <c r="D2" s="190">
-        <f t="shared" si="0"/>
-        <v>12503</v>
-      </c>
-      <c r="E2" s="190">
-        <f t="shared" si="0"/>
-        <v>14214</v>
-      </c>
-      <c r="F2" s="190">
-        <f t="shared" si="0"/>
-        <v>16292</v>
-      </c>
-      <c r="G2" s="178"/>
-      <c r="H2" s="182">
-        <v>100</v>
-      </c>
-      <c r="I2" s="183">
-        <f t="shared" ref="I2:L3" si="1">H2</f>
-        <v>100</v>
-      </c>
-      <c r="J2" s="183">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-      <c r="K2" s="183">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-      <c r="L2" s="184">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-      <c r="M2" s="179"/>
+    <row r="2" spans="1:53" ht="12" customHeight="1">
+      <c r="A2" s="114"/>
+      <c r="B2" s="118"/>
+      <c r="C2" s="118"/>
+      <c r="D2" s="118"/>
+      <c r="E2" s="118"/>
+      <c r="F2" s="118"/>
+      <c r="G2" s="120"/>
+      <c r="H2" s="119"/>
+      <c r="I2" s="119"/>
+      <c r="J2" s="119"/>
+      <c r="K2" s="119"/>
+      <c r="L2" s="119"/>
+      <c r="M2" s="120"/>
       <c r="N2" s="93" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="148">
-        <f t="shared" ref="O2:S2" si="2">SUMPRODUCT(B2:B7,B8:B13)</f>
-        <v>479359</v>
-      </c>
-      <c r="P2" s="148">
-        <f t="shared" si="2"/>
-        <v>519416</v>
-      </c>
-      <c r="Q2" s="148">
-        <f t="shared" si="2"/>
-        <v>586386</v>
-      </c>
-      <c r="R2" s="148">
-        <f t="shared" si="2"/>
-        <v>666628</v>
-      </c>
-      <c r="S2" s="148">
-        <f t="shared" si="2"/>
-        <v>764098</v>
-      </c>
+      <c r="O2" s="108"/>
+      <c r="P2" s="108"/>
+      <c r="Q2" s="108"/>
+      <c r="R2" s="108"/>
+      <c r="S2" s="108"/>
       <c r="U2"/>
       <c r="V2"/>
       <c r="W2"/>
@@ -8984,74 +7490,28 @@
       <c r="AZ2"/>
       <c r="BA2"/>
     </row>
-    <row r="3" spans="1:53" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="192" t="s">
-        <v>87</v>
-      </c>
-      <c r="B3" s="190">
-        <f t="shared" si="0"/>
-        <v>5110</v>
-      </c>
-      <c r="C3" s="190">
-        <f t="shared" si="0"/>
-        <v>5538</v>
-      </c>
-      <c r="D3" s="190">
-        <f t="shared" si="0"/>
-        <v>6252</v>
-      </c>
-      <c r="E3" s="190">
-        <f t="shared" si="0"/>
-        <v>7107</v>
-      </c>
-      <c r="F3" s="190">
-        <f t="shared" si="0"/>
-        <v>8146</v>
-      </c>
-      <c r="G3" s="178"/>
-      <c r="H3" s="182">
-        <v>50</v>
-      </c>
-      <c r="I3" s="183">
-        <f t="shared" si="1"/>
-        <v>50</v>
-      </c>
-      <c r="J3" s="183">
-        <f t="shared" si="1"/>
-        <v>50</v>
-      </c>
-      <c r="K3" s="183">
-        <f t="shared" si="1"/>
-        <v>50</v>
-      </c>
-      <c r="L3" s="184">
-        <f t="shared" si="1"/>
-        <v>50</v>
-      </c>
-      <c r="M3" s="179"/>
+    <row r="3" spans="1:53" ht="12" customHeight="1">
+      <c r="A3" s="115"/>
+      <c r="B3" s="118"/>
+      <c r="C3" s="118"/>
+      <c r="D3" s="118"/>
+      <c r="E3" s="118"/>
+      <c r="F3" s="118"/>
+      <c r="G3" s="120"/>
+      <c r="H3" s="119"/>
+      <c r="I3" s="119"/>
+      <c r="J3" s="119"/>
+      <c r="K3" s="119"/>
+      <c r="L3" s="119"/>
+      <c r="M3" s="120"/>
       <c r="N3" s="93" t="s">
         <v>63</v>
       </c>
-      <c r="O3" s="149">
-        <f t="shared" ref="O3:S3" si="3">SUMPRODUCT(B2:B7,B14:B19)</f>
-        <v>270853</v>
-      </c>
-      <c r="P3" s="149">
-        <f t="shared" si="3"/>
-        <v>293486</v>
-      </c>
-      <c r="Q3" s="149">
-        <f t="shared" si="3"/>
-        <v>331326</v>
-      </c>
-      <c r="R3" s="149">
-        <f t="shared" si="3"/>
-        <v>376666</v>
-      </c>
-      <c r="S3" s="149">
-        <f t="shared" si="3"/>
-        <v>431740</v>
-      </c>
+      <c r="O3" s="109"/>
+      <c r="P3" s="109"/>
+      <c r="Q3" s="109"/>
+      <c r="R3" s="109"/>
+      <c r="S3" s="109"/>
       <c r="U3"/>
       <c r="V3"/>
       <c r="W3"/>
@@ -9086,68 +7546,37 @@
       <c r="AZ3"/>
       <c r="BA3"/>
     </row>
-    <row r="4" spans="1:53" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="192" t="s">
-        <v>83</v>
-      </c>
-      <c r="B4" s="190">
-        <f t="shared" si="0"/>
-        <v>7666</v>
-      </c>
-      <c r="C4" s="190">
-        <f t="shared" si="0"/>
-        <v>8306</v>
-      </c>
-      <c r="D4" s="190">
-        <f t="shared" si="0"/>
-        <v>9377</v>
-      </c>
-      <c r="E4" s="190">
-        <f t="shared" si="0"/>
-        <v>10660</v>
-      </c>
-      <c r="F4" s="190">
-        <f t="shared" si="0"/>
-        <v>12219</v>
-      </c>
-      <c r="G4" s="180"/>
-      <c r="H4" s="185">
-        <v>75</v>
-      </c>
-      <c r="I4" s="186">
-        <f t="shared" ref="I4:L7" si="4">H4</f>
-        <v>75</v>
-      </c>
-      <c r="J4" s="186">
-        <f t="shared" si="4"/>
-        <v>75</v>
-      </c>
-      <c r="K4" s="186">
-        <f t="shared" si="4"/>
-        <v>75</v>
-      </c>
-      <c r="L4" s="187">
-        <f t="shared" si="4"/>
-        <v>75</v>
-      </c>
-      <c r="M4" s="181"/>
-      <c r="N4" s="189" t="s">
+    <row r="4" spans="1:53" ht="12" customHeight="1">
+      <c r="A4" s="115"/>
+      <c r="B4" s="118"/>
+      <c r="C4" s="118"/>
+      <c r="D4" s="118"/>
+      <c r="E4" s="118"/>
+      <c r="F4" s="118"/>
+      <c r="G4" s="120"/>
+      <c r="H4" s="119"/>
+      <c r="I4" s="119"/>
+      <c r="J4" s="119"/>
+      <c r="K4" s="119"/>
+      <c r="L4" s="119"/>
+      <c r="M4" s="120"/>
+      <c r="N4" s="113" t="s">
         <v>62</v>
       </c>
-      <c r="O4" s="105">
-        <v>2.98E-2</v>
-      </c>
-      <c r="P4" s="105">
-        <v>0.04</v>
-      </c>
-      <c r="Q4" s="105">
-        <v>0.06</v>
-      </c>
-      <c r="R4" s="105">
-        <v>0.08</v>
-      </c>
-      <c r="S4" s="105">
-        <v>0.1</v>
+      <c r="O4" s="103">
+        <v>0</v>
+      </c>
+      <c r="P4" s="103">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="103">
+        <v>0</v>
+      </c>
+      <c r="R4" s="103">
+        <v>0</v>
+      </c>
+      <c r="S4" s="103">
+        <v>0</v>
       </c>
       <c r="U4"/>
       <c r="V4"/>
@@ -9183,59 +7612,28 @@
       <c r="AZ4"/>
       <c r="BA4"/>
     </row>
-    <row r="5" spans="1:53" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="191" t="s">
-        <v>86</v>
-      </c>
-      <c r="B5" s="190">
-        <f t="shared" si="0"/>
-        <v>6644</v>
-      </c>
-      <c r="C5" s="190">
-        <f t="shared" si="0"/>
-        <v>7199</v>
-      </c>
-      <c r="D5" s="190">
-        <f t="shared" si="0"/>
-        <v>8127</v>
-      </c>
-      <c r="E5" s="190">
-        <f t="shared" si="0"/>
-        <v>9239</v>
-      </c>
-      <c r="F5" s="190">
-        <f t="shared" si="0"/>
-        <v>10590</v>
-      </c>
-      <c r="G5" s="180"/>
-      <c r="H5" s="185">
-        <v>65</v>
-      </c>
-      <c r="I5" s="186">
-        <f t="shared" si="4"/>
-        <v>65</v>
-      </c>
-      <c r="J5" s="186">
-        <f t="shared" si="4"/>
-        <v>65</v>
-      </c>
-      <c r="K5" s="186">
-        <f t="shared" si="4"/>
-        <v>65</v>
-      </c>
-      <c r="L5" s="187">
-        <f t="shared" si="4"/>
-        <v>65</v>
-      </c>
-      <c r="M5" s="181"/>
+    <row r="5" spans="1:53" ht="12" customHeight="1">
+      <c r="A5" s="114"/>
+      <c r="B5" s="118"/>
+      <c r="C5" s="118"/>
+      <c r="D5" s="118"/>
+      <c r="E5" s="118"/>
+      <c r="F5" s="118"/>
+      <c r="G5" s="120"/>
+      <c r="H5" s="119"/>
+      <c r="I5" s="119"/>
+      <c r="J5" s="119"/>
+      <c r="K5" s="119"/>
+      <c r="L5" s="119"/>
+      <c r="M5" s="120"/>
       <c r="N5" s="93" t="s">
         <v>61</v>
       </c>
-      <c r="O5" s="104"/>
-      <c r="P5" s="104"/>
-      <c r="Q5" s="104"/>
-      <c r="R5" s="104"/>
-      <c r="S5" s="104"/>
+      <c r="O5" s="117"/>
+      <c r="P5" s="117"/>
+      <c r="Q5" s="117"/>
+      <c r="R5" s="117"/>
+      <c r="S5" s="117"/>
       <c r="U5"/>
       <c r="V5"/>
       <c r="W5"/>
@@ -9270,71 +7668,40 @@
       <c r="AZ5"/>
       <c r="BA5"/>
     </row>
-    <row r="6" spans="1:53" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="191" t="s">
-        <v>82</v>
-      </c>
-      <c r="B6" s="190">
-        <f t="shared" si="0"/>
-        <v>3577</v>
-      </c>
-      <c r="C6" s="190">
-        <f t="shared" si="0"/>
-        <v>3876</v>
-      </c>
-      <c r="D6" s="190">
-        <f t="shared" si="0"/>
-        <v>4376</v>
-      </c>
-      <c r="E6" s="190">
-        <f t="shared" si="0"/>
-        <v>4975</v>
-      </c>
-      <c r="F6" s="190">
-        <f t="shared" si="0"/>
-        <v>5702</v>
-      </c>
-      <c r="G6" s="180"/>
-      <c r="H6" s="185">
-        <v>35</v>
-      </c>
-      <c r="I6" s="186">
-        <f t="shared" si="4"/>
-        <v>35</v>
-      </c>
-      <c r="J6" s="186">
-        <f t="shared" si="4"/>
-        <v>35</v>
-      </c>
-      <c r="K6" s="186">
-        <f t="shared" si="4"/>
-        <v>35</v>
-      </c>
-      <c r="L6" s="187">
-        <f t="shared" si="4"/>
-        <v>35</v>
-      </c>
-      <c r="M6" s="181"/>
+    <row r="6" spans="1:53" ht="12" customHeight="1">
+      <c r="A6" s="114"/>
+      <c r="B6" s="118"/>
+      <c r="C6" s="118"/>
+      <c r="D6" s="118"/>
+      <c r="E6" s="118"/>
+      <c r="F6" s="118"/>
+      <c r="G6" s="120"/>
+      <c r="H6" s="119"/>
+      <c r="I6" s="119"/>
+      <c r="J6" s="119"/>
+      <c r="K6" s="119"/>
+      <c r="L6" s="119"/>
+      <c r="M6" s="120"/>
       <c r="N6" s="93" t="s">
         <v>60</v>
       </c>
-      <c r="O6" s="103">
+      <c r="O6" s="102">
         <f>IF(O7,0.3,0)</f>
         <v>0.3</v>
       </c>
-      <c r="P6" s="103">
+      <c r="P6" s="102">
         <f>IF(P7,0.3,0)</f>
         <v>0.3</v>
       </c>
-      <c r="Q6" s="103">
+      <c r="Q6" s="102">
         <f>IF(Q7,0.3,0)</f>
         <v>0.3</v>
       </c>
-      <c r="R6" s="103">
+      <c r="R6" s="102">
         <f>IF(R7,0.3,0)</f>
         <v>0.3</v>
       </c>
-      <c r="S6" s="103">
+      <c r="S6" s="102">
         <f>IF(S7,0.3,0)</f>
         <v>0.3</v>
       </c>
@@ -9372,67 +7739,36 @@
       <c r="AZ6"/>
       <c r="BA6"/>
     </row>
-    <row r="7" spans="1:53" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="191" t="s">
-        <v>85</v>
-      </c>
-      <c r="B7" s="190">
-        <f t="shared" si="0"/>
-        <v>1533</v>
-      </c>
-      <c r="C7" s="190">
-        <f t="shared" si="0"/>
-        <v>1661</v>
-      </c>
-      <c r="D7" s="190">
-        <f t="shared" si="0"/>
-        <v>1875</v>
-      </c>
-      <c r="E7" s="190">
-        <f t="shared" si="0"/>
-        <v>2132</v>
-      </c>
-      <c r="F7" s="190">
-        <f t="shared" si="0"/>
-        <v>2444</v>
-      </c>
-      <c r="G7" s="180"/>
-      <c r="H7" s="185">
-        <v>15</v>
-      </c>
-      <c r="I7" s="186">
-        <f t="shared" si="4"/>
-        <v>15</v>
-      </c>
-      <c r="J7" s="186">
-        <f t="shared" si="4"/>
-        <v>15</v>
-      </c>
-      <c r="K7" s="186">
-        <f t="shared" si="4"/>
-        <v>15</v>
-      </c>
-      <c r="L7" s="187">
-        <f t="shared" si="4"/>
-        <v>15</v>
-      </c>
-      <c r="M7" s="181"/>
-      <c r="N7" s="102" t="s">
+    <row r="7" spans="1:53" ht="12" customHeight="1" thickBot="1">
+      <c r="A7" s="114"/>
+      <c r="B7" s="118"/>
+      <c r="C7" s="118"/>
+      <c r="D7" s="118"/>
+      <c r="E7" s="118"/>
+      <c r="F7" s="118"/>
+      <c r="G7" s="120"/>
+      <c r="H7" s="119"/>
+      <c r="I7" s="119"/>
+      <c r="J7" s="119"/>
+      <c r="K7" s="119"/>
+      <c r="L7" s="119"/>
+      <c r="M7" s="120"/>
+      <c r="N7" s="101" t="s">
         <v>59</v>
       </c>
-      <c r="O7" s="101" t="b">
+      <c r="O7" s="100" t="b">
         <v>1</v>
       </c>
-      <c r="P7" s="101" t="b">
+      <c r="P7" s="100" t="b">
         <v>1</v>
       </c>
-      <c r="Q7" s="101" t="b">
+      <c r="Q7" s="100" t="b">
         <v>1</v>
       </c>
-      <c r="R7" s="101" t="b">
+      <c r="R7" s="100" t="b">
         <v>1</v>
       </c>
-      <c r="S7" s="101" t="b">
+      <c r="S7" s="100" t="b">
         <v>1</v>
       </c>
       <c r="U7"/>
@@ -9469,43 +7805,31 @@
       <c r="AZ7"/>
       <c r="BA7"/>
     </row>
-    <row r="8" spans="1:53" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="175" t="s">
-        <v>84</v>
-      </c>
-      <c r="B8" s="176">
-        <v>12</v>
-      </c>
-      <c r="C8" s="176">
-        <v>12</v>
-      </c>
-      <c r="D8" s="176">
-        <v>12</v>
-      </c>
-      <c r="E8" s="176">
-        <v>12</v>
-      </c>
-      <c r="F8" s="176">
-        <v>12</v>
-      </c>
-      <c r="G8" s="100"/>
+    <row r="8" spans="1:53" ht="12" customHeight="1" thickTop="1">
+      <c r="A8" s="114"/>
+      <c r="B8" s="118"/>
+      <c r="C8" s="118"/>
+      <c r="D8" s="118"/>
+      <c r="E8" s="118"/>
+      <c r="F8" s="118"/>
+      <c r="G8" s="99"/>
       <c r="N8" s="93" t="s">
         <v>58</v>
       </c>
-      <c r="O8" s="99">
-        <v>100</v>
-      </c>
-      <c r="P8" s="99">
-        <v>200</v>
-      </c>
-      <c r="Q8" s="99">
-        <v>300</v>
-      </c>
-      <c r="R8" s="99">
-        <v>400</v>
-      </c>
-      <c r="S8" s="99">
-        <v>500</v>
+      <c r="O8" s="98">
+        <v>0</v>
+      </c>
+      <c r="P8" s="98">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="98">
+        <v>0</v>
+      </c>
+      <c r="R8" s="98">
+        <v>0</v>
+      </c>
+      <c r="S8" s="98">
+        <v>0</v>
       </c>
       <c r="U8"/>
       <c r="V8"/>
@@ -9541,43 +7865,31 @@
       <c r="AZ8"/>
       <c r="BA8"/>
     </row>
-    <row r="9" spans="1:53" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="95" t="s">
-        <v>87</v>
-      </c>
-      <c r="B9" s="177">
-        <v>13</v>
-      </c>
-      <c r="C9" s="177">
-        <v>13</v>
-      </c>
-      <c r="D9" s="177">
-        <v>13</v>
-      </c>
-      <c r="E9" s="177">
-        <v>13</v>
-      </c>
-      <c r="F9" s="177">
-        <v>13</v>
-      </c>
-      <c r="G9" s="100"/>
+    <row r="9" spans="1:53" ht="12" customHeight="1">
+      <c r="A9" s="114"/>
+      <c r="B9" s="118"/>
+      <c r="C9" s="118"/>
+      <c r="D9" s="118"/>
+      <c r="E9" s="118"/>
+      <c r="F9" s="118"/>
+      <c r="G9" s="99"/>
       <c r="N9" s="93" t="s">
         <v>57</v>
       </c>
-      <c r="O9" s="99">
-        <v>188000</v>
-      </c>
-      <c r="P9" s="99">
-        <v>196050</v>
-      </c>
-      <c r="Q9" s="99">
-        <v>204502.5</v>
-      </c>
-      <c r="R9" s="99">
-        <v>213377.63</v>
-      </c>
-      <c r="S9" s="99">
-        <v>222696.51</v>
+      <c r="O9" s="98">
+        <v>0</v>
+      </c>
+      <c r="P9" s="98">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="98">
+        <v>0</v>
+      </c>
+      <c r="R9" s="98">
+        <v>0</v>
+      </c>
+      <c r="S9" s="98">
+        <v>0</v>
       </c>
       <c r="U9"/>
       <c r="V9"/>
@@ -9613,42 +7925,30 @@
       <c r="AZ9"/>
       <c r="BA9"/>
     </row>
-    <row r="10" spans="1:53" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="95" t="s">
-        <v>83</v>
-      </c>
-      <c r="B10" s="177">
-        <v>14</v>
-      </c>
-      <c r="C10" s="177">
-        <v>14</v>
-      </c>
-      <c r="D10" s="177">
-        <v>14</v>
-      </c>
-      <c r="E10" s="177">
-        <v>14</v>
-      </c>
-      <c r="F10" s="177">
-        <v>14</v>
-      </c>
-      <c r="G10" s="100"/>
+    <row r="10" spans="1:53" ht="12" customHeight="1">
+      <c r="A10" s="114"/>
+      <c r="B10" s="118"/>
+      <c r="C10" s="118"/>
+      <c r="D10" s="118"/>
+      <c r="E10" s="118"/>
+      <c r="F10" s="118"/>
+      <c r="G10" s="99"/>
       <c r="N10" s="93" t="s">
         <v>56</v>
       </c>
-      <c r="O10" s="99">
-        <v>0</v>
-      </c>
-      <c r="P10" s="99">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="99">
-        <v>0</v>
-      </c>
-      <c r="R10" s="99">
-        <v>0</v>
-      </c>
-      <c r="S10" s="99">
+      <c r="O10" s="98">
+        <v>0</v>
+      </c>
+      <c r="P10" s="98">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="98">
+        <v>0</v>
+      </c>
+      <c r="R10" s="98">
+        <v>0</v>
+      </c>
+      <c r="S10" s="98">
         <v>0</v>
       </c>
       <c r="U10"/>
@@ -9685,42 +7985,30 @@
       <c r="AZ10"/>
       <c r="BA10"/>
     </row>
-    <row r="11" spans="1:53" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="95" t="s">
-        <v>86</v>
-      </c>
-      <c r="B11" s="177">
-        <v>15</v>
-      </c>
-      <c r="C11" s="177">
-        <v>15</v>
-      </c>
-      <c r="D11" s="177">
-        <v>15</v>
-      </c>
-      <c r="E11" s="177">
-        <v>15</v>
-      </c>
-      <c r="F11" s="177">
-        <v>15</v>
-      </c>
-      <c r="G11" s="100"/>
+    <row r="11" spans="1:53" ht="12" customHeight="1">
+      <c r="A11" s="114"/>
+      <c r="B11" s="118"/>
+      <c r="C11" s="118"/>
+      <c r="D11" s="118"/>
+      <c r="E11" s="118"/>
+      <c r="F11" s="118"/>
+      <c r="G11" s="99"/>
       <c r="N11" s="93" t="s">
         <v>55</v>
       </c>
-      <c r="O11" s="188">
-        <v>0</v>
-      </c>
-      <c r="P11" s="188">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="188">
-        <v>0</v>
-      </c>
-      <c r="R11" s="188">
-        <v>0</v>
-      </c>
-      <c r="S11" s="188">
+      <c r="O11" s="112">
+        <v>0</v>
+      </c>
+      <c r="P11" s="112">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="112">
+        <v>0</v>
+      </c>
+      <c r="R11" s="112">
+        <v>0</v>
+      </c>
+      <c r="S11" s="112">
         <v>0</v>
       </c>
       <c r="U11"/>
@@ -9757,47 +8045,35 @@
       <c r="AZ11"/>
       <c r="BA11"/>
     </row>
-    <row r="12" spans="1:53" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="95" t="s">
-        <v>82</v>
-      </c>
-      <c r="B12" s="177">
-        <v>16</v>
-      </c>
-      <c r="C12" s="177">
-        <v>16</v>
-      </c>
-      <c r="D12" s="177">
-        <v>16</v>
-      </c>
-      <c r="E12" s="177">
-        <v>16</v>
-      </c>
-      <c r="F12" s="177">
-        <v>16</v>
-      </c>
-      <c r="N12" s="97" t="s">
+    <row r="12" spans="1:53" ht="12" customHeight="1" thickBot="1">
+      <c r="A12" s="114"/>
+      <c r="B12" s="118"/>
+      <c r="C12" s="118"/>
+      <c r="D12" s="118"/>
+      <c r="E12" s="118"/>
+      <c r="F12" s="118"/>
+      <c r="N12" s="96" t="s">
         <v>54</v>
       </c>
-      <c r="O12" s="98">
+      <c r="O12" s="97">
         <f>SUM(O8:O10)-O11</f>
-        <v>188100</v>
-      </c>
-      <c r="P12" s="98">
+        <v>0</v>
+      </c>
+      <c r="P12" s="97">
         <f>SUM(P8:P10)-P11</f>
-        <v>196250</v>
-      </c>
-      <c r="Q12" s="98">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="97">
         <f>SUM(Q8:Q10)-Q11</f>
-        <v>204802.5</v>
-      </c>
-      <c r="R12" s="98">
+        <v>0</v>
+      </c>
+      <c r="R12" s="97">
         <f>SUM(R8:R10)-R11</f>
-        <v>213777.63</v>
-      </c>
-      <c r="S12" s="98">
+        <v>0</v>
+      </c>
+      <c r="S12" s="97">
         <f>SUM(S8:S10)-S11</f>
-        <v>223196.51</v>
+        <v>0</v>
       </c>
       <c r="U12"/>
       <c r="V12"/>
@@ -9833,48 +8109,21 @@
       <c r="AZ12"/>
       <c r="BA12"/>
     </row>
-    <row r="13" spans="1:53" ht="12" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="95" t="s">
-        <v>85</v>
-      </c>
-      <c r="B13" s="177">
-        <v>17</v>
-      </c>
-      <c r="C13" s="177">
-        <v>17</v>
-      </c>
-      <c r="D13" s="177">
-        <v>17</v>
-      </c>
-      <c r="E13" s="177">
-        <v>17</v>
-      </c>
-      <c r="F13" s="177">
-        <v>17</v>
-      </c>
-      <c r="N13" s="97" t="s">
+    <row r="13" spans="1:53" ht="12" customHeight="1" thickTop="1">
+      <c r="A13" s="114"/>
+      <c r="B13" s="118"/>
+      <c r="C13" s="118"/>
+      <c r="D13" s="118"/>
+      <c r="E13" s="118"/>
+      <c r="F13" s="118"/>
+      <c r="N13" s="96" t="s">
         <v>53</v>
       </c>
-      <c r="O13" s="96">
-        <f t="shared" ref="O13:S13" si="5">(100%-O$6)*O$12/((100%-O$6-O$4)*SUMPRODUCT(H2:H7,B8:B13)-(100%-O$6)*SUMPRODUCT(H2:H7,B14:B19))</f>
-        <v>102.20937435473883</v>
-      </c>
-      <c r="P13" s="96">
-        <f t="shared" si="5"/>
-        <v>110.75056433408579</v>
-      </c>
-      <c r="Q13" s="96">
-        <f t="shared" si="5"/>
-        <v>125.03205128205131</v>
-      </c>
-      <c r="R13" s="96">
-        <f t="shared" si="5"/>
-        <v>142.13938164893611</v>
-      </c>
-      <c r="S13" s="96">
-        <f t="shared" si="5"/>
-        <v>162.91716058394158</v>
-      </c>
+      <c r="O13" s="95"/>
+      <c r="P13" s="95"/>
+      <c r="Q13" s="95"/>
+      <c r="R13" s="95"/>
+      <c r="S13" s="95"/>
       <c r="U13"/>
       <c r="V13"/>
       <c r="W13"/>
@@ -9909,25 +8158,13 @@
       <c r="AZ13"/>
       <c r="BA13"/>
     </row>
-    <row r="14" spans="1:53" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="175" t="s">
-        <v>84</v>
-      </c>
-      <c r="B14" s="176">
-        <v>6</v>
-      </c>
-      <c r="C14" s="176">
-        <v>6</v>
-      </c>
-      <c r="D14" s="176">
-        <v>6</v>
-      </c>
-      <c r="E14" s="176">
-        <v>6</v>
-      </c>
-      <c r="F14" s="176">
-        <v>6</v>
-      </c>
+    <row r="14" spans="1:53" ht="12" customHeight="1">
+      <c r="A14" s="114"/>
+      <c r="B14" s="118"/>
+      <c r="C14" s="118"/>
+      <c r="D14" s="118"/>
+      <c r="E14" s="118"/>
+      <c r="F14" s="118"/>
       <c r="U14"/>
       <c r="V14"/>
       <c r="W14"/>
@@ -9962,25 +8199,13 @@
       <c r="AZ14"/>
       <c r="BA14"/>
     </row>
-    <row r="15" spans="1:53" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="95" t="s">
-        <v>87</v>
-      </c>
-      <c r="B15" s="177">
-        <v>7</v>
-      </c>
-      <c r="C15" s="177">
-        <v>7</v>
-      </c>
-      <c r="D15" s="177">
-        <v>7</v>
-      </c>
-      <c r="E15" s="177">
-        <v>7</v>
-      </c>
-      <c r="F15" s="177">
-        <v>7</v>
-      </c>
+    <row r="15" spans="1:53" ht="12" customHeight="1">
+      <c r="A15" s="114"/>
+      <c r="B15" s="118"/>
+      <c r="C15" s="118"/>
+      <c r="D15" s="118"/>
+      <c r="E15" s="118"/>
+      <c r="F15" s="118"/>
       <c r="U15"/>
       <c r="V15"/>
       <c r="W15"/>
@@ -10015,25 +8240,13 @@
       <c r="AZ15"/>
       <c r="BA15"/>
     </row>
-    <row r="16" spans="1:53" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="95" t="s">
-        <v>83</v>
-      </c>
-      <c r="B16" s="177">
-        <v>8</v>
-      </c>
-      <c r="C16" s="177">
-        <v>8</v>
-      </c>
-      <c r="D16" s="177">
-        <v>8</v>
-      </c>
-      <c r="E16" s="177">
-        <v>8</v>
-      </c>
-      <c r="F16" s="177">
-        <v>8</v>
-      </c>
+    <row r="16" spans="1:53" ht="12" customHeight="1">
+      <c r="A16" s="114"/>
+      <c r="B16" s="118"/>
+      <c r="C16" s="118"/>
+      <c r="D16" s="118"/>
+      <c r="E16" s="118"/>
+      <c r="F16" s="118"/>
       <c r="U16"/>
       <c r="V16"/>
       <c r="W16"/>
@@ -10068,25 +8281,13 @@
       <c r="AZ16"/>
       <c r="BA16"/>
     </row>
-    <row r="17" spans="1:53" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="95" t="s">
-        <v>86</v>
-      </c>
-      <c r="B17" s="177">
-        <v>9</v>
-      </c>
-      <c r="C17" s="177">
-        <v>9</v>
-      </c>
-      <c r="D17" s="177">
-        <v>9</v>
-      </c>
-      <c r="E17" s="177">
-        <v>9</v>
-      </c>
-      <c r="F17" s="177">
-        <v>9</v>
-      </c>
+    <row r="17" spans="1:53" ht="12" customHeight="1">
+      <c r="A17" s="114"/>
+      <c r="B17" s="118"/>
+      <c r="C17" s="118"/>
+      <c r="D17" s="118"/>
+      <c r="E17" s="118"/>
+      <c r="F17" s="118"/>
       <c r="U17"/>
       <c r="V17"/>
       <c r="W17"/>
@@ -10121,25 +8322,13 @@
       <c r="AZ17"/>
       <c r="BA17"/>
     </row>
-    <row r="18" spans="1:53" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="95" t="s">
-        <v>82</v>
-      </c>
-      <c r="B18" s="177">
-        <v>10</v>
-      </c>
-      <c r="C18" s="177">
-        <v>10</v>
-      </c>
-      <c r="D18" s="177">
-        <v>10</v>
-      </c>
-      <c r="E18" s="177">
-        <v>10</v>
-      </c>
-      <c r="F18" s="177">
-        <v>10</v>
-      </c>
+    <row r="18" spans="1:53" ht="12" customHeight="1">
+      <c r="A18" s="114"/>
+      <c r="B18" s="118"/>
+      <c r="C18" s="118"/>
+      <c r="D18" s="118"/>
+      <c r="E18" s="118"/>
+      <c r="F18" s="118"/>
       <c r="U18"/>
       <c r="V18"/>
       <c r="W18"/>
@@ -10174,25 +8363,13 @@
       <c r="AZ18"/>
       <c r="BA18"/>
     </row>
-    <row r="19" spans="1:53" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="95" t="s">
-        <v>85</v>
-      </c>
-      <c r="B19" s="177">
-        <v>11</v>
-      </c>
-      <c r="C19" s="177">
-        <v>11</v>
-      </c>
-      <c r="D19" s="177">
-        <v>11</v>
-      </c>
-      <c r="E19" s="177">
-        <v>11</v>
-      </c>
-      <c r="F19" s="177">
-        <v>11</v>
-      </c>
+    <row r="19" spans="1:53" ht="12" customHeight="1">
+      <c r="A19" s="114"/>
+      <c r="B19" s="118"/>
+      <c r="C19" s="118"/>
+      <c r="D19" s="118"/>
+      <c r="E19" s="118"/>
+      <c r="F19" s="118"/>
       <c r="U19"/>
       <c r="V19"/>
       <c r="W19"/>
@@ -10227,7 +8404,7 @@
       <c r="AZ19"/>
       <c r="BA19"/>
     </row>
-    <row r="20" spans="1:53" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:53" ht="12" customHeight="1">
       <c r="U20"/>
       <c r="V20"/>
       <c r="W20"/>
@@ -10262,7 +8439,7 @@
       <c r="AZ20"/>
       <c r="BA20"/>
     </row>
-    <row r="21" spans="1:53" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:53" ht="12" customHeight="1">
       <c r="U21"/>
       <c r="V21"/>
       <c r="W21"/>
@@ -10297,7 +8474,7 @@
       <c r="AZ21"/>
       <c r="BA21"/>
     </row>
-    <row r="22" spans="1:53" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:53" ht="12" customHeight="1">
       <c r="U22"/>
       <c r="V22"/>
       <c r="W22"/>
@@ -10332,7 +8509,7 @@
       <c r="AZ22"/>
       <c r="BA22"/>
     </row>
-    <row r="23" spans="1:53" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:53" ht="12" customHeight="1">
       <c r="U23"/>
       <c r="V23"/>
       <c r="W23"/>
@@ -10367,7 +8544,7 @@
       <c r="AZ23"/>
       <c r="BA23"/>
     </row>
-    <row r="24" spans="1:53" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:53" ht="12" customHeight="1">
       <c r="U24"/>
       <c r="V24"/>
       <c r="W24"/>
@@ -10402,7 +8579,7 @@
       <c r="AZ24"/>
       <c r="BA24"/>
     </row>
-    <row r="25" spans="1:53" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:53" ht="12" customHeight="1">
       <c r="U25"/>
       <c r="V25"/>
       <c r="W25"/>
@@ -10437,7 +8614,7 @@
       <c r="AZ25"/>
       <c r="BA25"/>
     </row>
-    <row r="26" spans="1:53" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:53" ht="12" customHeight="1">
       <c r="U26"/>
       <c r="V26"/>
       <c r="W26"/>
@@ -10472,7 +8649,7 @@
       <c r="AZ26"/>
       <c r="BA26"/>
     </row>
-    <row r="27" spans="1:53" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:53" ht="12" customHeight="1">
       <c r="U27"/>
       <c r="V27"/>
       <c r="W27"/>
@@ -10507,7 +8684,7 @@
       <c r="AZ27"/>
       <c r="BA27"/>
     </row>
-    <row r="28" spans="1:53" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:53" ht="12" customHeight="1">
       <c r="U28"/>
       <c r="V28"/>
       <c r="W28"/>
@@ -10542,7 +8719,7 @@
       <c r="AZ28"/>
       <c r="BA28"/>
     </row>
-    <row r="29" spans="1:53" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:53" ht="12" customHeight="1">
       <c r="U29"/>
       <c r="V29"/>
       <c r="W29"/>
@@ -10577,7 +8754,7 @@
       <c r="AZ29"/>
       <c r="BA29"/>
     </row>
-    <row r="30" spans="1:53" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:53" ht="12" customHeight="1">
       <c r="U30"/>
       <c r="V30"/>
       <c r="W30"/>
@@ -10612,7 +8789,7 @@
       <c r="AZ30"/>
       <c r="BA30"/>
     </row>
-    <row r="31" spans="1:53" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:53" ht="12" customHeight="1">
       <c r="U31"/>
       <c r="V31"/>
       <c r="W31"/>
@@ -10647,7 +8824,7 @@
       <c r="AZ31"/>
       <c r="BA31"/>
     </row>
-    <row r="32" spans="1:53" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:53" ht="12" customHeight="1">
       <c r="U32"/>
       <c r="V32"/>
       <c r="W32"/>
@@ -10682,7 +8859,7 @@
       <c r="AZ32"/>
       <c r="BA32"/>
     </row>
-    <row r="33" spans="21:53" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="21:53" ht="12" customHeight="1">
       <c r="U33"/>
       <c r="V33"/>
       <c r="W33"/>
@@ -10717,7 +8894,7 @@
       <c r="AZ33"/>
       <c r="BA33"/>
     </row>
-    <row r="34" spans="21:53" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="21:53" ht="12" customHeight="1">
       <c r="U34"/>
       <c r="V34"/>
       <c r="W34"/>
@@ -10752,7 +8929,7 @@
       <c r="AZ34"/>
       <c r="BA34"/>
     </row>
-    <row r="35" spans="21:53" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="21:53" ht="12" customHeight="1">
       <c r="U35"/>
       <c r="V35"/>
       <c r="W35"/>
@@ -10787,7 +8964,7 @@
       <c r="AZ35"/>
       <c r="BA35"/>
     </row>
-    <row r="36" spans="21:53" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="21:53" ht="12" customHeight="1">
       <c r="U36"/>
       <c r="V36"/>
       <c r="W36"/>
@@ -10822,7 +8999,7 @@
       <c r="AZ36"/>
       <c r="BA36"/>
     </row>
-    <row r="37" spans="21:53" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="21:53" ht="12" customHeight="1">
       <c r="U37"/>
       <c r="V37"/>
       <c r="W37"/>
@@ -10857,7 +9034,7 @@
       <c r="AZ37"/>
       <c r="BA37"/>
     </row>
-    <row r="38" spans="21:53" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="21:53" ht="12" customHeight="1">
       <c r="U38"/>
       <c r="V38"/>
       <c r="W38"/>
@@ -10892,7 +9069,7 @@
       <c r="AZ38"/>
       <c r="BA38"/>
     </row>
-    <row r="39" spans="21:53" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="21:53" ht="12" customHeight="1">
       <c r="U39"/>
       <c r="V39"/>
       <c r="W39"/>
@@ -10927,7 +9104,7 @@
       <c r="AZ39"/>
       <c r="BA39"/>
     </row>
-    <row r="40" spans="21:53" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="21:53" ht="12" customHeight="1">
       <c r="U40"/>
       <c r="V40"/>
       <c r="W40"/>
@@ -10962,7 +9139,7 @@
       <c r="AZ40"/>
       <c r="BA40"/>
     </row>
-    <row r="41" spans="21:53" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="21:53" ht="12" customHeight="1">
       <c r="U41"/>
       <c r="V41"/>
       <c r="W41"/>
@@ -10997,7 +9174,7 @@
       <c r="AZ41"/>
       <c r="BA41"/>
     </row>
-    <row r="42" spans="21:53" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="21:53" ht="12" customHeight="1">
       <c r="U42"/>
       <c r="V42"/>
       <c r="W42"/>
@@ -11032,7 +9209,7 @@
       <c r="AZ42"/>
       <c r="BA42"/>
     </row>
-    <row r="43" spans="21:53" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="21:53" ht="12" customHeight="1">
       <c r="U43"/>
       <c r="V43"/>
       <c r="W43"/>
@@ -11067,7 +9244,7 @@
       <c r="AZ43"/>
       <c r="BA43"/>
     </row>
-    <row r="44" spans="21:53" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="21:53" ht="12" customHeight="1">
       <c r="U44"/>
       <c r="V44"/>
       <c r="W44"/>
@@ -11102,7 +9279,7 @@
       <c r="AZ44"/>
       <c r="BA44"/>
     </row>
-    <row r="45" spans="21:53" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="21:53" ht="12" customHeight="1">
       <c r="U45"/>
       <c r="V45"/>
       <c r="W45"/>
@@ -11137,7 +9314,7 @@
       <c r="AZ45"/>
       <c r="BA45"/>
     </row>
-    <row r="46" spans="21:53" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="21:53" ht="12" customHeight="1">
       <c r="U46"/>
       <c r="V46"/>
       <c r="W46"/>
@@ -11172,7 +9349,7 @@
       <c r="AZ46"/>
       <c r="BA46"/>
     </row>
-    <row r="47" spans="21:53" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="21:53" ht="12" customHeight="1">
       <c r="U47"/>
       <c r="V47"/>
       <c r="W47"/>
@@ -11207,7 +9384,7 @@
       <c r="AZ47"/>
       <c r="BA47"/>
     </row>
-    <row r="48" spans="21:53" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="21:53" ht="12" customHeight="1">
       <c r="U48"/>
       <c r="V48"/>
       <c r="W48"/>
@@ -11242,7 +9419,7 @@
       <c r="AZ48"/>
       <c r="BA48"/>
     </row>
-    <row r="49" spans="21:53" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="21:53" ht="12" customHeight="1">
       <c r="U49"/>
       <c r="V49"/>
       <c r="W49"/>
@@ -11277,7 +9454,7 @@
       <c r="AZ49"/>
       <c r="BA49"/>
     </row>
-    <row r="50" spans="21:53" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="21:53" ht="12" customHeight="1">
       <c r="U50"/>
       <c r="V50"/>
       <c r="W50"/>
@@ -11312,7 +9489,7 @@
       <c r="AZ50"/>
       <c r="BA50"/>
     </row>
-    <row r="51" spans="21:53" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="21:53" ht="12" customHeight="1">
       <c r="U51"/>
       <c r="V51"/>
       <c r="W51"/>
@@ -11347,7 +9524,7 @@
       <c r="AZ51"/>
       <c r="BA51"/>
     </row>
-    <row r="52" spans="21:53" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="21:53" ht="12" customHeight="1">
       <c r="U52"/>
       <c r="V52"/>
       <c r="W52"/>
@@ -11382,7 +9559,7 @@
       <c r="AZ52"/>
       <c r="BA52"/>
     </row>
-    <row r="53" spans="21:53" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="21:53" ht="12" customHeight="1">
       <c r="U53"/>
       <c r="V53"/>
       <c r="W53"/>
@@ -11417,7 +9594,7 @@
       <c r="AZ53"/>
       <c r="BA53"/>
     </row>
-    <row r="54" spans="21:53" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="21:53" ht="12" customHeight="1">
       <c r="U54"/>
       <c r="V54"/>
       <c r="W54"/>
@@ -11452,7 +9629,7 @@
       <c r="AZ54"/>
       <c r="BA54"/>
     </row>
-    <row r="55" spans="21:53" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="21:53" ht="12" customHeight="1">
       <c r="U55"/>
       <c r="V55"/>
       <c r="W55"/>
@@ -11487,7 +9664,7 @@
       <c r="AZ55"/>
       <c r="BA55"/>
     </row>
-    <row r="56" spans="21:53" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="21:53" ht="12" customHeight="1">
       <c r="U56"/>
       <c r="V56"/>
       <c r="W56"/>
@@ -11522,7 +9699,7 @@
       <c r="AZ56"/>
       <c r="BA56"/>
     </row>
-    <row r="57" spans="21:53" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="21:53" ht="12" customHeight="1">
       <c r="U57"/>
       <c r="V57"/>
       <c r="W57"/>
@@ -11557,7 +9734,7 @@
       <c r="AZ57"/>
       <c r="BA57"/>
     </row>
-    <row r="58" spans="21:53" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="21:53" ht="12" customHeight="1">
       <c r="U58"/>
       <c r="V58"/>
       <c r="W58"/>
@@ -11592,7 +9769,7 @@
       <c r="AZ58"/>
       <c r="BA58"/>
     </row>
-    <row r="59" spans="21:53" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="21:53" ht="12" customHeight="1">
       <c r="U59"/>
       <c r="V59"/>
       <c r="W59"/>
@@ -11627,7 +9804,7 @@
       <c r="AZ59"/>
       <c r="BA59"/>
     </row>
-    <row r="60" spans="21:53" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="21:53" ht="12" customHeight="1">
       <c r="U60"/>
       <c r="V60"/>
       <c r="W60"/>
@@ -11662,7 +9839,7 @@
       <c r="AZ60"/>
       <c r="BA60"/>
     </row>
-    <row r="61" spans="21:53" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="21:53" ht="12" customHeight="1">
       <c r="U61"/>
       <c r="V61"/>
       <c r="W61"/>
@@ -11697,7 +9874,7 @@
       <c r="AZ61"/>
       <c r="BA61"/>
     </row>
-    <row r="62" spans="21:53" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="21:53" ht="12" customHeight="1">
       <c r="U62"/>
       <c r="V62"/>
       <c r="W62"/>
@@ -11732,7 +9909,7 @@
       <c r="AZ62"/>
       <c r="BA62"/>
     </row>
-    <row r="63" spans="21:53" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="21:53" ht="12" customHeight="1">
       <c r="U63"/>
       <c r="V63"/>
       <c r="W63"/>
@@ -11767,7 +9944,7 @@
       <c r="AZ63"/>
       <c r="BA63"/>
     </row>
-    <row r="64" spans="21:53" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="21:53" ht="12" customHeight="1">
       <c r="U64"/>
       <c r="V64"/>
       <c r="W64"/>
@@ -11802,7 +9979,7 @@
       <c r="AZ64"/>
       <c r="BA64"/>
     </row>
-    <row r="65" spans="21:53" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="21:53" ht="12" customHeight="1">
       <c r="U65"/>
       <c r="V65"/>
       <c r="W65"/>
@@ -11837,7 +10014,7 @@
       <c r="AZ65"/>
       <c r="BA65"/>
     </row>
-    <row r="66" spans="21:53" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="21:53" ht="12" customHeight="1">
       <c r="U66"/>
       <c r="V66"/>
       <c r="W66"/>
